--- a/data/city-util/raw/Utility.xlsx
+++ b/data/city-util/raw/Utility.xlsx
@@ -500,10 +500,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="0">
-        <v>6.22499994933605E-02</v>
+        <v>4.95500005781651E-02</v>
       </c>
       <c r="I2" s="0">
-        <v>6.22999994084239E-03</v>
+        <v>1.87199991196394E-02</v>
       </c>
       <c r="J2" s="0">
         <v>0</v>
@@ -515,14 +515,14 @@
         <v>8</v>
       </c>
       <c r="S2" s="0">
-        <v>0.117090001702309</v>
+        <v>0.117909997701645</v>
       </c>
       <c r="X2" s="0">
         <v>4.30000014603138E-02</v>
       </c>
       <c r="Y2" s="0" t="inlineStr">
         <is>
-          <t>Commercial small Service; Rates updated as of 7/2017 from Chugach website: rates in effect for Anchorage, Hope, Moose Pass Whittier, Girdwood;  Purchased power ncludes both purchased power and Fire island Wind Renewable Energy Adjustment</t>
+          <t>Commercial small Service; Rates updated as of 7/2018 from Chugach website: rates in effect for Anchorage, Hope, Moose Pass Whittier, Girdwood;  Purchased power ncludes both purchased power and Fire island Wind Renewable Energy Adjustment</t>
         </is>
       </c>
     </row>
@@ -548,16 +548,16 @@
         <v>1</v>
       </c>
       <c r="I3" s="0">
-        <v>2.45600007474422E-02</v>
+        <v>2.08599995821714E-02</v>
       </c>
       <c r="K3" s="0">
         <v>1.10000002384186</v>
       </c>
       <c r="L3" s="0">
-        <v>6.55999994277954</v>
+        <v>13.6199998855591</v>
       </c>
       <c r="S3" s="0">
-        <v>0.147379994392395</v>
+        <v>0.152740001678467</v>
       </c>
       <c r="X3" s="0">
         <v>6.13900013267994E-02</v>
@@ -590,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="0">
-        <v>9.46699976921082E-02</v>
+        <v>0.110710002481937</v>
       </c>
       <c r="K4" s="0">
         <v>2.27999997138977</v>
@@ -606,7 +606,7 @@
       </c>
       <c r="Y4" s="0" t="inlineStr">
         <is>
-          <t>Rates from 11/2017; Fuel and Purchased Power Charges are combined under Fuel Surcharge            CO2 is based on addition of hydro from Bradley Lake (without hydro = 2.8)</t>
+          <t>Rates from 7/1/18; Fuel and Purchased Power Charges are combined under Fuel Surcharge            CO2 is based on addition of hydro from Bradley Lake (without hydro = 2.8)</t>
         </is>
       </c>
     </row>
@@ -632,20 +632,20 @@
         <v>1</v>
       </c>
       <c r="H5" s="0">
-        <v>0.824159979820251</v>
+        <v>0.791960000991821</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="L5" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S5" s="0">
-        <v>0.154359996318817</v>
+        <v>0.1475899964571</v>
       </c>
       <c r="Y5" s="0" t="inlineStr">
         <is>
-          <t>Rates are  from Enstar Website effective updated Jan 2018; CO2 is lbs/therm (12.1) estimated from ACE3 figures;  Fuel Surcharge is actually Gas Cost Adjustment which is the figure ENSTAR changes each January; RCC of .223% .  This  rate is for customers throughout the service area - Anchorage, Big Lake, Chugiak-EagleRiver Eklutna, Girdwood, Houston, Indian, Kenai, Knik, Nikiski, Palmer, Peters Creek Portage, Sterling, Soldotna, Wasilla,Whittier</t>
+          <t>Rates are  from Enstar Website effective updated July 1 2018; CO2 is lbs/therm (12.1) estimated from ACE3 figures;  Fuel Surcharge is actually Gas Cost Adjustment which is the figure ENSTAR changes each January; RCC of .223% .  This  rate is for customers throughout the service area - Anchorage, Big Lake, Chugiak-EagleRiver Eklutna, Girdwood, Houston, Indian, Kenai, Knik, Nikiski, Palmer, Peters Creek Portage, Sterling, Soldotna, Wasilla,Whittier</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="0">
-        <v>0.387199997901917</v>
+        <v>0.326499998569489</v>
       </c>
       <c r="K6" s="0">
         <v>2.20000004768372</v>
@@ -681,7 +681,7 @@
       </c>
       <c r="Y6" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 for residential rate without PCE from AEA</t>
+          <t>updated Jul 2018 for residential rate without PCE from AEA</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>0.261999994516373</v>
+        <v>0.2483000010252</v>
       </c>
       <c r="K7" s="0">
         <v>1.89999997615814</v>
@@ -717,7 +717,7 @@
       </c>
       <c r="Y7" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 for residential rate without PCE from AEA</t>
+          <t>updated Jul 2018 for residential rate without PCE from AEA</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0.217199996113777</v>
+        <v>0.297699987888336</v>
       </c>
       <c r="K8" s="0">
         <v>1.79999995231628</v>
@@ -753,7 +753,7 @@
       </c>
       <c r="Y8" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 for residential rate without PCE from AEA</t>
+          <t>updated Jul 2018 for residential rate without PCE from AEA</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.774200022220612</v>
+        <v>0.759800016880035</v>
       </c>
       <c r="K9" s="0">
         <v>2.5</v>
@@ -789,7 +789,7 @@
       </c>
       <c r="Y9" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 for residential rate without PCE from AEA</t>
+          <t>updated Jul 2018 for residential rate without PCE from AEA</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="Y10" s="0" t="inlineStr">
         <is>
-          <t>from AEL&amp;P website rate schedule for 1/2018; block rate and demand charge are calculated as .75* Peak rate + .25  Off Peak rate.</t>
+          <t>from AEL&amp;P website rate schedule for 7/2018; block rate and demand charge are calculated as .75* Peak rate + .25  Off Peak rate.</t>
         </is>
       </c>
     </row>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>0.377099990844727</v>
+        <v>0.399800002574921</v>
       </c>
       <c r="K11" s="0">
         <v>2.40000009536743</v>
@@ -870,7 +870,7 @@
       </c>
       <c r="Y11" s="0" t="inlineStr">
         <is>
-          <t>Karluk;updated Jan 2018;  CO2 from PCEStatistics from Alaska Energy Authority</t>
+          <t>Karluk;updated Jul 2018;  CO2 from PCEStatistics from Alaska Energy Authority</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.238600000739098</v>
+        <v>0.236800000071526</v>
       </c>
       <c r="K12" s="0">
         <v>2.79999995231628</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="Y12" s="0" t="inlineStr">
         <is>
-          <t>Atka; Now City oF Atka is utility; AEA report  updated Jan 2018 for residential; CO2 is estimated because of lack of data</t>
+          <t>Atka; Now City oF Atka is utility; AEA report  updated Jul 2018 for residential; CO2 is estimated because of lack of data</t>
         </is>
       </c>
     </row>
@@ -932,17 +932,17 @@
         <v>1</v>
       </c>
       <c r="J13" s="0">
-        <v>0.301099985837936</v>
+        <v>0.330300003290176</v>
       </c>
       <c r="K13" s="0">
         <v>1.70000004768372</v>
       </c>
       <c r="S13" s="0">
-        <v>0.605300009250641</v>
+        <v>0.621699988842011</v>
       </c>
       <c r="Y13" s="0" t="inlineStr">
         <is>
-          <t>AIDA Report updated Jan 2018 for residential ; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AIDA Report updated July 2018 for residential ; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>0.782999992370605</v>
+        <v>0.769299983978271</v>
       </c>
       <c r="K14" s="0">
         <v>2.70000004768372</v>
@@ -978,7 +978,7 @@
       </c>
       <c r="Y14" s="0" t="inlineStr">
         <is>
-          <t>From AEA report  updated Jan 2018 for residential; CO2 from PCEStatistics</t>
+          <t>From AEA report  updated July 2018 for residential; CO2 from PCEStatistics</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>0.241200000047684</v>
+        <v>0.391099989414215</v>
       </c>
       <c r="K15" s="0">
         <v>1.5</v>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="Y15" s="0" t="inlineStr">
         <is>
-          <t>From AEA  updated Jan 2018;  for residential ; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>From AEA  updated July 2018;  for residential ; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -1043,14 +1043,14 @@
         <v>1.32000005245209</v>
       </c>
       <c r="L16" s="0">
-        <v>15.1499996185303</v>
+        <v>20</v>
       </c>
       <c r="S16" s="0">
-        <v>0.119499996304512</v>
+        <v>0.122500002384186</v>
       </c>
       <c r="Y16" s="0" t="inlineStr">
         <is>
-          <t>7/2017 for Residential and Commercial Single Phase; Schedule A</t>
+          <t>7/2018 for Residential and Commercial Single Phase; Schedule A</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="Y17" s="0" t="inlineStr">
         <is>
-          <t>7/2017</t>
+          <t>7/2018</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>0.5692999958992</v>
+        <v>0.62720000743866</v>
       </c>
       <c r="K18" s="0">
         <v>2.29999995231628</v>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="Y18" s="0" t="inlineStr">
         <is>
-          <t>AEA report updated Jan 2018; CO2 from FY92</t>
+          <t>AEA report updated Jul 2018; CO2 from FY92</t>
         </is>
       </c>
     </row>
@@ -1154,10 +1154,10 @@
         <v>1</v>
       </c>
       <c r="H19" s="0">
-        <v>0.245299994945526</v>
+        <v>0.247899994254112</v>
       </c>
       <c r="J19" s="0">
-        <v>0.115500003099442</v>
+        <v>0.104299999773502</v>
       </c>
       <c r="K19" s="0">
         <v>1.5</v>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="Y19" s="0" t="inlineStr">
         <is>
-          <t>AVEC took over Bethel Utilities in May 2014;  updated Jan 2018</t>
+          <t>AVEC took over Bethel Utilities in May 2014;  updated July 2018</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="0">
-        <v>0.133399993181229</v>
+        <v>0.119699999690056</v>
       </c>
       <c r="K21" s="0">
         <v>1.70000004768372</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="0">
-        <v>0.421499997377396</v>
+        <v>0.387100011110306</v>
       </c>
       <c r="K22" s="0">
         <v>2.40000009536743</v>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="Y22" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 AEA</t>
+          <t>updated July 2018 AEA</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="0">
-        <v>0.240199998021126</v>
+        <v>0.22579999268055</v>
       </c>
       <c r="K23" s="0">
         <v>3.59999990463257</v>
@@ -1313,11 +1313,11 @@
         <v>0</v>
       </c>
       <c r="S23" s="0">
-        <v>0.430999994277954</v>
+        <v>0.416000008583069</v>
       </c>
       <c r="Y23" s="0" t="inlineStr">
         <is>
-          <t>AEA 7/2017 for residential;</t>
+          <t>updated July 2018 AEA</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="0">
-        <v>0.333600014448166</v>
+        <v>0.366800010204315</v>
       </c>
       <c r="K24" s="0">
         <v>2.40000009536743</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="Y24" s="0" t="inlineStr">
         <is>
-          <t>AEA report updated Jan 2018</t>
+          <t>updated July 2018  AEA report</t>
         </is>
       </c>
     </row>
@@ -1382,20 +1382,18 @@
         <v>1</v>
       </c>
       <c r="J25" s="0">
-        <v>0.314500004053116</v>
+        <v>0.392599999904633</v>
       </c>
       <c r="K25" s="0">
         <v>2.20000004768372</v>
       </c>
-      <c r="L25" s="0">
-        <v>0</v>
-      </c>
+      <c r="L25" s="0"/>
       <c r="S25" s="0">
-        <v>0.60180002450943</v>
+        <v>0.6875</v>
       </c>
       <c r="Y25" s="0" t="inlineStr">
         <is>
-          <t>AEA for residential updated Jan 2018; Now called Gold Country Energy;  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA for residential updated July 2018; Now called Gold Country Energy;  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="0">
-        <v>0.171000003814697</v>
+        <v>0.206400007009506</v>
       </c>
       <c r="J26" s="0">
         <v>0</v>
@@ -1466,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="0">
-        <v>8.51000025868416E-02</v>
+        <v>8.12999978661537E-02</v>
       </c>
       <c r="K27" s="0">
         <v>1.5</v>
@@ -1485,7 +1483,7 @@
       </c>
       <c r="Y27" s="0" t="inlineStr">
         <is>
-          <t>Cordova Electric schedule effective 3/2015 still in effect updated Jan 2018</t>
+          <t>Cordova Electric schedule effective 3/2015 still in effect July  2018 - residential rates are different summer and winter but are averaged here</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="0">
-        <v>0.229599997401237</v>
+        <v>0.220500007271767</v>
       </c>
       <c r="K28" s="0">
         <v>2.29999995231628</v>
@@ -1524,7 +1522,7 @@
       </c>
       <c r="Y28" s="0" t="inlineStr">
         <is>
-          <t>AEIDC for residential /2017;  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEIDC for residential updated July 2018;  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="0">
-        <v>0.416000008583069</v>
+        <v>0.458499997854233</v>
       </c>
       <c r="K29" s="0">
         <v>2</v>
@@ -1563,7 +1561,7 @@
       </c>
       <c r="Y29" s="0" t="inlineStr">
         <is>
-          <t>AEA updated Jan 2018 for residential;  -  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA updated July 2018 for residential;  -  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="0">
-        <v>0.241799995303154</v>
+        <v>0.245399996638298</v>
       </c>
       <c r="J30" s="0">
         <v>0.323900014162064</v>
@@ -1614,7 +1612,7 @@
       </c>
       <c r="Y30" s="0" t="inlineStr">
         <is>
-          <t>AVECupdated Jan 2018; In 2012 was first listed as AVEC</t>
+          <t>AVECupdated July 2018; In 2012 was first listed as AVEC</t>
         </is>
       </c>
     </row>
@@ -1640,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="0">
-        <v>0.359200000762939</v>
+        <v>0.396100014448166</v>
       </c>
       <c r="K31" s="0">
         <v>2</v>
@@ -1650,7 +1648,7 @@
       </c>
       <c r="Y31" s="0" t="inlineStr">
         <is>
-          <t>AEA updated Jan 2018 for residential;  -  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA updated July 2018 for residential;  -  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1674,17 @@
         <v>0</v>
       </c>
       <c r="J32" s="0">
-        <v>0.11599999666214</v>
+        <v>0.102300003170967</v>
       </c>
       <c r="K32" s="0">
         <v>2.79999995231628</v>
       </c>
       <c r="S32" s="0">
-        <v>0.445600003004074</v>
+        <v>0.433299988508224</v>
       </c>
       <c r="Y32" s="0" t="inlineStr">
         <is>
-          <t>AEA updated Jan 2018;  -  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA updated Feb 2018;  -  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -1721,11 +1719,11 @@
         <v>12.5</v>
       </c>
       <c r="S33" s="0">
-        <v>0.664399981498718</v>
+        <v>0.665300011634827</v>
       </c>
       <c r="Y33" s="0" t="inlineStr">
         <is>
-          <t>Cold Bay; AEA updated Jan 2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Cold Bay; AEA updated Jul 2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="0">
-        <v>0.200000002980232</v>
+        <v>0.189099997282028</v>
       </c>
       <c r="K34" s="0">
         <v>1.60000002384186</v>
@@ -1764,7 +1762,7 @@
       </c>
       <c r="Y34" s="0" t="inlineStr">
         <is>
-          <t>AEA for residential  updated Jan 2018</t>
+          <t>AEA for residential  updated July 2018</t>
         </is>
       </c>
     </row>
@@ -1790,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="0">
-        <v>0.136899992823601</v>
+        <v>0.11259999871254</v>
       </c>
       <c r="K35" s="0">
         <v>2.20000004768372</v>
@@ -1800,7 +1798,7 @@
       </c>
       <c r="Y35" s="0" t="inlineStr">
         <is>
-          <t>from AEA updated Jan 2018 for residential</t>
+          <t>from AEA updated July 2018 for residential</t>
         </is>
       </c>
     </row>
@@ -1874,11 +1872,11 @@
         <v>0</v>
       </c>
       <c r="S37" s="0">
-        <v>0.702899992465973</v>
+        <v>0.651799976825714</v>
       </c>
       <c r="Y37" s="0" t="inlineStr">
         <is>
-          <t>Fort Yukon; updated Jan 2018  from AEA</t>
+          <t>Fort Yukon; updated July 2018  from AEA</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="0">
-        <v>7.07700029015541E-02</v>
+        <v>7.27000012993813E-02</v>
       </c>
       <c r="J38" s="0">
         <v>0</v>
@@ -1923,7 +1921,7 @@
       </c>
       <c r="Y38" s="0" t="inlineStr">
         <is>
-          <t>rates updated Jan 2018;  new rate structure; rates same for all communities served; minimum charge required ($19.30) isn't included here</t>
+          <t>rates updated July 2018;  new rate structure; rates same for all communities served; minimum charge required ($23.21) isn't included here</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="0">
-        <v>0.499700009822845</v>
+        <v>0.519800007343292</v>
       </c>
       <c r="K39" s="0">
         <v>2.25</v>
@@ -1985,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="0">
-        <v>0.39300000667572</v>
+        <v>0.379299998283386</v>
       </c>
       <c r="K40" s="0">
         <v>1.60000002384186</v>
@@ -1998,7 +1996,7 @@
       </c>
       <c r="Y40" s="0" t="inlineStr">
         <is>
-          <t>Iliamna, New Halen; updated Jan 2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA);</t>
+          <t>Iliamna, New Halen; updated July 2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA);</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="0">
-        <v>0.640500009059906</v>
+        <v>0.598599970340729</v>
       </c>
       <c r="K41" s="0">
         <v>2.5</v>
@@ -2033,11 +2031,11 @@
         <v>5</v>
       </c>
       <c r="S41" s="0">
-        <v>0.908999979496002</v>
+        <v>0.919000029563904</v>
       </c>
       <c r="Y41" s="0" t="inlineStr">
         <is>
-          <t>AEA updated Jan 2018for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA updated July 2018for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="0">
-        <v>0.259999990463257</v>
+        <v>0.246399998664856</v>
       </c>
       <c r="K42" s="0">
         <v>1.79999995231628</v>
@@ -2076,7 +2074,7 @@
       </c>
       <c r="Y42" s="0" t="inlineStr">
         <is>
-          <t>Deering; updated Jan 2018 for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Deering; updated July 2018 for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -2114,11 +2112,11 @@
         <v>6.40000009536743</v>
       </c>
       <c r="S43" s="0">
-        <v>0.100599996745586</v>
+        <v>0.105599999427795</v>
       </c>
       <c r="Y43" s="0" t="inlineStr">
         <is>
-          <t>From data sheet supplied by utility   7/2017 ; CO2 rate includes hydro from Ketchikan and Swan Lake      Customer Charge is $36.30 paid only April thru October so here it is allocated over whole year.</t>
+          <t>From data sheet supplied by utility   7/2018 ; CO2 rate includes hydro from Ketchikan and Swan Lake      Customer Charge is $36.30 paid only April thru October so here it is allocated over whole year.</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="0">
-        <v>0</v>
+        <v>9.99999974737875E-05</v>
       </c>
       <c r="K44" s="0">
         <v>1.79999995231628</v>
@@ -2157,7 +2155,7 @@
       </c>
       <c r="Y44" s="0" t="inlineStr">
         <is>
-          <t>7/2017 for residential; ; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>7/2018 for residential; ; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -2183,17 +2181,17 @@
         <v>1</v>
       </c>
       <c r="J45" s="0">
-        <v>0.109700001776218</v>
+        <v>0.208800002932549</v>
       </c>
       <c r="K45" s="0">
         <v>1.79999995231628</v>
       </c>
       <c r="S45" s="0">
-        <v>0.329699993133545</v>
+        <v>0.4341000020504</v>
       </c>
       <c r="Y45" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>updated July 2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -2219,10 +2217,10 @@
         <v>0</v>
       </c>
       <c r="H46" s="0">
-        <v>0.201100006699562</v>
+        <v>0.359100013971329</v>
       </c>
       <c r="J46" s="0">
-        <v>0.263300001621246</v>
+        <v>0.421600013971329</v>
       </c>
       <c r="K46" s="0">
         <v>2.20000004768372</v>
@@ -2238,7 +2236,7 @@
       </c>
       <c r="Y46" s="0" t="inlineStr">
         <is>
-          <t>AVEC for Shungnak 7/2017; fuel surcharge includes wind surcharge</t>
+          <t>AVEC for Shungnak 7/2018</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="0">
-        <v>1.96940004825592E-02</v>
+        <v>2.65200007706881E-02</v>
       </c>
       <c r="K47" s="0">
         <v>0.270000010728836</v>
@@ -2277,7 +2275,7 @@
       </c>
       <c r="Y47" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 rate schedule; CO2 includes hydro from Terror Lake and oil from Kodiak; Kodiak, Port Lions</t>
+          <t>updated July 2018 rate schedule; CO2 includes hydro from Terror Lake and oil from Kodiak; Kodiak, Port Lions</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="0">
-        <v>0.597500026226044</v>
+        <v>0.641799986362457</v>
       </c>
       <c r="K48" s="0">
         <v>2.29999995231628</v>
@@ -2316,7 +2314,7 @@
       </c>
       <c r="Y48" s="0" t="inlineStr">
         <is>
-          <t>AEA  updated Jan 2018 for residential_x000d_
+          <t>AEA  updated July 2018 for residential_x000d_
 This is an unregulated utility</t>
         </is>
       </c>
@@ -2343,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="0">
-        <v>0.217399999499321</v>
+        <v>0.232400000095367</v>
       </c>
       <c r="K49" s="0">
         <v>2.25</v>
@@ -2356,7 +2354,7 @@
       </c>
       <c r="Y49" s="0" t="inlineStr">
         <is>
-          <t>AIDEA database updated Jan 2018 for residential; CO2 estimated because of lack of data from PCEStatistics from Alaska Energy Authority (DCRA).</t>
+          <t>AIDEA database updated July 2018 for residential; CO2 estimated because of lack of data from PCEStatistics from Alaska Energy Authority (DCRA).</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="H50" s="0">
-        <v>0.200000002980232</v>
+        <v>0.207000002264977</v>
       </c>
       <c r="J50" s="0">
-        <v>0.284099996089935</v>
+        <v>0.277099996805191</v>
       </c>
       <c r="K50" s="0">
         <v>2.90000009536743</v>
@@ -2407,7 +2405,7 @@
       </c>
       <c r="Y50" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="0">
-        <v>0.1875</v>
+        <v>0.167099997401237</v>
       </c>
       <c r="K51" s="0">
         <v>1.60000002384186</v>
@@ -2442,11 +2440,11 @@
         <v>15</v>
       </c>
       <c r="S51" s="0">
-        <v>0.375699996948242</v>
+        <v>0.381599992513657</v>
       </c>
       <c r="Y51" s="0" t="inlineStr">
         <is>
-          <t>From 7/2017 AEA</t>
+          <t>From 4/2018 AEA</t>
         </is>
       </c>
     </row>
@@ -2472,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="0">
-        <v>0.311800003051758</v>
+        <v>0.275599986314774</v>
       </c>
       <c r="K52" s="0">
         <v>2.25</v>
@@ -2482,7 +2480,7 @@
       </c>
       <c r="Y52" s="0" t="inlineStr">
         <is>
-          <t>AEA for residential, 1/2018; CO2 estimated because of lack of data</t>
+          <t>AEA for residential, 7/2018; CO2 estimated because of lack of data</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="0">
-        <v>0.20550000667572</v>
+        <v>0.191799998283386</v>
       </c>
       <c r="K53" s="0">
         <v>3.79999995231628</v>
@@ -2518,7 +2516,7 @@
       </c>
       <c r="Y53" s="0" t="inlineStr">
         <is>
-          <t>Kwethluk; AEIdC database updated Jan 2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Kwethluk; AEIdC database updated 5/ 2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="0">
-        <v>0.356799989938736</v>
+        <v>0.343100011348724</v>
       </c>
       <c r="K54" s="0">
         <v>3.5</v>
@@ -2554,7 +2552,7 @@
       </c>
       <c r="Y54" s="0" t="inlineStr">
         <is>
-          <t>AEA for residential - updated Jan 2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA for residential - updated 2/ 2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -2593,7 +2591,7 @@
       </c>
       <c r="Y55" s="0" t="inlineStr">
         <is>
-          <t>AEA database  for residential updated Jan 2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA) 1995</t>
+          <t>AEA database  for residential updated 4/ 2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA) 1995</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="0">
-        <v>0.365399986505508</v>
+        <v>0.368000000715256</v>
       </c>
       <c r="K56" s="0">
         <v>2.79999995231628</v>
@@ -2632,7 +2630,7 @@
       </c>
       <c r="Y56" s="0" t="inlineStr">
         <is>
-          <t>AEA database  for residential 1/2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA) 1995</t>
+          <t>AEA database  for residential updated 4/ 2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA) 1995</t>
         </is>
       </c>
     </row>
@@ -2658,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="0">
-        <v>0.582199990749359</v>
+        <v>0.681599974632263</v>
       </c>
       <c r="K57" s="0">
         <v>2.20000004768372</v>
@@ -2667,11 +2665,11 @@
         <v>20</v>
       </c>
       <c r="S57" s="0">
-        <v>0.85479998588562</v>
+        <v>0.966799974441528</v>
       </c>
       <c r="Y57" s="0" t="inlineStr">
         <is>
-          <t>AEA database for residential - updated 1/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database for residential - updated 3/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="0">
-        <v>0.243900001049042</v>
+        <v>0.228200003504753</v>
       </c>
       <c r="K58" s="0">
         <v>2.70000004768372</v>
@@ -2710,7 +2708,7 @@
       </c>
       <c r="Y58" s="0" t="inlineStr">
         <is>
-          <t>AEA database for residential - updted 1/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database for residential - updated 3/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="0">
-        <v>7.96099975705147E-02</v>
+        <v>7.53199979662895E-02</v>
       </c>
       <c r="K59" s="0">
         <v>1.10000002384186</v>
@@ -2748,17 +2746,17 @@
         <v>1300</v>
       </c>
       <c r="S59" s="0">
-        <v>0.114069998264313</v>
+        <v>0.116810001432896</v>
       </c>
       <c r="T59" s="0">
-        <v>0.102559998631477</v>
+        <v>0.105020001530647</v>
       </c>
       <c r="X59" s="0">
         <v>7.15999975800514E-02</v>
       </c>
       <c r="Y59" s="0" t="inlineStr">
         <is>
-          <t>rates from MEA updated 1/2018  for 3 phase charges ;includes Eagle River, Chugiak, Palmer, Talkeetna, Wasilla, Willow;   there are sales tax charges in Palmer(3%), Wasilla (2.5%)and Houston (2%) and area within the Municipality of Anchorage has undergrounding surcharge of 2%</t>
+          <t>rates from MEA updated 1/2018  for residential single-phase service; ;includes Eagle River, Chugiak, Palmer, Talkeetna, Wasilla, Willow;   there are sales tax charges in Palmer(3%), Wasilla (2.5%)and Houston (2%) and area within the Municipality of Anchorage has undergrounding surcharge of 2%</t>
         </is>
       </c>
     </row>
@@ -2784,17 +2782,20 @@
         <v>1</v>
       </c>
       <c r="J60" s="0">
-        <v>0.379299998283386</v>
+        <v>0.321900010108948</v>
       </c>
       <c r="K60" s="0">
         <v>1.70000004768372</v>
       </c>
+      <c r="L60" s="0">
+        <v>10</v>
+      </c>
       <c r="S60" s="0">
-        <v>0.742999970912933</v>
+        <v>0.709800004959106</v>
       </c>
       <c r="Y60" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018 residential;CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 8/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -2820,10 +2821,10 @@
         <v>1</v>
       </c>
       <c r="I61" s="0">
-        <v>0.303000003099442</v>
+        <v>0.343100011348724</v>
       </c>
       <c r="J61" s="0">
-        <v>0.71399998664856</v>
+        <v>0.735000014305115</v>
       </c>
       <c r="K61" s="0">
         <v>2.40000009536743</v>
@@ -2836,7 +2837,7 @@
       </c>
       <c r="Y61" s="0" t="inlineStr">
         <is>
-          <t>Tarriff schedule from RCC updated 1/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA), averaged from total for the utility; Crooked Creek, Chuathbaluk, Red Devil, Sleetmute, Stony River;</t>
+          <t>Tarriff schedule from Middle Kusk updated 7/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA), averaged from total for the utility; Crooked Creek, Chuathbaluk, Red Devil, Sleetmute, Stony River;</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2866,7 @@
         <v>0.11710000038147</v>
       </c>
       <c r="J62" s="0">
-        <v>0.272799998521805</v>
+        <v>0.25780001282692</v>
       </c>
       <c r="K62" s="0">
         <v>1.5</v>
@@ -2884,7 +2885,7 @@
       </c>
       <c r="Y62" s="0" t="inlineStr">
         <is>
-          <t>Naknek Electric schedule 6/1/2017</t>
+          <t>Naknek Electric schedule 6/1/2018</t>
         </is>
       </c>
     </row>
@@ -2910,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="J63" s="0">
-        <v>0.327600002288818</v>
+        <v>0.322299987077713</v>
       </c>
       <c r="K63" s="0">
         <v>3.70000004768372</v>
@@ -2923,7 +2924,7 @@
       </c>
       <c r="Y63" s="0" t="inlineStr">
         <is>
-          <t>AEAdatabase updated 1/2018 for residential;CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEAdatabase updated 4/2018 for residential;CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="0">
-        <v>0.388700008392334</v>
+        <v>0.217299997806549</v>
       </c>
       <c r="K64" s="0">
         <v>2.90000009536743</v>
@@ -2962,7 +2963,7 @@
       </c>
       <c r="Y64" s="0" t="inlineStr">
         <is>
-          <t>AEAdatabase updated 1/2018 for residential;CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEAdatabase updated 4/2018 for residential;CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -2988,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="0">
-        <v>0.232099995017052</v>
+        <v>0.299800008535385</v>
       </c>
       <c r="K65" s="0">
         <v>2</v>
@@ -2998,7 +2999,7 @@
       </c>
       <c r="Y65" s="0" t="inlineStr">
         <is>
-          <t>Chefornak; AIDEA database updated 1/2018; CO2 estimated from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Chefornak; AIDEA database updated 4/2018; CO2 estimated from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -3024,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="0">
-        <v>0.570800006389618</v>
+        <v>0.476200014352798</v>
       </c>
       <c r="K66" s="0">
         <v>2.20000004768372</v>
@@ -3037,7 +3038,7 @@
       </c>
       <c r="Y66" s="0" t="inlineStr">
         <is>
-          <t>AIDEA database updated 1/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AIDEA database updated 4/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -3063,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="0">
-        <v>0.421600013971329</v>
+        <v>0.479999989271164</v>
       </c>
       <c r="K67" s="0">
         <v>2</v>
@@ -3073,7 +3074,7 @@
       </c>
       <c r="Y67" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 4/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3103,7 @@
         <v>0.100500002503395</v>
       </c>
       <c r="J68" s="0">
-        <v>8.35999995470047E-02</v>
+        <v>6.98999986052513E-02</v>
       </c>
       <c r="K68" s="0">
         <v>1.39999997615814</v>
@@ -3183,23 +3184,23 @@
         <v>0</v>
       </c>
       <c r="H70" s="0">
-        <v>0.16889999806881</v>
+        <v>0.142299994826317</v>
       </c>
       <c r="J70" s="0">
-        <v>0.158600002527237</v>
+        <v>0.147900000214577</v>
       </c>
       <c r="K70" s="0">
         <v>1.5</v>
       </c>
       <c r="L70" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S70" s="0">
         <v>0.242799997329712</v>
       </c>
       <c r="Y70" s="0" t="inlineStr">
         <is>
-          <t>Dillingham and Aleknagik; Nushagak updated 1/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Dillingham and Aleknagik; Nushagak updated 7/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="0">
-        <v>0.12729999423027</v>
+        <v>0.110299997031689</v>
       </c>
       <c r="K71" s="0">
         <v>2.20000004768372</v>
@@ -3234,11 +3235,11 @@
         <v>5</v>
       </c>
       <c r="S71" s="0">
-        <v>0.388700008392334</v>
+        <v>0.400999993085861</v>
       </c>
       <c r="Y71" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018 for residential; CO2 estimated from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 7/2018 for residential; CO2 estimated from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -3297,17 +3298,17 @@
         <v>0</v>
       </c>
       <c r="J73" s="0">
-        <v>0.343100011348724</v>
+        <v>0.374599993228912</v>
       </c>
       <c r="K73" s="0">
         <v>2.59999990463257</v>
       </c>
       <c r="S73" s="0">
-        <v>0.810000002384186</v>
+        <v>0.819999992847443</v>
       </c>
       <c r="Y73" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018 for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 7/2018 for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="0">
-        <v>0.25</v>
+        <v>0.219500005245209</v>
       </c>
       <c r="K74" s="0">
         <v>2.40000009536743</v>
@@ -3391,7 +3392,7 @@
       </c>
       <c r="Y75" s="0" t="inlineStr">
         <is>
-          <t>Rates from City of Petersburg  unchanged in 1/18 since 7/2015; CO2 rates include hydro from Tyee (based on sales rather than generation)</t>
+          <t>Rates from City of Petersburg  unchanged in 7/18 since 7/2015; CO2 rates include hydro from Tyee (based on sales rather than generation)</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="0">
-        <v>0.28549998998642</v>
+        <v>0.271800011396408</v>
       </c>
       <c r="K76" s="0">
         <v>2</v>
@@ -3430,7 +3431,7 @@
       </c>
       <c r="Y76" s="0" t="inlineStr">
         <is>
-          <t>AEA report updated 1/2018 for residential;</t>
+          <t>AEA report updated 7/2018 for residential;</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="0">
-        <v>0.316900014877319</v>
+        <v>0.298799991607666</v>
       </c>
       <c r="K77" s="0">
         <v>2</v>
@@ -3469,7 +3470,7 @@
       </c>
       <c r="Y77" s="0" t="inlineStr">
         <is>
-          <t>AEA report updated 1/2018 for residential;</t>
+          <t>AEA report updated 4/2018 for residential;</t>
         </is>
       </c>
     </row>
@@ -3495,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="0">
-        <v>0.226400002837181</v>
+        <v>0</v>
       </c>
       <c r="K78" s="0">
         <v>0.310000002384186</v>
@@ -3534,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="0">
-        <v>0.202000007033348</v>
+        <v>0.317299991846085</v>
       </c>
       <c r="K79" s="0">
         <v>2.40000009536743</v>
@@ -3544,7 +3545,7 @@
       </c>
       <c r="Y79" s="0" t="inlineStr">
         <is>
-          <t>AEA report updated 1/2018 for residential; Kongiganak</t>
+          <t>AEA report updated 3/2018 for residential; Kongiganak</t>
         </is>
       </c>
     </row>
@@ -3570,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="0">
-        <v>0.305000007152557</v>
+        <v>0.405699998140335</v>
       </c>
       <c r="K80" s="0">
         <v>2.09999990463257</v>
@@ -3583,7 +3584,7 @@
       </c>
       <c r="Y80" s="0" t="inlineStr">
         <is>
-          <t> AEA report updated 1/2018 for residential;</t>
+          <t> AEA report updated 4/2018 for residential;</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="J81" s="0">
-        <v>0.209800004959106</v>
+        <v>0.27250000834465</v>
       </c>
       <c r="K81" s="0">
         <v>1.70000004768372</v>
@@ -3618,11 +3619,11 @@
         <v>6.67999982833862</v>
       </c>
       <c r="S81" s="0">
-        <v>0.44530001282692</v>
+        <v>0.535300016403198</v>
       </c>
       <c r="Y81" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018 for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 3/2018 for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3662,7 @@
       </c>
       <c r="Y82" s="0" t="inlineStr">
         <is>
-          <t>rates  from  City of Seward; 1/2018 ; Chugach Electric purchased energy costs vary monthly,  Purchased energy adjustment is average of summer and winter rates</t>
+          <t>rates  from  City of Seward; 7/2018 ; Chugach Electric purchased energy costs vary monthly,  Purchased energy adjustment is average of summer and winter rates</t>
         </is>
       </c>
     </row>
@@ -3687,17 +3688,17 @@
         <v>0</v>
       </c>
       <c r="J83" s="0">
-        <v>0.19480000436306</v>
+        <v>0.181099995970726</v>
       </c>
       <c r="K83" s="0">
         <v>2.90000009536743</v>
       </c>
       <c r="S83" s="0">
-        <v>0.391000002622604</v>
+        <v>0.39640000462532</v>
       </c>
       <c r="Y83" s="0" t="inlineStr">
         <is>
-          <t>AEA report updated 1/2018 for residential rates</t>
+          <t>AEA report updated 7/2018 for residential rates</t>
         </is>
       </c>
     </row>
@@ -3759,20 +3760,18 @@
         <v>0</v>
       </c>
       <c r="J85" s="0">
-        <v>0.242400005459785</v>
+        <v>0.219799995422363</v>
       </c>
       <c r="K85" s="0">
         <v>1.60000002384186</v>
       </c>
-      <c r="L85" s="0">
-        <v>0</v>
-      </c>
+      <c r="L85" s="0"/>
       <c r="S85" s="0">
         <v>0.419999986886978</v>
       </c>
       <c r="Y85" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018  from AEA database for residential</t>
+          <t>updated 4/2018  from City of St. Paul</t>
         </is>
       </c>
     </row>
@@ -3798,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="0">
-        <v>0.416500002145767</v>
+        <v>0.446799993515015</v>
       </c>
       <c r="K86" s="0">
         <v>2.20000004768372</v>
@@ -3808,7 +3807,7 @@
       </c>
       <c r="Y86" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 2/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -3834,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="0">
-        <v>0.297399997711182</v>
+        <v>0.322200000286102</v>
       </c>
       <c r="K87" s="0">
         <v>1.89999997615814</v>
@@ -3847,7 +3846,7 @@
       </c>
       <c r="Y87" s="0" t="inlineStr">
         <is>
-          <t>Port Alsworth; AEA database updated 1/2018  for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Port Alsworth; AEA database updated 4/2018  for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3872,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="0">
-        <v>0.32480001449585</v>
+        <v>0.32260000705719</v>
       </c>
       <c r="K88" s="0">
         <v>1.70000004768372</v>
@@ -3882,11 +3881,11 @@
         <v>0</v>
       </c>
       <c r="S88" s="0">
-        <v>0.643199980258942</v>
+        <v>0.672999978065491</v>
       </c>
       <c r="Y88" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018  at AEA; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>updated 5/2018  at AEA; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -3912,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="0">
-        <v>0.542699992656708</v>
+        <v>0.566200017929077</v>
       </c>
       <c r="K89" s="0">
         <v>2.20000004768372</v>
@@ -3925,7 +3924,7 @@
       </c>
       <c r="Y89" s="0" t="inlineStr">
         <is>
-          <t>AIDEA database updated 1/2018   for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AIDEA database updated 4/2018   for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -3990,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="0">
-        <v>0.31580001115799</v>
+        <v>0.341699987649918</v>
       </c>
       <c r="K91" s="0">
         <v>2</v>
@@ -3999,11 +3998,11 @@
         <v>7.5</v>
       </c>
       <c r="S91" s="0">
-        <v>0.610000014305115</v>
+        <v>0.649999976158142</v>
       </c>
       <c r="Y91" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018  for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 7/2018  for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4035,7 @@
       </c>
       <c r="Y92" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 3/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -4062,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="0">
-        <v>0.226799994707108</v>
+        <v>0.27590000629425</v>
       </c>
       <c r="K93" s="0">
         <v>1.89999997615814</v>
@@ -4072,7 +4071,7 @@
       </c>
       <c r="Y93" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 3/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="0">
-        <v>0.574199974536896</v>
+        <v>0.559800028800964</v>
       </c>
       <c r="K94" s="0">
         <v>1.79999995231628</v>
@@ -4111,7 +4110,7 @@
       </c>
       <c r="Y94" s="0" t="inlineStr">
         <is>
-          <t>Nikolski; AEA database updated 1/2018 ; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Nikolski; AEA database updated 4/2018 ; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -4137,10 +4136,10 @@
         <v>0</v>
       </c>
       <c r="H95" s="0">
-        <v>0.165099993348122</v>
+        <v>0.199619993567467</v>
       </c>
       <c r="J95" s="0">
-        <v>0.14640000462532</v>
+        <v>0.150000005960464</v>
       </c>
       <c r="K95" s="0">
         <v>1.60000002384186</v>
@@ -4153,7 +4152,7 @@
       </c>
       <c r="Y95" s="0" t="inlineStr">
         <is>
-          <t>Unalaska schedul via e-mail - updated 1/2018 ;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Unalaska schedul via e-mail - updated 7/2018 ;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="0">
-        <v>0.417100012302399</v>
+        <v>0.403400003910065</v>
       </c>
       <c r="K96" s="0">
         <v>1.79999995231628</v>
@@ -4189,7 +4188,7 @@
       </c>
       <c r="Y96" s="0" t="inlineStr">
         <is>
-          <t>Newtok; AEA database updated 1/2018  residential;   CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Newtok; AEA database updated 4/2018  residential;   CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -4215,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="0">
-        <v>0.256900012493134</v>
+        <v>0.2432000041008</v>
       </c>
       <c r="K97" s="0">
         <v>2.79999995231628</v>
@@ -4228,7 +4227,7 @@
       </c>
       <c r="Y97" s="0" t="inlineStr">
         <is>
-          <t>AIDEA database updated 1/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AIDEA database updated 4/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -4276,7 +4275,7 @@
       </c>
       <c r="Y98" s="0" t="inlineStr">
         <is>
-          <t>Wrangell website and e-mails from Electric Dept updated 1/2018  no change from 7/2015;</t>
+          <t>Wrangell website and e-mails from Electric Dept updated 7/2018  no change from 7/2015;</t>
         </is>
       </c>
     </row>
@@ -4296,16 +4295,17 @@
         <v>1</v>
       </c>
       <c r="E99" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="I99" s="0">
-        <v>0.220200002193451</v>
-      </c>
+      <c r="H99" s="0">
+        <v>0.22409999370575</v>
+      </c>
+      <c r="I99" s="0"/>
       <c r="J99" s="0">
-        <v>0.269400000572205</v>
+        <v>0.258899986743927</v>
       </c>
       <c r="K99" s="0">
         <v>1.60000002384186</v>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="Y99" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 from web rate schedule; CO2 rates include hydro from Tyee (based on sales rather than generation) taken over by AVEC June 2017</t>
+          <t>updated July 2018 from web rate schedule; CO2 rates include hydro from Tyee (based on sales rather than generation) taken over by AVEC June 2017</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="J101" s="0">
-        <v>0.164199993014336</v>
+        <v>0.141499996185303</v>
       </c>
       <c r="K101" s="0">
         <v>1.70000004768372</v>
@@ -4395,11 +4395,11 @@
         <v>4</v>
       </c>
       <c r="S101" s="0">
-        <v>0.427199989557266</v>
+        <v>0.436699986457825</v>
       </c>
       <c r="Y101" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA) Unalakleet VEA is owned by Matanuska Electric Assn.</t>
+          <t>AEA database updated 7/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA) Unalakleet VEA is owned by Matanuska Electric Assn.</t>
         </is>
       </c>
     </row>
@@ -4458,20 +4458,18 @@
         <v>0</v>
       </c>
       <c r="J103" s="0">
-        <v>0.777660012245178</v>
+        <v>0.763000011444092</v>
       </c>
       <c r="K103" s="0">
         <v>1.79999995231628</v>
       </c>
-      <c r="L103" s="0">
-        <v>0</v>
-      </c>
+      <c r="L103" s="0"/>
       <c r="S103" s="0">
         <v>1</v>
       </c>
       <c r="Y103" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018  from AEA database for residential</t>
+          <t>updated 4/2018  from AEA database for residential</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="0">
-        <v>0.171000003814697</v>
+        <v>0.206400007009506</v>
       </c>
       <c r="K104" s="0">
         <v>1.60000002384186</v>
@@ -4513,7 +4511,7 @@
       </c>
       <c r="Y104" s="0" t="inlineStr">
         <is>
-          <t>Valdez; updated Jan 2018 website ;  Fuel surcharge here includes twelve month average of fuel charge plus generation and transmission minus heat revenue credit. This breakdown was instituted in June 2012.  CO2 from combination of Glennallen and Valdez and Solomon Gulch generation.</t>
+          <t>Valdez; 7/2018 website ;  Fuel surcharge here includes twelve month average of fuel charge plus generation and transmission minus heat revenue credit. This breakdown was instituted in June 2012.  CO2 from combination of Glennallen and Valdez and Solomon Gulch generation.</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="0">
-        <v>2.99999993294477E-02</v>
+        <v>1.99999995529652E-02</v>
       </c>
       <c r="K107" s="0">
         <v>1.79999995231628</v>
@@ -4626,11 +4624,11 @@
         <v>20</v>
       </c>
       <c r="S107" s="0">
-        <v>0.230000004172325</v>
+        <v>0.239999994635582</v>
       </c>
       <c r="Y107" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -4656,13 +4654,13 @@
         <v>0</v>
       </c>
       <c r="H108" s="0">
-        <v>0.182799994945526</v>
+        <v>1.71000007539988E-02</v>
       </c>
       <c r="I108" s="0">
-        <v>1.71000007539988E-02</v>
+        <v>0.177799999713898</v>
       </c>
       <c r="J108" s="0">
-        <v>0.267800003290176</v>
+        <v>0.24940000474453</v>
       </c>
       <c r="K108" s="0">
         <v>1.79999995231628</v>
@@ -4684,7 +4682,7 @@
       </c>
       <c r="Y108" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; purchased power adjustment is wind surcharge</t>
+          <t>AVEC Rate Schedule updated July 2018; purchased power adjustment is wind surcharge</t>
         </is>
       </c>
     </row>
@@ -4709,11 +4707,12 @@
       <c r="G109" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="H109" s="0">
-        <v>0.213599994778633</v>
+      <c r="H109" s="0"/>
+      <c r="I109" s="0">
+        <v>0.225099995732307</v>
       </c>
       <c r="J109" s="0">
-        <v>0.297100007534027</v>
+        <v>0.294299989938736</v>
       </c>
       <c r="K109" s="0">
         <v>1.79999995231628</v>
@@ -4735,7 +4734,7 @@
       </c>
       <c r="Y109" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Scheduleu updated Jan 2018</t>
+          <t>AVEC Rate Scheduleu pdated July 2018</t>
         </is>
       </c>
     </row>
@@ -4760,11 +4759,12 @@
       <c r="G110" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="H110" s="0">
-        <v>0.232199996709824</v>
+      <c r="H110" s="0"/>
+      <c r="I110" s="0">
+        <v>0.234699994325638</v>
       </c>
       <c r="J110" s="0">
-        <v>0.31470000743866</v>
+        <v>0.303400009870529</v>
       </c>
       <c r="K110" s="0">
         <v>1.79999995231628</v>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="Y110" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -4811,11 +4811,12 @@
       <c r="G111" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="H111" s="0">
-        <v>0.172099992632866</v>
+      <c r="H111" s="0"/>
+      <c r="I111" s="0">
+        <v>0.186700001358986</v>
       </c>
       <c r="J111" s="0">
-        <v>0.257600009441376</v>
+        <v>0.25780001282692</v>
       </c>
       <c r="K111" s="0">
         <v>1.79999995231628</v>
@@ -4837,7 +4838,7 @@
       </c>
       <c r="Y111" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -4863,13 +4864,13 @@
         <v>0</v>
       </c>
       <c r="H112" s="0">
-        <v>0.183100000023842</v>
+        <v>0.174700006842613</v>
       </c>
       <c r="I112" s="0">
         <v>3.13999988138676E-02</v>
       </c>
       <c r="J112" s="0">
-        <v>0.270900011062622</v>
+        <v>0.246399998664856</v>
       </c>
       <c r="K112" s="0">
         <v>1.79999995231628</v>
@@ -4891,7 +4892,7 @@
       </c>
       <c r="Y112" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; Purchased power is wind surcharge</t>
+          <t>AVEC Rate Schedule updated July 2018; Purchased power is wind surcharge</t>
         </is>
       </c>
     </row>
@@ -4917,10 +4918,10 @@
         <v>0</v>
       </c>
       <c r="H113" s="0">
-        <v>0.195999994874001</v>
+        <v>0.195299997925758</v>
       </c>
       <c r="J113" s="0">
-        <v>0.280299991369247</v>
+        <v>0.266000002622604</v>
       </c>
       <c r="K113" s="0">
         <v>1.79999995231628</v>
@@ -4942,7 +4943,7 @@
       </c>
       <c r="Y113" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -4968,10 +4969,10 @@
         <v>0</v>
       </c>
       <c r="H114" s="0">
-        <v>0.208000004291534</v>
+        <v>0.210899993777275</v>
       </c>
       <c r="J114" s="0">
-        <v>0.291700005531311</v>
+        <v>0.280800014734268</v>
       </c>
       <c r="K114" s="0">
         <v>1.79999995231628</v>
@@ -4993,7 +4994,7 @@
       </c>
       <c r="Y114" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -5019,13 +5020,13 @@
         <v>0</v>
       </c>
       <c r="H115" s="0">
-        <v>0.182799994945526</v>
+        <v>0.177799999713898</v>
       </c>
       <c r="I115" s="0">
         <v>1.71000007539988E-02</v>
       </c>
       <c r="J115" s="0">
-        <v>0.267800003290176</v>
+        <v>0.24940000474453</v>
       </c>
       <c r="K115" s="0">
         <v>1.79999995231628</v>
@@ -5047,7 +5048,7 @@
       </c>
       <c r="Y115" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as purchased energy adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge</t>
         </is>
       </c>
     </row>
@@ -5073,13 +5074,13 @@
         <v>0</v>
       </c>
       <c r="H116" s="0">
-        <v>0.179299995303154</v>
+        <v>0.171299993991852</v>
       </c>
       <c r="I116" s="0">
         <v>3.81000004708767E-02</v>
       </c>
       <c r="J116" s="0">
-        <v>0.264499992132187</v>
+        <v>0.2432000041008</v>
       </c>
       <c r="K116" s="0">
         <v>1.79999995231628</v>
@@ -5101,7 +5102,7 @@
       </c>
       <c r="Y116" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as purchased energy adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as purchased energy adjustment</t>
         </is>
       </c>
     </row>
@@ -5127,10 +5128,10 @@
         <v>0</v>
       </c>
       <c r="H117" s="0">
-        <v>0.19030000269413</v>
+        <v>0.198400005698204</v>
       </c>
       <c r="J117" s="0">
-        <v>0.274899989366531</v>
+        <v>0.268900007009506</v>
       </c>
       <c r="K117" s="0">
         <v>1.79999995231628</v>
@@ -5152,7 +5153,7 @@
       </c>
       <c r="Y117" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -5178,10 +5179,10 @@
         <v>0</v>
       </c>
       <c r="H118" s="0">
-        <v>0.20720000565052</v>
+        <v>0.211600005626678</v>
       </c>
       <c r="J118" s="0">
-        <v>0.291000008583069</v>
+        <v>0.28150001168251</v>
       </c>
       <c r="K118" s="0">
         <v>1.79999995231628</v>
@@ -5203,7 +5204,7 @@
       </c>
       <c r="Y118" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -5229,10 +5230,10 @@
         <v>0</v>
       </c>
       <c r="H119" s="0">
-        <v>0.19760000705719</v>
+        <v>0.198100000619888</v>
       </c>
       <c r="J119" s="0">
-        <v>0.281899988651276</v>
+        <v>0.268700003623962</v>
       </c>
       <c r="K119" s="0">
         <v>1.79999995231628</v>
@@ -5254,7 +5255,7 @@
       </c>
       <c r="Y119" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -5280,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="0">
-        <v>0.180800005793571</v>
+        <v>0.163800001144409</v>
       </c>
       <c r="I120" s="0">
         <v>0.017400000244379</v>
@@ -5308,7 +5309,7 @@
       </c>
       <c r="Y120" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as purchased energy adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as purchased energy adjustment</t>
         </is>
       </c>
     </row>
@@ -5334,10 +5335,10 @@
         <v>0</v>
       </c>
       <c r="H121" s="0">
-        <v>0.223399996757507</v>
+        <v>0.225600004196167</v>
       </c>
       <c r="J121" s="0">
-        <v>0.306400001049042</v>
+        <v>0.294800013303757</v>
       </c>
       <c r="K121" s="0">
         <v>1.79999995231628</v>
@@ -5359,7 +5360,7 @@
       </c>
       <c r="Y121" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -5385,10 +5386,10 @@
         <v>0</v>
       </c>
       <c r="H122" s="0">
-        <v>0.207800000905991</v>
+        <v>0.207900002598763</v>
       </c>
       <c r="J122" s="0">
-        <v>0.291599988937378</v>
+        <v>0.277999997138977</v>
       </c>
       <c r="K122" s="0">
         <v>1.79999995231628</v>
@@ -5410,7 +5411,7 @@
       </c>
       <c r="Y122" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -5436,10 +5437,10 @@
         <v>0</v>
       </c>
       <c r="H123" s="0">
-        <v>0.230900004506111</v>
+        <v>0.232099995017052</v>
       </c>
       <c r="J123" s="0">
-        <v>0.313499987125397</v>
+        <v>0.300999999046326</v>
       </c>
       <c r="K123" s="0">
         <v>1.79999995231628</v>
@@ -5461,7 +5462,7 @@
       </c>
       <c r="Y123" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -5487,10 +5488,10 @@
         <v>0</v>
       </c>
       <c r="H124" s="0">
-        <v>0.234699994325638</v>
+        <v>0.236200004816055</v>
       </c>
       <c r="J124" s="0">
-        <v>0.317099988460541</v>
+        <v>0.304899990558624</v>
       </c>
       <c r="K124" s="0">
         <v>1.79999995231628</v>
@@ -5512,7 +5513,7 @@
       </c>
       <c r="Y124" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -5538,10 +5539,10 @@
         <v>0</v>
       </c>
       <c r="H125" s="0">
-        <v>0.194600000977516</v>
+        <v>0.198300004005432</v>
       </c>
       <c r="J125" s="0">
-        <v>0.279000014066696</v>
+        <v>0.268900007009506</v>
       </c>
       <c r="K125" s="0">
         <v>1.79999995231628</v>
@@ -5563,7 +5564,7 @@
       </c>
       <c r="Y125" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -5589,10 +5590,10 @@
         <v>0</v>
       </c>
       <c r="H126" s="0">
-        <v>0.186000004410744</v>
+        <v>0.191100001335144</v>
       </c>
       <c r="J126" s="0">
-        <v>0.270799994468689</v>
+        <v>0.261999994516373</v>
       </c>
       <c r="K126" s="0">
         <v>1.79999995231628</v>
@@ -5614,7 +5615,7 @@
       </c>
       <c r="Y126" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -5640,10 +5641,10 @@
         <v>0</v>
       </c>
       <c r="H127" s="0">
-        <v>0.178299993276596</v>
+        <v>0.178399994969368</v>
       </c>
       <c r="J127" s="0">
-        <v>0.26350000500679</v>
+        <v>0.249899998307228</v>
       </c>
       <c r="K127" s="0">
         <v>1.79999995231628</v>
@@ -5665,7 +5666,7 @@
       </c>
       <c r="Y127" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -5691,13 +5692,13 @@
         <v>0</v>
       </c>
       <c r="H128" s="0">
-        <v>0.198699995875359</v>
+        <v>0.186299994587898</v>
       </c>
       <c r="I128" s="0">
         <v>1.60000007599592E-02</v>
       </c>
       <c r="J128" s="0">
-        <v>0.282900005578995</v>
+        <v>0.257499992847443</v>
       </c>
       <c r="K128" s="0">
         <v>1.79999995231628</v>
@@ -5719,7 +5720,7 @@
       </c>
       <c r="Y128" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as purchased energy adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as purchased energy adjustment</t>
         </is>
       </c>
     </row>
@@ -5745,10 +5746,10 @@
         <v>0</v>
       </c>
       <c r="H129" s="0">
-        <v>0.185399994254112</v>
+        <v>0.180000007152557</v>
       </c>
       <c r="J129" s="0">
-        <v>0.270300000905991</v>
+        <v>0.251500010490417</v>
       </c>
       <c r="K129" s="0">
         <v>1.79999995231628</v>
@@ -5770,7 +5771,7 @@
       </c>
       <c r="Y129" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -5796,10 +5797,10 @@
         <v>0</v>
       </c>
       <c r="H130" s="0">
-        <v>0.17790000140667</v>
+        <v>0.18469999730587</v>
       </c>
       <c r="J130" s="0">
-        <v>0.263200014829636</v>
+        <v>0.255899995565414</v>
       </c>
       <c r="K130" s="0">
         <v>1.79999995231628</v>
@@ -5821,7 +5822,7 @@
       </c>
       <c r="Y130" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -5847,10 +5848,10 @@
         <v>0</v>
       </c>
       <c r="H131" s="0">
-        <v>0.241799995303154</v>
+        <v>0.245399996638298</v>
       </c>
       <c r="J131" s="0">
-        <v>0.323900014162064</v>
+        <v>0.31360000371933</v>
       </c>
       <c r="K131" s="0">
         <v>1.79999995231628</v>
@@ -5872,7 +5873,7 @@
       </c>
       <c r="Y131" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -5900,8 +5901,11 @@
       <c r="H132" s="0">
         <v>0.164199993014336</v>
       </c>
+      <c r="I132" s="0">
+        <v>2.10999995470047E-02</v>
+      </c>
       <c r="J132" s="0">
-        <v>0.250099986791611</v>
+        <v>0.23649999499321</v>
       </c>
       <c r="K132" s="0">
         <v>1.79999995231628</v>
@@ -5949,10 +5953,10 @@
         <v>0</v>
       </c>
       <c r="H133" s="0">
-        <v>0.456200003623962</v>
+        <v>0.476900011301041</v>
       </c>
       <c r="J133" s="0">
-        <v>0.527499973773956</v>
+        <v>0.533500015735626</v>
       </c>
       <c r="K133" s="0">
         <v>1.79999995231628</v>
@@ -5974,7 +5978,7 @@
       </c>
       <c r="Y133" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -6000,10 +6004,10 @@
         <v>0</v>
       </c>
       <c r="H134" s="0">
-        <v>0.189999997615814</v>
+        <v>0.199499994516373</v>
       </c>
       <c r="J134" s="0">
-        <v>0.274599999189377</v>
+        <v>0.270000010728836</v>
       </c>
       <c r="K134" s="0">
         <v>1.79999995231628</v>
@@ -6025,7 +6029,7 @@
       </c>
       <c r="Y134" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -6051,10 +6055,10 @@
         <v>0</v>
       </c>
       <c r="H135" s="0">
-        <v>0.209199994802475</v>
+        <v>0.206400007009506</v>
       </c>
       <c r="J135" s="0">
-        <v>0.292899996042252</v>
+        <v>0.27649998664856</v>
       </c>
       <c r="K135" s="0">
         <v>1.79999995231628</v>
@@ -6076,7 +6080,7 @@
       </c>
       <c r="Y135" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -6102,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="H136" s="0">
-        <v>0.180099993944168</v>
+        <v>0.238000005483627</v>
       </c>
       <c r="I136" s="0">
         <v>2.06000003963709E-02</v>
@@ -6130,7 +6134,7 @@
       </c>
       <c r="Y136" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as purchased energy adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as purchased energy adjustment</t>
         </is>
       </c>
     </row>
@@ -6156,10 +6160,10 @@
         <v>0</v>
       </c>
       <c r="H137" s="0">
-        <v>0.226300001144409</v>
+        <v>0.238499999046326</v>
       </c>
       <c r="J137" s="0">
-        <v>0.3091000020504</v>
+        <v>0.307000011205673</v>
       </c>
       <c r="K137" s="0">
         <v>1.79999995231628</v>
@@ -6181,7 +6185,7 @@
       </c>
       <c r="Y137" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule 7/2017updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -6207,10 +6211,10 @@
         <v>0</v>
       </c>
       <c r="H138" s="0">
-        <v>0.219899997115135</v>
+        <v>0.214000001549721</v>
       </c>
       <c r="J138" s="0">
-        <v>0.303099989891052</v>
+        <v>0.283800005912781</v>
       </c>
       <c r="K138" s="0">
         <v>1.79999995231628</v>
@@ -6232,7 +6236,7 @@
       </c>
       <c r="Y138" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -6258,10 +6262,13 @@
         <v>0</v>
       </c>
       <c r="H139" s="0">
-        <v>0.166600003838539</v>
+        <v>0.160099998116493</v>
+      </c>
+      <c r="I139" s="0">
+        <v>3.46000008285046E-02</v>
       </c>
       <c r="J139" s="0">
-        <v>0.252400010824203</v>
+        <v>0.232600003480911</v>
       </c>
       <c r="K139" s="0">
         <v>1.79999995231628</v>
@@ -6283,7 +6290,7 @@
       </c>
       <c r="Y139" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge</t>
         </is>
       </c>
     </row>
@@ -6309,10 +6316,10 @@
         <v>0</v>
       </c>
       <c r="H140" s="0">
-        <v>0.211199998855591</v>
+        <v>0.212799996137619</v>
       </c>
       <c r="J140" s="0">
-        <v>0.294800013303757</v>
+        <v>0.282599985599518</v>
       </c>
       <c r="K140" s="0">
         <v>1.79999995231628</v>
@@ -6334,7 +6341,7 @@
       </c>
       <c r="Y140" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -6360,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="H141" s="0">
-        <v>0.202800005674362</v>
+        <v>0.202600002288818</v>
       </c>
       <c r="J141" s="0">
-        <v>0.286799997091293</v>
+        <v>0.272899985313416</v>
       </c>
       <c r="K141" s="0">
         <v>1.79999995231628</v>
@@ -6385,7 +6392,7 @@
       </c>
       <c r="Y141" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -6411,10 +6418,10 @@
         <v>0</v>
       </c>
       <c r="H142" s="0">
-        <v>0.183699995279312</v>
+        <v>0.187099993228912</v>
       </c>
       <c r="J142" s="0">
-        <v>0.268700003623962</v>
+        <v>0.258199989795685</v>
       </c>
       <c r="K142" s="0">
         <v>1.79999995231628</v>
@@ -6436,7 +6443,7 @@
       </c>
       <c r="Y142" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -6462,10 +6469,13 @@
         <v>0</v>
       </c>
       <c r="H143" s="0">
-        <v>0.180899992585182</v>
+        <v>0.181799992918968</v>
+      </c>
+      <c r="I143" s="0">
+        <v>8.10000021010637E-03</v>
       </c>
       <c r="J143" s="0">
-        <v>0.266000002622604</v>
+        <v>0.253199994564056</v>
       </c>
       <c r="K143" s="0">
         <v>1.79999995231628</v>
@@ -6487,7 +6497,7 @@
       </c>
       <c r="Y143" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surchargeas purchased power adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surchargeas purchased power adjustment</t>
         </is>
       </c>
     </row>
@@ -6513,10 +6523,10 @@
         <v>0</v>
       </c>
       <c r="H144" s="0">
-        <v>0.190699994564056</v>
+        <v>0.196799993515015</v>
       </c>
       <c r="J144" s="0">
-        <v>0.275299996137619</v>
+        <v>0.267399996519089</v>
       </c>
       <c r="K144" s="0">
         <v>1.79999995231628</v>
@@ -6538,7 +6548,7 @@
       </c>
       <c r="Y144" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018;</t>
+          <t>AVEC Rate Schedule updated July 2018;</t>
         </is>
       </c>
     </row>
@@ -6564,10 +6574,13 @@
         <v>0</v>
       </c>
       <c r="H145" s="0">
-        <v>0.19820000231266</v>
+        <v>0.205699995160103</v>
+      </c>
+      <c r="I145" s="0">
+        <v>2.40000011399388E-03</v>
       </c>
       <c r="J145" s="0">
-        <v>0.282400012016296</v>
+        <v>0.27590000629425</v>
       </c>
       <c r="K145" s="0">
         <v>1.79999995231628</v>
@@ -6589,7 +6602,7 @@
       </c>
       <c r="Y145" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as purchased power adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as purchased power adjustment</t>
         </is>
       </c>
     </row>
@@ -6615,10 +6628,10 @@
         <v>0</v>
       </c>
       <c r="H146" s="0">
-        <v>0.227899998426437</v>
+        <v>0.229100003838539</v>
       </c>
       <c r="J146" s="0">
-        <v>0.310699999332428</v>
+        <v>0.298099994659424</v>
       </c>
       <c r="K146" s="0">
         <v>1.79999995231628</v>
@@ -6640,7 +6653,7 @@
       </c>
       <c r="Y146" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -6666,13 +6679,13 @@
         <v>0</v>
       </c>
       <c r="H147" s="0">
-        <v>0.160999998450279</v>
+        <v>0.159999996423721</v>
       </c>
       <c r="I147" s="0">
         <v>4.47999984025955E-02</v>
       </c>
       <c r="J147" s="0">
-        <v>0.247099995613098</v>
+        <v>0.232500001788139</v>
       </c>
       <c r="K147" s="0">
         <v>1.79999995231628</v>
@@ -6694,7 +6707,7 @@
       </c>
       <c r="Y147" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as power cost adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as power cost adjustment</t>
         </is>
       </c>
     </row>
@@ -6720,10 +6733,10 @@
         <v>0</v>
       </c>
       <c r="H148" s="0">
-        <v>0.207300007343292</v>
+        <v>0.215200006961823</v>
       </c>
       <c r="J148" s="0">
-        <v>0.29109999537468</v>
+        <v>0.284900009632111</v>
       </c>
       <c r="K148" s="0">
         <v>1.79999995231628</v>
@@ -6745,7 +6758,7 @@
       </c>
       <c r="Y148" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -6771,10 +6784,10 @@
         <v>0</v>
       </c>
       <c r="H149" s="0">
-        <v>0.24099999666214</v>
+        <v>0.359100013971329</v>
       </c>
       <c r="J149" s="0">
-        <v>0.323100000619888</v>
+        <v>0.421600013971329</v>
       </c>
       <c r="K149" s="0">
         <v>1.79999995231628</v>
@@ -6796,7 +6809,7 @@
       </c>
       <c r="Y149" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -6822,10 +6835,10 @@
         <v>0</v>
       </c>
       <c r="H150" s="0">
-        <v>0.183699995279312</v>
+        <v>0.187099993228912</v>
       </c>
       <c r="J150" s="0">
-        <v>0.268700003623962</v>
+        <v>0.258199989795685</v>
       </c>
       <c r="K150" s="0">
         <v>1.79999995231628</v>
@@ -6847,7 +6860,7 @@
       </c>
       <c r="Y150" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -6873,10 +6886,10 @@
         <v>0</v>
       </c>
       <c r="H151" s="0">
-        <v>0.201399996876717</v>
+        <v>0.200900003314018</v>
       </c>
       <c r="J151" s="0">
-        <v>0.28549998998642</v>
+        <v>0.271299988031387</v>
       </c>
       <c r="K151" s="0">
         <v>1.79999995231628</v>
@@ -6898,7 +6911,7 @@
       </c>
       <c r="Y151" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -6926,8 +6939,11 @@
       <c r="H152" s="0">
         <v>0.164199993014336</v>
       </c>
+      <c r="I152" s="0">
+        <v>2.10999995470047E-02</v>
+      </c>
       <c r="J152" s="0">
-        <v>0.250099986791611</v>
+        <v>0.23649999499321</v>
       </c>
       <c r="K152" s="0">
         <v>1.79999995231628</v>
@@ -6949,7 +6965,7 @@
       </c>
       <c r="Y152" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as purchased energy adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as purchased energy adjustment</t>
         </is>
       </c>
     </row>
@@ -6977,8 +6993,11 @@
       <c r="H153" s="0">
         <v>0.164199993014336</v>
       </c>
+      <c r="I153" s="0">
+        <v>2.10999995470047E-02</v>
+      </c>
       <c r="J153" s="0">
-        <v>0.250099986791611</v>
+        <v>0.23649999499321</v>
       </c>
       <c r="K153" s="0">
         <v>1.79999995231628</v>
@@ -7000,7 +7019,7 @@
       </c>
       <c r="Y153" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as purchased energy adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as purchased energy adjustment</t>
         </is>
       </c>
     </row>
@@ -7026,10 +7045,10 @@
         <v>0</v>
       </c>
       <c r="H154" s="0">
-        <v>0.249699994921684</v>
+        <v>0.246199995279312</v>
       </c>
       <c r="J154" s="0">
-        <v>0.331400007009506</v>
+        <v>0.314399987459183</v>
       </c>
       <c r="K154" s="0">
         <v>1.79999995231628</v>
@@ -7051,7 +7070,7 @@
       </c>
       <c r="Y154" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7135,7 @@
         <v>1</v>
       </c>
       <c r="J156" s="0">
-        <v>0.5</v>
+        <v>0.610000014305115</v>
       </c>
       <c r="K156" s="0">
         <v>2.5</v>
@@ -7125,11 +7144,11 @@
         <v>20</v>
       </c>
       <c r="S156" s="0">
-        <v>0.769999980926514</v>
+        <v>0.910000026226044</v>
       </c>
       <c r="Y156" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018  APT report</t>
+          <t>updated Jul 2018  APT report</t>
         </is>
       </c>
     </row>
@@ -7155,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="J157" s="0">
-        <v>0.360000014305115</v>
+        <v>0.419999986886978</v>
       </c>
       <c r="K157" s="0">
         <v>1.89999997615814</v>
@@ -7164,11 +7183,11 @@
         <v>20</v>
       </c>
       <c r="S157" s="0">
-        <v>0.620000004768372</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="Y157" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated Jul 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -7194,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="J158" s="0">
-        <v>0.28999999165535</v>
+        <v>0.340000003576279</v>
       </c>
       <c r="K158" s="0">
         <v>1.60000002384186</v>
@@ -7203,11 +7222,11 @@
         <v>20</v>
       </c>
       <c r="S158" s="0">
-        <v>0.550000011920929</v>
+        <v>0.620000004768372</v>
       </c>
       <c r="Y158" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 APT report</t>
+          <t>updated Jul 2018 APT report</t>
         </is>
       </c>
     </row>
@@ -7272,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="J160" s="0">
-        <v>2.99999993294477E-02</v>
+        <v>1.99999995529652E-02</v>
       </c>
       <c r="K160" s="0">
         <v>1.60000002384186</v>
@@ -7281,11 +7300,11 @@
         <v>13.8500003814697</v>
       </c>
       <c r="S160" s="0">
-        <v>0.230000004172325</v>
+        <v>0.239999994635582</v>
       </c>
       <c r="Y160" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018  APT report - rate quoted in report includes COPA and RCC so RCC charge is dropped here.</t>
+          <t>updated Jul 2018  APT report - rate quoted in report includes COPA and RCC so RCC charge is dropped here.</t>
         </is>
       </c>
     </row>
@@ -7311,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="J161" s="0">
-        <v>0.140000000596046</v>
+        <v>0.280000001192093</v>
       </c>
       <c r="K161" s="0">
         <v>1.5</v>
@@ -7320,11 +7339,11 @@
         <v>20</v>
       </c>
       <c r="S161" s="0">
-        <v>0.349999994039536</v>
+        <v>0.430000007152557</v>
       </c>
       <c r="Y161" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 APT report - rate quoted in report includes COPA and RCC so RCC charge is dropped here.</t>
+          <t>updated Jul 2018 APT report - rate quoted in report includes COPA and RCC so RCC charge is dropped here.</t>
         </is>
       </c>
     </row>
@@ -7350,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="0">
-        <v>0.330000013113022</v>
+        <v>0.349999994039536</v>
       </c>
       <c r="K162" s="0">
         <v>1.5</v>
@@ -7359,11 +7378,11 @@
         <v>20</v>
       </c>
       <c r="S162" s="0">
-        <v>0.589999973773956</v>
+        <v>0.629999995231628</v>
       </c>
       <c r="Y162" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018  APT report - rate quoted in report includes COPA and RCC so RCC charge is dropped here.</t>
+          <t>updated Jul  2018  APT report - rate quoted in report includes COPA and RCC so RCC charge is dropped here.</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="J163" s="0">
-        <v>0.360000014305115</v>
+        <v>0.419999986886978</v>
       </c>
       <c r="K163" s="0">
         <v>1.60000002384186</v>
@@ -7398,11 +7417,11 @@
         <v>20</v>
       </c>
       <c r="S163" s="0">
-        <v>0.620000004768372</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="Y163" s="0" t="inlineStr">
         <is>
-          <t> same as Bettles  updated Jan 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t> same as Bettles  updated Jul 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -7428,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="J164" s="0">
-        <v>2.99999993294477E-02</v>
+        <v>1.99999995529652E-02</v>
       </c>
       <c r="K164" s="0">
         <v>1.70000004768372</v>
@@ -7437,11 +7456,11 @@
         <v>20</v>
       </c>
       <c r="S164" s="0">
-        <v>0.239999994635582</v>
+        <v>0.230000004172325</v>
       </c>
       <c r="Y164" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated Jul 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -7467,7 +7486,7 @@
         <v>1</v>
       </c>
       <c r="J165" s="0">
-        <v>0</v>
+        <v>0.769999980926514</v>
       </c>
       <c r="K165" s="0">
         <v>1.5</v>
@@ -7476,11 +7495,11 @@
         <v>20</v>
       </c>
       <c r="S165" s="0">
-        <v>0.660000026226044</v>
+        <v>1.29999995231628</v>
       </c>
       <c r="Y165" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 20187 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated Jul 20187 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="J166" s="0">
-        <v>2.99999993294477E-02</v>
+        <v>1.99999995529652E-02</v>
       </c>
       <c r="K166" s="0">
         <v>1.60000002384186</v>
@@ -7515,11 +7534,11 @@
         <v>20</v>
       </c>
       <c r="S166" s="0">
-        <v>0.230000004172325</v>
+        <v>0.239999994635582</v>
       </c>
       <c r="Y166" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated Jul  2018APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -7545,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="0">
-        <v>2.99999993294477E-02</v>
+        <v>1.99999995529652E-02</v>
       </c>
       <c r="K167" s="0">
         <v>1.60000002384186</v>
@@ -7554,11 +7573,11 @@
         <v>20</v>
       </c>
       <c r="S167" s="0">
-        <v>0.230000004172325</v>
+        <v>0.239999994635582</v>
       </c>
       <c r="Y167" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated Jul 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -7584,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="J168" s="0">
-        <v>2.99999993294477E-02</v>
+        <v>1.99999995529652E-02</v>
       </c>
       <c r="K168" s="0">
         <v>1.5</v>
@@ -7593,11 +7612,11 @@
         <v>20</v>
       </c>
       <c r="S168" s="0">
-        <v>0.230000004172325</v>
+        <v>0.239999994635582</v>
       </c>
       <c r="Y168" s="0" t="inlineStr">
         <is>
-          <t>Thorne Bay: updated Jan 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>Thorne Bay: updated Jul 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -7623,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="0">
-        <v>2.99999993294477E-02</v>
+        <v>1.99999995529652E-02</v>
       </c>
       <c r="K169" s="0">
         <v>1.60000002384186</v>
@@ -7632,11 +7651,11 @@
         <v>20</v>
       </c>
       <c r="S169" s="0">
-        <v>0.230000004172325</v>
+        <v>0.239999994635582</v>
       </c>
       <c r="Y169" s="0" t="inlineStr">
         <is>
-          <t>from 7/2017 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated Jul 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -7662,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="J170" s="0">
-        <v>0.28999999165535</v>
+        <v>0.340000003576279</v>
       </c>
       <c r="K170" s="0">
         <v>1.5</v>
@@ -7671,11 +7690,11 @@
         <v>20</v>
       </c>
       <c r="S170" s="0">
-        <v>0.550000011920929</v>
+        <v>0.620000004768372</v>
       </c>
       <c r="Y170" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -7701,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="J171" s="0">
-        <v>0.319999992847443</v>
+        <v>0.400000005960464</v>
       </c>
       <c r="K171" s="0">
         <v>1.5</v>
@@ -7710,11 +7729,11 @@
         <v>20</v>
       </c>
       <c r="S171" s="0">
-        <v>0.579999983310699</v>
+        <v>0.680000007152557</v>
       </c>
       <c r="Y171" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -7740,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="J172" s="0">
-        <v>2.99999993294477E-02</v>
+        <v>1.99999995529652E-02</v>
       </c>
       <c r="K172" s="0">
         <v>0.959999978542328</v>
@@ -7749,11 +7768,11 @@
         <v>20</v>
       </c>
       <c r="S172" s="0">
-        <v>0.239999994635582</v>
+        <v>0.230000004172325</v>
       </c>
       <c r="Y172" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018  APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018  APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -7779,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="J173" s="0">
-        <v>0.219999998807907</v>
+        <v>0.280000001192093</v>
       </c>
       <c r="K173" s="0">
         <v>1.5</v>
@@ -7788,11 +7807,11 @@
         <v>20</v>
       </c>
       <c r="S173" s="0">
-        <v>0.349999994039536</v>
+        <v>0.430000007152557</v>
       </c>
       <c r="Y173" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018   APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018   APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -7818,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="J174" s="0">
-        <v>2.99999993294477E-02</v>
+        <v>1.99999995529652E-02</v>
       </c>
       <c r="K174" s="0">
         <v>1.60000002384186</v>
@@ -7827,11 +7846,11 @@
         <v>20</v>
       </c>
       <c r="S174" s="0">
-        <v>0.230000004172325</v>
+        <v>0.239999994635582</v>
       </c>
       <c r="Y174" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018   APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018   APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="J175" s="0">
-        <v>0.219999998807907</v>
+        <v>0.280000001192093</v>
       </c>
       <c r="K175" s="0">
         <v>1.5</v>
@@ -7866,11 +7885,11 @@
         <v>20</v>
       </c>
       <c r="S175" s="0">
-        <v>0.349999994039536</v>
+        <v>0.430000007152557</v>
       </c>
       <c r="Y175" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018  APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018  APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="J176" s="0">
-        <v>2.99999993294477E-02</v>
+        <v>1.99999995529652E-02</v>
       </c>
       <c r="K176" s="0">
         <v>1.5</v>
@@ -7905,11 +7924,11 @@
         <v>20</v>
       </c>
       <c r="S176" s="0">
-        <v>0.230000004172325</v>
+        <v>0.239999994635582</v>
       </c>
       <c r="Y176" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018  APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -7935,13 +7954,13 @@
         <v>0</v>
       </c>
       <c r="H177" s="0">
-        <v>0.180099993944168</v>
+        <v>0.165800005197525</v>
       </c>
       <c r="I177" s="0">
         <v>2.06000003963709E-02</v>
       </c>
       <c r="J177" s="0">
-        <v>0.265199989080429</v>
+        <v>0.238000005483627</v>
       </c>
       <c r="K177" s="0">
         <v>1.79999995231628</v>
@@ -7963,7 +7982,7 @@
       </c>
       <c r="Y177" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as Purchased energy adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as Purchased energy adjustment</t>
         </is>
       </c>
     </row>
@@ -7989,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="J178" s="0">
-        <v>0.782999992370605</v>
+        <v>0.769299983978271</v>
       </c>
       <c r="K178" s="0">
         <v>2.40000009536743</v>
@@ -7998,7 +8017,7 @@
         <v>0</v>
       </c>
       <c r="S178" s="0">
-        <v>1.77520000934601</v>
+        <v>1.77479994297028</v>
       </c>
       <c r="Y178" s="0" t="inlineStr">
         <is>
@@ -8028,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="J179" s="0">
-        <v>0.517300009727478</v>
+        <v>0.565199971199036</v>
       </c>
       <c r="K179" s="0">
         <v>2.40000009536743</v>
@@ -8038,7 +8057,7 @@
       </c>
       <c r="Y179" s="0" t="inlineStr">
         <is>
-          <t>AIDEA database updated 1/2018</t>
+          <t>AIDEA database updated 4/2018</t>
         </is>
       </c>
     </row>
@@ -8064,13 +8083,13 @@
         <v>0</v>
       </c>
       <c r="J180" s="0">
-        <v>0.371699988842011</v>
+        <v>9.99999974737875E-05</v>
       </c>
       <c r="K180" s="0">
         <v>2.40000009536743</v>
       </c>
       <c r="S180" s="0">
-        <v>0.5</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="Y180" s="0" t="inlineStr">
         <is>
@@ -8100,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="J181" s="0">
-        <v>0.339399993419647</v>
+        <v>0.507099986076355</v>
       </c>
       <c r="K181" s="0">
         <v>1.79999995231628</v>
@@ -8110,7 +8129,7 @@
       </c>
       <c r="Y181" s="0" t="inlineStr">
         <is>
-          <t>AEA updated Jan 2018; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA updated July 2018; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="J182" s="0">
-        <v>0.351799994707108</v>
+        <v>0.351700007915497</v>
       </c>
       <c r="K182" s="0">
         <v>1.79999995231628</v>
@@ -8146,7 +8165,7 @@
       </c>
       <c r="Y182" s="0" t="inlineStr">
         <is>
-          <t>AEA updated Jan 20187for residential; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA updated July 20187for residential; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -8172,17 +8191,17 @@
         <v>0</v>
       </c>
       <c r="J183" s="0">
-        <v>0.287900000810623</v>
+        <v>0.274199992418289</v>
       </c>
       <c r="K183" s="0">
         <v>1.79999995231628</v>
       </c>
       <c r="S183" s="0">
-        <v>0.504100024700165</v>
+        <v>0.505999982357025</v>
       </c>
       <c r="Y183" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 5/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -8208,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="J184" s="0">
-        <v>0.342000007629395</v>
+        <v>0.391699999570847</v>
       </c>
       <c r="K184" s="0">
         <v>2.40000009536743</v>
@@ -8218,7 +8237,7 @@
       </c>
       <c r="Y184" s="0" t="inlineStr">
         <is>
-          <t> AEA database updated 1/2018  for residential;   CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t> AEA database updated 4/2018  for residential;   CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -8244,10 +8263,10 @@
         <v>0</v>
       </c>
       <c r="H185" s="0">
-        <v>0.203299999237061</v>
+        <v>0.233300000429153</v>
       </c>
       <c r="J185" s="0">
-        <v>0.287299990653992</v>
+        <v>0.302100002765656</v>
       </c>
       <c r="K185" s="0">
         <v>1.79999995231628</v>
@@ -8269,7 +8288,7 @@
       </c>
       <c r="Y185" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -8295,7 +8314,7 @@
         <v>1</v>
       </c>
       <c r="J186" s="0">
-        <v>0.28999999165535</v>
+        <v>0.340000003576279</v>
       </c>
       <c r="K186" s="0">
         <v>1.5</v>
@@ -8304,11 +8323,11 @@
         <v>13.210000038147</v>
       </c>
       <c r="S186" s="0">
-        <v>0.550000011920929</v>
+        <v>0.620000004768372</v>
       </c>
       <c r="Y186" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018  APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018  APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -8334,7 +8353,7 @@
         <v>1</v>
       </c>
       <c r="J187" s="0">
-        <v>0.289600014686584</v>
+        <v>0.307099997997284</v>
       </c>
       <c r="K187" s="0">
         <v>1.70000004768372</v>
@@ -8343,11 +8362,11 @@
         <v>10</v>
       </c>
       <c r="S187" s="0">
-        <v>0.642499983310699</v>
+        <v>0.655499994754791</v>
       </c>
       <c r="Y187" s="0" t="inlineStr">
         <is>
-          <t>Angoon, Hoonah, Kake, Kasaan, Klawock; 1/2017 , CO2 from average of all THREA generating plants from Alaska Energy Authority (DCRA); changed from THREA  to Inside Passage Electric in 2001</t>
+          <t>Angoon, Hoonah, Kake, Kasaan, Klawock; from website 7/2018 , CO2 from average of all THREA generating plants from Alaska Energy Authority (DCRA); changed from THREA  to Inside Passage Electric in 2001</t>
         </is>
       </c>
     </row>
@@ -8373,17 +8392,17 @@
         <v>0</v>
       </c>
       <c r="J188" s="0">
-        <v>0.384799987077713</v>
+        <v>0.531199991703033</v>
       </c>
       <c r="K188" s="0">
         <v>1.79999995231628</v>
       </c>
       <c r="S188" s="0">
-        <v>0.719600021839142</v>
+        <v>0.740000009536743</v>
       </c>
       <c r="Y188" s="0" t="inlineStr">
         <is>
-          <t>AEA for residential rates updated Jan 2018</t>
+          <t>AEA for residential rates updated Jul 2018</t>
         </is>
       </c>
     </row>
@@ -8416,7 +8435,7 @@
       </c>
       <c r="Y189" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 for residential rate without PCE from AEA</t>
+          <t>updated Jul 2018 for residential rate without PCE from AEA</t>
         </is>
       </c>
     </row>
@@ -8449,7 +8468,7 @@
       </c>
       <c r="Y190" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 for residential rate without PCE from AEA</t>
+          <t>updated Jul 2018 for residential rate without PCE from AEA</t>
         </is>
       </c>
     </row>
@@ -8482,7 +8501,7 @@
       </c>
       <c r="Y191" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 for residential rate without PCE from AEA</t>
+          <t>updated Jul 2018 for residential rate without PCE from AEA</t>
         </is>
       </c>
     </row>
@@ -8515,7 +8534,7 @@
       </c>
       <c r="Y192" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 for residential rate without PCE from AEA</t>
+          <t>updated Jul 2018 for residential rate without PCE from AEA</t>
         </is>
       </c>
     </row>
@@ -8560,7 +8579,7 @@
       </c>
       <c r="Y193" s="0" t="inlineStr">
         <is>
-          <t>from AEL&amp;P website rate schedule for 1/2018; block rate and demand charge are calculated as .75* Peak rate + .25  Off Peak rate.</t>
+          <t>from AEL&amp;P website rate schedule for 7/2018; block rate and demand charge are calculated as .75* Peak rate + .25  Off Peak rate.</t>
         </is>
       </c>
     </row>
@@ -8634,11 +8653,11 @@
         <v>30.9400005340576</v>
       </c>
       <c r="S195" s="0">
-        <v>0.75</v>
+        <v>0.889999985694885</v>
       </c>
       <c r="Y195" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018  APT report</t>
+          <t>updated Jul 2018  APT report</t>
         </is>
       </c>
     </row>
@@ -8671,7 +8690,7 @@
       </c>
       <c r="Y196" s="0" t="inlineStr">
         <is>
-          <t>Karluk;updated Jan 2018;  CO2 from PCEStatistics from Alaska Energy Authority</t>
+          <t>Karluk;updated Jul 2018;  CO2 from PCEStatistics from Alaska Energy Authority</t>
         </is>
       </c>
     </row>
@@ -8697,23 +8716,23 @@
         <v>1</v>
       </c>
       <c r="I197" s="0">
-        <v>2.45600007474422E-02</v>
+        <v>2.08599995821714E-02</v>
       </c>
       <c r="K197" s="0">
         <v>1.10000002384186</v>
       </c>
       <c r="L197" s="0">
-        <v>12.8800001144409</v>
+        <v>30.4599990844727</v>
       </c>
       <c r="S197" s="0">
-        <v>0.141609996557236</v>
+        <v>0.118780001997948</v>
       </c>
       <c r="X197" s="0">
         <v>6.13900013267994E-02</v>
       </c>
       <c r="Y197" s="0" t="inlineStr">
         <is>
-          <t>Schedule 21 Rates from ML&amp;P websiteupdated Jan 2018; there is a MOA underground surcharge of 2% added to all published  charges; CO2 from Rail Belt average - any service with a demand exceeding 20 kW for 3 consecutive months and metered at secondary voltage</t>
+          <t>Schedule 21 Rates from ML&amp;P websiteupdated Jul 2018; there is a MOA underground surcharge of 2% added to all published  charges; CO2 from Rail Belt average - any service with a demand exceeding 20 kW for 3 consecutive months and metered at secondary voltage</t>
         </is>
       </c>
     </row>
@@ -8746,7 +8765,7 @@
       </c>
       <c r="Y198" s="0" t="inlineStr">
         <is>
-          <t>Atka; Now City oF Atka is utility; AEA report  updated Jan 2018 for residential; CO2 is estimated because of lack of data</t>
+          <t>Atka; Now City oF Atka is utility; AEA report  updated Jul 2018 for residential; CO2 is estimated because of lack of data</t>
         </is>
       </c>
     </row>
@@ -8775,11 +8794,11 @@
         <v>1.70000004768372</v>
       </c>
       <c r="S199" s="0">
-        <v>0.605300009250641</v>
+        <v>0.621699988842011</v>
       </c>
       <c r="Y199" s="0" t="inlineStr">
         <is>
-          <t>AIDA Report updated Jan 2018 for residential ; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AIDA Report updated July 2018 for residential ; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -8812,7 +8831,7 @@
       </c>
       <c r="Y200" s="0" t="inlineStr">
         <is>
-          <t>From AEA report  updated Jan 2018 for residential; CO2 from PCEStatistics</t>
+          <t>From AEA report  updated July 2018 for residential; CO2 from PCEStatistics</t>
         </is>
       </c>
     </row>
@@ -8848,7 +8867,7 @@
       </c>
       <c r="Y201" s="0" t="inlineStr">
         <is>
-          <t>From AEA  updated Jan 2018;  for residential ; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>From AEA  updated July 2018;  for residential ; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -8874,10 +8893,10 @@
         <v>0</v>
       </c>
       <c r="H202" s="0">
-        <v>0.182799994945526</v>
+        <v>1.71000007539988E-02</v>
       </c>
       <c r="I202" s="0">
-        <v>1.71000007539988E-02</v>
+        <v>0.177799999713898</v>
       </c>
       <c r="K202" s="0">
         <v>1.79999995231628</v>
@@ -8899,7 +8918,7 @@
       </c>
       <c r="Y202" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; purchased power adjustment is wind surcharge</t>
+          <t>AVEC Rate Schedule updated July 2018; purchased power adjustment is wind surcharge</t>
         </is>
       </c>
     </row>
@@ -8924,8 +8943,9 @@
       <c r="G203" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="H203" s="0">
-        <v>0.213599994778633</v>
+      <c r="H203" s="0"/>
+      <c r="I203" s="0">
+        <v>0.225099995732307</v>
       </c>
       <c r="K203" s="0">
         <v>1.79999995231628</v>
@@ -8947,7 +8967,7 @@
       </c>
       <c r="Y203" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Scheduleu updated Jan 2018</t>
+          <t>AVEC Rate Scheduleu pdated July 2018</t>
         </is>
       </c>
     </row>
@@ -8972,8 +8992,9 @@
       <c r="G204" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="H204" s="0">
-        <v>0.232199996709824</v>
+      <c r="H204" s="0"/>
+      <c r="I204" s="0">
+        <v>0.234699994325638</v>
       </c>
       <c r="K204" s="0">
         <v>1.79999995231628</v>
@@ -8995,7 +9016,7 @@
       </c>
       <c r="Y204" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -9020,8 +9041,9 @@
       <c r="G205" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="H205" s="0">
-        <v>0.172099992632866</v>
+      <c r="H205" s="0"/>
+      <c r="I205" s="0">
+        <v>0.186700001358986</v>
       </c>
       <c r="K205" s="0">
         <v>1.79999995231628</v>
@@ -9043,7 +9065,7 @@
       </c>
       <c r="Y205" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -9069,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="H206" s="0">
-        <v>0.183100000023842</v>
+        <v>0.174700006842613</v>
       </c>
       <c r="I206" s="0">
         <v>3.13999988138676E-02</v>
@@ -9094,7 +9116,7 @@
       </c>
       <c r="Y206" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; Purchased power is wind surcharge</t>
+          <t>AVEC Rate Schedule updated July 2018; Purchased power is wind surcharge</t>
         </is>
       </c>
     </row>
@@ -9120,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="H207" s="0">
-        <v>0.195999994874001</v>
+        <v>0.195299997925758</v>
       </c>
       <c r="K207" s="0">
         <v>1.79999995231628</v>
@@ -9142,7 +9164,7 @@
       </c>
       <c r="Y207" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -9168,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="H208" s="0">
-        <v>0.208000004291534</v>
+        <v>0.210899993777275</v>
       </c>
       <c r="K208" s="0">
         <v>1.79999995231628</v>
@@ -9190,7 +9212,7 @@
       </c>
       <c r="Y208" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="H209" s="0">
-        <v>0.182799994945526</v>
+        <v>0.177799999713898</v>
       </c>
       <c r="I209" s="0">
         <v>1.71000007539988E-02</v>
@@ -9241,7 +9263,7 @@
       </c>
       <c r="Y209" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge</t>
         </is>
       </c>
     </row>
@@ -9267,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="H210" s="0">
-        <v>0.179299995303154</v>
+        <v>0.171299993991852</v>
       </c>
       <c r="I210" s="0">
         <v>3.81000004708767E-02</v>
@@ -9292,7 +9314,7 @@
       </c>
       <c r="Y210" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as purchased energy adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as purchased energy adjustment</t>
         </is>
       </c>
     </row>
@@ -9318,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="0">
-        <v>0.19030000269413</v>
+        <v>0.198400005698204</v>
       </c>
       <c r="K211" s="0">
         <v>1.79999995231628</v>
@@ -9340,7 +9362,7 @@
       </c>
       <c r="Y211" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="H212" s="0">
-        <v>0.20720000565052</v>
+        <v>0.211600005626678</v>
       </c>
       <c r="K212" s="0">
         <v>1.79999995231628</v>
@@ -9388,7 +9410,7 @@
       </c>
       <c r="Y212" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -9414,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="H213" s="0">
-        <v>0.19760000705719</v>
+        <v>0.198100000619888</v>
       </c>
       <c r="K213" s="0">
         <v>1.79999995231628</v>
@@ -9436,7 +9458,7 @@
       </c>
       <c r="Y213" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -9462,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="H214" s="0">
-        <v>0.180800005793571</v>
+        <v>0.163800001144409</v>
       </c>
       <c r="I214" s="0">
         <v>0.017400000244379</v>
@@ -9487,7 +9509,7 @@
       </c>
       <c r="Y214" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as purchased energy adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as purchased energy adjustment</t>
         </is>
       </c>
     </row>
@@ -9513,7 +9535,7 @@
         <v>0</v>
       </c>
       <c r="H215" s="0">
-        <v>0.223399996757507</v>
+        <v>0.225600004196167</v>
       </c>
       <c r="K215" s="0">
         <v>1.79999995231628</v>
@@ -9535,7 +9557,7 @@
       </c>
       <c r="Y215" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -9561,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="H216" s="0">
-        <v>0.207800000905991</v>
+        <v>0.207900002598763</v>
       </c>
       <c r="K216" s="0">
         <v>1.79999995231628</v>
@@ -9583,7 +9605,7 @@
       </c>
       <c r="Y216" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -9609,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="H217" s="0">
-        <v>0.180099993944168</v>
+        <v>0.165800005197525</v>
       </c>
       <c r="I217" s="0">
         <v>2.06000003963709E-02</v>
@@ -9634,7 +9656,7 @@
       </c>
       <c r="Y217" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as Purchased energy adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as Purchased energy adjustment</t>
         </is>
       </c>
     </row>
@@ -9660,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="H218" s="0">
-        <v>0.230900004506111</v>
+        <v>0.232099995017052</v>
       </c>
       <c r="K218" s="0">
         <v>1.79999995231628</v>
@@ -9682,7 +9704,7 @@
       </c>
       <c r="Y218" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -9708,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="H219" s="0">
-        <v>0.234699994325638</v>
+        <v>0.236200004816055</v>
       </c>
       <c r="K219" s="0">
         <v>1.79999995231628</v>
@@ -9730,7 +9752,7 @@
       </c>
       <c r="Y219" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -9756,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="H220" s="0">
-        <v>0.194600000977516</v>
+        <v>0.198300004005432</v>
       </c>
       <c r="K220" s="0">
         <v>1.79999995231628</v>
@@ -9778,7 +9800,7 @@
       </c>
       <c r="Y220" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -9804,7 +9826,7 @@
         <v>0</v>
       </c>
       <c r="H221" s="0">
-        <v>0.186000004410744</v>
+        <v>0.191100001335144</v>
       </c>
       <c r="K221" s="0">
         <v>1.79999995231628</v>
@@ -9826,7 +9848,7 @@
       </c>
       <c r="Y221" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -9852,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="H222" s="0">
-        <v>0.178299993276596</v>
+        <v>0.178399994969368</v>
       </c>
       <c r="K222" s="0">
         <v>1.79999995231628</v>
@@ -9874,7 +9896,7 @@
       </c>
       <c r="Y222" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -9900,7 +9922,7 @@
         <v>0</v>
       </c>
       <c r="H223" s="0">
-        <v>0.198699995875359</v>
+        <v>0.186299994587898</v>
       </c>
       <c r="I223" s="0">
         <v>1.60000007599592E-02</v>
@@ -9925,7 +9947,7 @@
       </c>
       <c r="Y223" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as purchased energy adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as purchased energy adjustment</t>
         </is>
       </c>
     </row>
@@ -9951,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="H224" s="0">
-        <v>0.185399994254112</v>
+        <v>0.180000007152557</v>
       </c>
       <c r="K224" s="0">
         <v>1.79999995231628</v>
@@ -9973,7 +9995,7 @@
       </c>
       <c r="Y224" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -9999,7 +10021,7 @@
         <v>0</v>
       </c>
       <c r="H225" s="0">
-        <v>0.17790000140667</v>
+        <v>0.18469999730587</v>
       </c>
       <c r="K225" s="0">
         <v>1.79999995231628</v>
@@ -10021,7 +10043,7 @@
       </c>
       <c r="Y225" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -10047,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="H226" s="0">
-        <v>0.241799995303154</v>
+        <v>0.245399996638298</v>
       </c>
       <c r="K226" s="0">
         <v>1.79999995231628</v>
@@ -10069,7 +10091,7 @@
       </c>
       <c r="Y226" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -10097,6 +10119,9 @@
       <c r="H227" s="0">
         <v>0.164199993014336</v>
       </c>
+      <c r="I227" s="0">
+        <v>2.10999995470047E-02</v>
+      </c>
       <c r="K227" s="0">
         <v>1.79999995231628</v>
       </c>
@@ -10117,7 +10142,7 @@
       </c>
       <c r="Y227" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018, wind surcharge included as purchased energy adjustment; see Toksook Bay on AVEC schedule</t>
+          <t>AVEC Rate Schedule updated July 2018, wind surcharge included as purchased energy adjustment; see Toksook Bay on AVEC schedule</t>
         </is>
       </c>
     </row>
@@ -10143,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="H228" s="0">
-        <v>0.456200003623962</v>
+        <v>0.476900011301041</v>
       </c>
       <c r="K228" s="0">
         <v>1.79999995231628</v>
@@ -10165,7 +10190,7 @@
       </c>
       <c r="Y228" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="H229" s="0">
-        <v>0.189999997615814</v>
+        <v>0.199499994516373</v>
       </c>
       <c r="K229" s="0">
         <v>1.79999995231628</v>
@@ -10213,7 +10238,7 @@
       </c>
       <c r="Y229" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -10239,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="H230" s="0">
-        <v>0.209199994802475</v>
+        <v>0.206400007009506</v>
       </c>
       <c r="K230" s="0">
         <v>1.79999995231628</v>
@@ -10261,7 +10286,7 @@
       </c>
       <c r="Y230" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -10287,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="H231" s="0">
-        <v>0.180099993944168</v>
+        <v>0.165800005197525</v>
       </c>
       <c r="I231" s="0">
         <v>2.06000003963709E-02</v>
@@ -10312,7 +10337,7 @@
       </c>
       <c r="Y231" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as purchased energy adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as purchased energy adjustment</t>
         </is>
       </c>
     </row>
@@ -10338,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="H232" s="0">
-        <v>0.226300001144409</v>
+        <v>0.238499999046326</v>
       </c>
       <c r="K232" s="0">
         <v>1.79999995231628</v>
@@ -10360,7 +10385,7 @@
       </c>
       <c r="Y232" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule 7/2017updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="H233" s="0">
-        <v>0.219899997115135</v>
+        <v>0.214000001549721</v>
       </c>
       <c r="K233" s="0">
         <v>1.79999995231628</v>
@@ -10408,7 +10433,7 @@
       </c>
       <c r="Y233" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -10434,7 +10459,10 @@
         <v>0</v>
       </c>
       <c r="H234" s="0">
-        <v>0.166600003838539</v>
+        <v>0.160099998116493</v>
+      </c>
+      <c r="I234" s="0">
+        <v>3.46000008285046E-02</v>
       </c>
       <c r="K234" s="0">
         <v>1.79999995231628</v>
@@ -10456,7 +10484,7 @@
       </c>
       <c r="Y234" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge</t>
         </is>
       </c>
     </row>
@@ -10482,7 +10510,7 @@
         <v>0</v>
       </c>
       <c r="H235" s="0">
-        <v>0.211199998855591</v>
+        <v>0.212799996137619</v>
       </c>
       <c r="K235" s="0">
         <v>1.79999995231628</v>
@@ -10504,7 +10532,7 @@
       </c>
       <c r="Y235" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -10530,7 +10558,10 @@
         <v>0</v>
       </c>
       <c r="H236" s="0">
-        <v>0.180899992585182</v>
+        <v>0.181799992918968</v>
+      </c>
+      <c r="I236" s="0">
+        <v>8.10000021010637E-03</v>
       </c>
       <c r="K236" s="0">
         <v>1.79999995231628</v>
@@ -10552,7 +10583,7 @@
       </c>
       <c r="Y236" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surchargeas purchased power adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surchargeas purchased power adjustment</t>
         </is>
       </c>
     </row>
@@ -10578,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="H237" s="0">
-        <v>0.190699994564056</v>
+        <v>0.196799993515015</v>
       </c>
       <c r="K237" s="0">
         <v>1.79999995231628</v>
@@ -10600,7 +10631,7 @@
       </c>
       <c r="Y237" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018;</t>
+          <t>AVEC Rate Schedule updated July 2018;</t>
         </is>
       </c>
     </row>
@@ -10626,7 +10657,10 @@
         <v>0</v>
       </c>
       <c r="H238" s="0">
-        <v>0.19820000231266</v>
+        <v>0.205699995160103</v>
+      </c>
+      <c r="I238" s="0">
+        <v>2.40000011399388E-03</v>
       </c>
       <c r="K238" s="0">
         <v>1.79999995231628</v>
@@ -10648,7 +10682,7 @@
       </c>
       <c r="Y238" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as purchased power adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as purchased power adjustment</t>
         </is>
       </c>
     </row>
@@ -10674,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="H239" s="0">
-        <v>0.227899998426437</v>
+        <v>0.229100003838539</v>
       </c>
       <c r="K239" s="0">
         <v>1.79999995231628</v>
@@ -10696,7 +10730,7 @@
       </c>
       <c r="Y239" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -10722,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="H240" s="0">
-        <v>0.160999998450279</v>
+        <v>0.159999996423721</v>
       </c>
       <c r="I240" s="0">
         <v>4.47999984025955E-02</v>
@@ -10747,7 +10781,7 @@
       </c>
       <c r="Y240" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as power cost adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as power cost adjustment</t>
         </is>
       </c>
     </row>
@@ -10773,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="H241" s="0">
-        <v>0.207300007343292</v>
+        <v>0.215200006961823</v>
       </c>
       <c r="K241" s="0">
         <v>1.79999995231628</v>
@@ -10795,7 +10829,7 @@
       </c>
       <c r="Y241" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -10821,7 +10855,7 @@
         <v>0</v>
       </c>
       <c r="H242" s="0">
-        <v>0.24099999666214</v>
+        <v>0.359100013971329</v>
       </c>
       <c r="K242" s="0">
         <v>1.79999995231628</v>
@@ -10843,7 +10877,7 @@
       </c>
       <c r="Y242" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -10869,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="H243" s="0">
-        <v>0.202800005674362</v>
+        <v>0.202600002288818</v>
       </c>
       <c r="K243" s="0">
         <v>1.79999995231628</v>
@@ -10891,7 +10925,7 @@
       </c>
       <c r="Y243" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -10917,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="H244" s="0">
-        <v>0.183699995279312</v>
+        <v>0.187099993228912</v>
       </c>
       <c r="K244" s="0">
         <v>1.79999995231628</v>
@@ -10939,7 +10973,7 @@
       </c>
       <c r="Y244" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -10965,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="H245" s="0">
-        <v>0.183699995279312</v>
+        <v>0.187099993228912</v>
       </c>
       <c r="K245" s="0">
         <v>1.79999995231628</v>
@@ -10987,7 +11021,7 @@
       </c>
       <c r="Y245" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -11013,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="H246" s="0">
-        <v>0.203299999237061</v>
+        <v>0.233300000429153</v>
       </c>
       <c r="K246" s="0">
         <v>1.79999995231628</v>
@@ -11035,7 +11069,7 @@
       </c>
       <c r="Y246" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11095,7 @@
         <v>0</v>
       </c>
       <c r="H247" s="0">
-        <v>0.201399996876717</v>
+        <v>0.200900003314018</v>
       </c>
       <c r="K247" s="0">
         <v>1.79999995231628</v>
@@ -11083,7 +11117,7 @@
       </c>
       <c r="Y247" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -11111,6 +11145,9 @@
       <c r="H248" s="0">
         <v>0.164199993014336</v>
       </c>
+      <c r="I248" s="0">
+        <v>2.10999995470047E-02</v>
+      </c>
       <c r="K248" s="0">
         <v>1.79999995231628</v>
       </c>
@@ -11131,7 +11168,7 @@
       </c>
       <c r="Y248" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as purchased energy adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as purchased energy adjustment</t>
         </is>
       </c>
     </row>
@@ -11159,6 +11196,9 @@
       <c r="H249" s="0">
         <v>0.164199993014336</v>
       </c>
+      <c r="I249" s="0">
+        <v>2.10999995470047E-02</v>
+      </c>
       <c r="K249" s="0">
         <v>1.79999995231628</v>
       </c>
@@ -11179,7 +11219,7 @@
       </c>
       <c r="Y249" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as purchased energy adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as purchased energy adjustment</t>
         </is>
       </c>
     </row>
@@ -11205,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="H250" s="0">
-        <v>0.249699994921684</v>
+        <v>0.246199995279312</v>
       </c>
       <c r="K250" s="0">
         <v>1.79999995231628</v>
@@ -11227,7 +11267,7 @@
       </c>
       <c r="Y250" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -11256,14 +11296,14 @@
         <v>1.32000005245209</v>
       </c>
       <c r="L251" s="0">
-        <v>91.9899978637695</v>
+        <v>130</v>
       </c>
       <c r="S251" s="0">
-        <v>0.122000001370907</v>
+        <v>0.125100001692772</v>
       </c>
       <c r="Y251" s="0" t="inlineStr">
         <is>
-          <t>7/2017 for 3 phase commercial and alrge users</t>
+          <t>7/2018 for 3 phase commercial and large users</t>
         </is>
       </c>
     </row>
@@ -11302,7 +11342,7 @@
       </c>
       <c r="Y252" s="0" t="inlineStr">
         <is>
-          <t>7/2017</t>
+          <t>7/2018</t>
         </is>
       </c>
     </row>
@@ -11335,7 +11375,7 @@
       </c>
       <c r="Y253" s="0" t="inlineStr">
         <is>
-          <t>AEA report updated Jan 2018; CO2 from FY92</t>
+          <t>AEA report updated Jul 2018; CO2 from FY92</t>
         </is>
       </c>
     </row>
@@ -11361,7 +11401,7 @@
         <v>1</v>
       </c>
       <c r="H254" s="0">
-        <v>0.245299994945526</v>
+        <v>0.247899994254112</v>
       </c>
       <c r="K254" s="0">
         <v>1.5</v>
@@ -11374,7 +11414,7 @@
       </c>
       <c r="Y254" s="0" t="inlineStr">
         <is>
-          <t>AVEC took over Bethel Utilities in May 2014;  updated Jan 2018</t>
+          <t>AVEC took over Bethel Utilities in May 2014;  updated July 2018</t>
         </is>
       </c>
     </row>
@@ -11409,11 +11449,11 @@
         <v>30.9400005340576</v>
       </c>
       <c r="S255" s="0">
-        <v>0.600000023841858</v>
+        <v>0.680000007152557</v>
       </c>
       <c r="Y255" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated Jul 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -11511,11 +11551,11 @@
         <v>0</v>
       </c>
       <c r="S258" s="0">
-        <v>0.60180002450943</v>
+        <v>0.6875</v>
       </c>
       <c r="Y258" s="0" t="inlineStr">
         <is>
-          <t>AEA for residential updated Jan 2018; Now called Gold Country Energy;  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA for residential updated July 2018; Now called Gold Country Energy;  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -11548,7 +11588,7 @@
       </c>
       <c r="Y259" s="0" t="inlineStr">
         <is>
-          <t>AEA updated Jan 2018; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA updated July 2018; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -11581,7 +11621,7 @@
       </c>
       <c r="Y260" s="0" t="inlineStr">
         <is>
-          <t>AEA updated Jan 20187for residential; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA updated July 20187for residential; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -11617,7 +11657,7 @@
       </c>
       <c r="Y261" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 AEA</t>
+          <t>updated July 2018 AEA</t>
         </is>
       </c>
     </row>
@@ -11649,11 +11689,11 @@
         <v>0</v>
       </c>
       <c r="S262" s="0">
-        <v>0.430999994277954</v>
+        <v>0.416000008583069</v>
       </c>
       <c r="Y262" s="0" t="inlineStr">
         <is>
-          <t>AEA updated Jan 2018 for residential;</t>
+          <t>updated July 2018 AEA</t>
         </is>
       </c>
     </row>
@@ -11688,11 +11728,11 @@
         <v>30.9400005340576</v>
       </c>
       <c r="S263" s="0">
-        <v>0.529999971389771</v>
+        <v>0.600000023841858</v>
       </c>
       <c r="Y263" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 APT report</t>
+          <t>updated Jul 2018 APT report</t>
         </is>
       </c>
     </row>
@@ -11728,7 +11768,7 @@
       </c>
       <c r="Y264" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018  AEA report</t>
+          <t>updated July 2018  AEA report</t>
         </is>
       </c>
     </row>
@@ -11754,10 +11794,10 @@
         <v>1</v>
       </c>
       <c r="H265" s="0">
-        <v>6.22499994933605E-02</v>
+        <v>4.95500005781651E-02</v>
       </c>
       <c r="I265" s="0">
-        <v>6.22999994084239E-03</v>
+        <v>1.87199991196394E-02</v>
       </c>
       <c r="K265" s="0">
         <v>1.10000002384186</v>
@@ -11766,14 +11806,14 @@
         <v>17</v>
       </c>
       <c r="S265" s="0">
-        <v>8.38200002908707E-02</v>
+        <v>8.44099968671799E-02</v>
       </c>
       <c r="X265" s="0">
         <v>4.30000014603138E-02</v>
       </c>
       <c r="Y265" s="0" t="inlineStr">
         <is>
-          <t>Commercial small Service; Rates updated as of 7/2017 from Chugach website: rates in effect for Anchorage, Hope, Moose Pass Whittier, Girdwood;  Purchased power ncludes both purchased power and Fire island Wind Renewable Energy Adjustment</t>
+          <t>Commercial small Service; Rates updated as of 7/2018 from Chugach website: rates in effect for Anchorage, Hope, Moose Pass Whittier, Girdwood;  Purchased power includes both purchased power and Fire island Wind Renewable Energy Adjustment</t>
         </is>
       </c>
     </row>
@@ -11802,11 +11842,11 @@
         <v>1.79999995231628</v>
       </c>
       <c r="S266" s="0">
-        <v>0.719600021839142</v>
+        <v>0.740000009536743</v>
       </c>
       <c r="Y266" s="0" t="inlineStr">
         <is>
-          <t>AEA for residential rates updated Jan 2018</t>
+          <t>AEA for residential rates updated Jul 2018</t>
         </is>
       </c>
     </row>
@@ -11871,7 +11911,7 @@
         <v>0</v>
       </c>
       <c r="H268" s="0">
-        <v>0.171000003814697</v>
+        <v>0.206400007009506</v>
       </c>
       <c r="K268" s="0">
         <v>1.60000002384186</v>
@@ -11913,7 +11953,7 @@
         <v>0</v>
       </c>
       <c r="H269" s="0">
-        <v>0.171000003814697</v>
+        <v>0.206400007009506</v>
       </c>
       <c r="K269" s="0">
         <v>1.60000002384186</v>
@@ -11929,7 +11969,7 @@
       </c>
       <c r="Y269" s="0" t="inlineStr">
         <is>
-          <t>Valdez; updated Jan 2018 website ;  Fuel surcharge here includes twelve month average of fuel charge plus generation and transmission minus heat revenue credit. This breakdown was instituted in June 2012.  CO2 from combination of Glennallen and Valdez and Solomon Gulch generation.</t>
+          <t>Valdez; 7/2018 website ;  Fuel surcharge here includes twelve month average of fuel charge plus generation and transmission minus heat revenue credit. This breakdown was instituted in June 2012.  CO2 from combination of Glennallen and Valdez and Solomon Gulch generation.</t>
         </is>
       </c>
     </row>
@@ -11971,7 +12011,7 @@
       </c>
       <c r="Y270" s="0" t="inlineStr">
         <is>
-          <t>Cordova Electric schedule effective 3/2015 still in effect updated Jan 2018</t>
+          <t>Cordova Electric schedule effective 3/2015 still in effect July 2018</t>
         </is>
       </c>
     </row>
@@ -12010,7 +12050,7 @@
       </c>
       <c r="Y271" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018  APT report - rate quoted in report includes COPA and RCC so RCC charge is dropped here.</t>
+          <t>updated Jul 2018  APT report - rate quoted in report includes COPA and RCC so RCC charge is dropped here.</t>
         </is>
       </c>
     </row>
@@ -12046,7 +12086,7 @@
       </c>
       <c r="Y272" s="0" t="inlineStr">
         <is>
-          <t>AEIDC for residential updated Jan 2018;  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEIDC for residential updated July 2018;  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -12081,11 +12121,11 @@
         <v>10.3599996566772</v>
       </c>
       <c r="S273" s="0">
-        <v>0.319999992847443</v>
+        <v>0.389999985694885</v>
       </c>
       <c r="Y273" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 APT report - rate quoted in report includes COPA and RCC so RCC charge is dropped here.</t>
+          <t>updated Jul 2018 APT report - rate quoted in report includes COPA and RCC so RCC charge is dropped here.</t>
         </is>
       </c>
     </row>
@@ -12120,11 +12160,11 @@
         <v>30.9400005340576</v>
       </c>
       <c r="S274" s="0">
-        <v>0.569999992847443</v>
+        <v>0.610000014305115</v>
       </c>
       <c r="Y274" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018  APT report - rate quoted in report includes COPA and RCC so RCC charge is dropped here.</t>
+          <t>updated Jul  2018  APT report - rate quoted in report includes COPA and RCC so RCC charge is dropped here.</t>
         </is>
       </c>
     </row>
@@ -12160,7 +12200,7 @@
       </c>
       <c r="Y275" s="0" t="inlineStr">
         <is>
-          <t>AEA updated Jan 2018 for residential;  -  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA updated July 2018 for residential;  -  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="H276" s="0">
-        <v>0.241799995303154</v>
+        <v>0.245399996638298</v>
       </c>
       <c r="K276" s="0">
         <v>2.90000009536743</v>
@@ -12241,7 +12281,7 @@
       </c>
       <c r="Y277" s="0" t="inlineStr">
         <is>
-          <t>AEA updated Jan 2018 for residential;  -  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA updated July 2018 for residential;  -  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -12267,17 +12307,17 @@
         <v>1</v>
       </c>
       <c r="H278" s="0">
-        <v>0.824159979820251</v>
+        <v>0.791960000991821</v>
       </c>
       <c r="L278" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S278" s="0">
-        <v>0.10181999951601</v>
+        <v>0.094590000808239</v>
       </c>
       <c r="Y278" s="0" t="inlineStr">
         <is>
-          <t>Rates are  from Enstar Website effective updated Jan 2018; CO2 is lbs/therm (12.1) estimated from ACE3 figures;  Fuel Surcharge is actually Gas Cost Adjustment which is the figure ENSTAR changes each January; RCC of .223% .  This  rate is for customers throughout the service area - Anchorage, Big Lake, Chugiak-EagleRiver Eklutna, Girdwood, Houston, Indian, Kenai, Knik, Nikiski, Palmer, Peters Creek Portage, Sterling, Soldotna, Wasilla,Whittier</t>
+          <t>Rates are  from Enstar Website effective updated July 2018; CO2 is lbs/therm (12.1) estimated from ACE3 figures;  Fuel Surcharge is actually Gas Cost Adjustment which is the figure ENSTAR changes each January; RCC of .223% .  This  rate is for customers throughout the service area - Anchorage, Big Lake, Chugiak-EagleRiver Eklutna, Girdwood, Houston, Indian, Kenai, Knik, Nikiski, Palmer, Peters Creek Portage, Sterling, Soldotna, Wasilla,Whittier</t>
         </is>
       </c>
     </row>
@@ -12312,11 +12352,11 @@
         <v>30.9400005340576</v>
       </c>
       <c r="S279" s="0">
-        <v>0.600000023841858</v>
+        <v>0.680000007152557</v>
       </c>
       <c r="Y279" s="0" t="inlineStr">
         <is>
-          <t> same as Bettles  updated Jan 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t> same as Bettles  updated Jul 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -12378,11 +12418,11 @@
         <v>2.79999995231628</v>
       </c>
       <c r="S281" s="0">
-        <v>0.445600003004074</v>
+        <v>0.433299988508224</v>
       </c>
       <c r="Y281" s="0" t="inlineStr">
         <is>
-          <t>AEA updated Jan 2018;  -  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA updated Feb 2018;  -  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -12417,11 +12457,11 @@
         <v>7.05000019073486</v>
       </c>
       <c r="S282" s="0">
-        <v>0.664399981498718</v>
+        <v>0.665300011634827</v>
       </c>
       <c r="Y282" s="0" t="inlineStr">
         <is>
-          <t>Cold Bay; AEA updated Jan 2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Cold Bay; AEA updated Jul 2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -12457,7 +12497,7 @@
       </c>
       <c r="Y283" s="0" t="inlineStr">
         <is>
-          <t>AEA for residential  updated Jan 2018</t>
+          <t>AEA for residential  updated July 2018</t>
         </is>
       </c>
     </row>
@@ -12483,7 +12523,7 @@
         <v>1</v>
       </c>
       <c r="H284" s="0">
-        <v>9.46699976921082E-02</v>
+        <v>0.110710002481937</v>
       </c>
       <c r="K284" s="0">
         <v>2.27999997138977</v>
@@ -12499,7 +12539,7 @@
       </c>
       <c r="Y284" s="0" t="inlineStr">
         <is>
-          <t>Rates from 11/2017; Fuel and Purchased Power Charges are combined under Fuel Surcharge            CO2 is based on addition of hydro from Bradley Lake (without hydro = 2.8)</t>
+          <t>Rates from 7/1/18; Fuel and Purchased Power Charges are combined under Fuel Surcharge            CO2 is based on addition of hydro from Bradley Lake (without hydro = 2.8)</t>
         </is>
       </c>
     </row>
@@ -12532,7 +12572,7 @@
       </c>
       <c r="Y285" s="0" t="inlineStr">
         <is>
-          <t>from AEA updated Jan 2018 for residential</t>
+          <t>from AEA updated July 2018 for residential</t>
         </is>
       </c>
     </row>
@@ -12669,11 +12709,11 @@
         <v>7.69000005722046</v>
       </c>
       <c r="S288" s="0">
-        <v>0.209999993443489</v>
+        <v>0.200000002980232</v>
       </c>
       <c r="Y288" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated Jul 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -12708,11 +12748,11 @@
         <v>30.9400005340576</v>
       </c>
       <c r="S289" s="0">
-        <v>0.639999985694885</v>
+        <v>1.27999997138977</v>
       </c>
       <c r="Y289" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 20187 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated Jul 20187 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -12747,11 +12787,11 @@
         <v>7.96000003814697</v>
       </c>
       <c r="S290" s="0">
-        <v>0.180000007152557</v>
+        <v>0.189999997615814</v>
       </c>
       <c r="Y290" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated Jul  2018APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -12777,7 +12817,7 @@
         <v>1</v>
       </c>
       <c r="I291" s="0">
-        <v>7.07700029015541E-02</v>
+        <v>7.27000012993813E-02</v>
       </c>
       <c r="K291" s="0">
         <v>1.10000002384186</v>
@@ -12793,7 +12833,7 @@
       </c>
       <c r="Y291" s="0" t="inlineStr">
         <is>
-          <t>rates updated Jan 2018;  new rate structure; rates same for all communities served; minimum charge required ($19.30) isn't included here</t>
+          <t>rates updated July 2018;  new rate structure; rates same for all communities served; minimum charge required ($23.21) isn't included here</t>
         </is>
       </c>
     </row>
@@ -12909,11 +12949,11 @@
         <v>7.96000003814697</v>
       </c>
       <c r="S294" s="0">
-        <v>0.180000007152557</v>
+        <v>0.189999997615814</v>
       </c>
       <c r="Y294" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated Jul 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -12945,11 +12985,11 @@
         <v>5</v>
       </c>
       <c r="S295" s="0">
-        <v>0.908999979496002</v>
+        <v>0.919000029563904</v>
       </c>
       <c r="Y295" s="0" t="inlineStr">
         <is>
-          <t>AEA updated Jan 2018for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA updated July 2018for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -13026,14 +13066,14 @@
         <v>500</v>
       </c>
       <c r="S297" s="0">
-        <v>0.666000008583069</v>
+        <v>0.679499983787537</v>
       </c>
       <c r="T297" s="0">
-        <v>0.600499987602234</v>
+        <v>0.61269998550415</v>
       </c>
       <c r="Y297" s="0" t="inlineStr">
         <is>
-          <t>Angoon, Hoonah, Kake, Kasaan, Klawock; 1/2018 , CO2 from average of all THREA generating plants from Alaska Energy Authority (DCRA); changed from THREA  to Inside Passage Electric in 2001</t>
+          <t>Angoon, Hoonah, Kake, Kasaan, Klawock; 7/2018 , CO2 from average of all THREA generating plants from Alaska Energy Authority (DCRA); changed from THREA  to Inside Passage Electric in 2001</t>
         </is>
       </c>
     </row>
@@ -13069,7 +13109,7 @@
       </c>
       <c r="Y298" s="0" t="inlineStr">
         <is>
-          <t>Deering; updated Jan 2018 for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Deering; updated July 2018 for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -13104,11 +13144,11 @@
         <v>7.96000003814697</v>
       </c>
       <c r="S299" s="0">
-        <v>0.180000007152557</v>
+        <v>0.189999997615814</v>
       </c>
       <c r="Y299" s="0" t="inlineStr">
         <is>
-          <t>Thorne Bay: updated Jan 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>Thorne Bay: updated Jul 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -13146,11 +13186,11 @@
         <v>3.05999994277954</v>
       </c>
       <c r="S300" s="0">
-        <v>0.094200000166893</v>
+        <v>9.88999977707863E-02</v>
       </c>
       <c r="Y300" s="0" t="inlineStr">
         <is>
-          <t>From data sheet supplied by utility   7/2017 ; CO2 rate includes hydro from Ketchikan and Swan Lake      Customer Charge is $36.30 paid only April thru October so here it is allocated over whole year.</t>
+          <t>From data sheet supplied by utility   7/2018 ; CO2 rate includes hydro from Ketchikan and Swan Lake      Customer Charge is $36.30 paid only April thru October so here it is allocated over whole year.</t>
         </is>
       </c>
     </row>
@@ -13186,7 +13226,7 @@
       </c>
       <c r="Y301" s="0" t="inlineStr">
         <is>
-          <t>7/2017 for residential; ; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>7/2018 for residential; ; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -13215,11 +13255,11 @@
         <v>1.79999995231628</v>
       </c>
       <c r="S302" s="0">
-        <v>0.329699993133545</v>
+        <v>0.4341000020504</v>
       </c>
       <c r="Y302" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>updated July 2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -13254,11 +13294,11 @@
         <v>7.96000003814697</v>
       </c>
       <c r="S303" s="0">
-        <v>0.180000007152557</v>
+        <v>0.189999997615814</v>
       </c>
       <c r="Y303" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated Jul 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -13284,7 +13324,7 @@
         <v>0</v>
       </c>
       <c r="H304" s="0">
-        <v>0.240700006484985</v>
+        <v>0.359100013971329</v>
       </c>
       <c r="K304" s="0">
         <v>2.20000004768372</v>
@@ -13303,7 +13343,7 @@
       </c>
       <c r="Y304" s="0" t="inlineStr">
         <is>
-          <t>AVEC for Shungnak1/2017</t>
+          <t>AVEC for Shungnak 7/2018</t>
         </is>
       </c>
     </row>
@@ -13329,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="I305" s="0">
-        <v>1.96940004825592E-02</v>
+        <v>2.65200007706881E-02</v>
       </c>
       <c r="K305" s="0">
         <v>0.270000010728836</v>
@@ -13348,7 +13388,7 @@
       </c>
       <c r="Y305" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 rate schedule; CO2 includes hydro from Terror Lake and oil from Kodiak; Kodiak, Port Lions</t>
+          <t>updated July 2018 rate schedule; CO2 includes hydro from Terror Lake and oil from Kodiak; Kodiak, Port Lions</t>
         </is>
       </c>
     </row>
@@ -13384,7 +13424,7 @@
       </c>
       <c r="Y306" s="0" t="inlineStr">
         <is>
-          <t>AEA  updated Jan 2018 for residential_x000d_
+          <t>AEA  updated July 2018 for residential_x000d_
 This is an unregulated utility</t>
         </is>
       </c>
@@ -13421,7 +13461,7 @@
       </c>
       <c r="Y307" s="0" t="inlineStr">
         <is>
-          <t>AIDEA database updated Jan 2018 for residential; CO2 estimated because of lack of data from PCEStatistics from Alaska Energy Authority (DCRA).</t>
+          <t>AIDEA database updated July 2018 for residential; CO2 estimated because of lack of data from PCEStatistics from Alaska Energy Authority (DCRA).</t>
         </is>
       </c>
     </row>
@@ -13447,7 +13487,7 @@
         <v>0</v>
       </c>
       <c r="H308" s="0">
-        <v>0.200000002980232</v>
+        <v>0.207000002264977</v>
       </c>
       <c r="K308" s="0">
         <v>2.90000009536743</v>
@@ -13469,7 +13509,7 @@
       </c>
       <c r="Y308" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -13497,9 +13537,7 @@
       <c r="H309" s="0">
         <v>0.203899994492531</v>
       </c>
-      <c r="J309" s="0">
-        <v>0.178800001740456</v>
-      </c>
+      <c r="J309" s="0"/>
       <c r="K309" s="0">
         <v>1.60000002384186</v>
       </c>
@@ -13544,7 +13582,7 @@
       </c>
       <c r="Y310" s="0" t="inlineStr">
         <is>
-          <t>AEA for residential, 1/2018; CO2 estimated because of lack of data</t>
+          <t>AEA for residential, 7/2018; CO2 estimated because of lack of data</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13615,7 @@
       </c>
       <c r="Y311" s="0" t="inlineStr">
         <is>
-          <t>Kwethluk; AEIdC database updated Jan 2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Kwethluk; AEIdC database updated 5/ 2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -13610,7 +13648,7 @@
       </c>
       <c r="Y312" s="0" t="inlineStr">
         <is>
-          <t>AEA for residential - updated Jan 2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA for residential - updated 2/ 2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -13646,7 +13684,7 @@
       </c>
       <c r="Y313" s="0" t="inlineStr">
         <is>
-          <t>AEA database  for residential updated Jan 2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA) 1995</t>
+          <t>AEA database  for residential updated 4/ 2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA) 1995</t>
         </is>
       </c>
     </row>
@@ -13682,7 +13720,7 @@
       </c>
       <c r="Y314" s="0" t="inlineStr">
         <is>
-          <t>AEA database  for residential 1/2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA) 1995</t>
+          <t>AEA database  for residential updated 4/ 2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA) 1995</t>
         </is>
       </c>
     </row>
@@ -13714,11 +13752,11 @@
         <v>0</v>
       </c>
       <c r="S315" s="0">
-        <v>1.77520000934601</v>
+        <v>1.77479994297028</v>
       </c>
       <c r="Y315" s="0" t="inlineStr">
         <is>
-          <t>From AEA updated Jan 2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>From AEA updated 2/ 2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -13754,7 +13792,7 @@
       </c>
       <c r="Y316" s="0" t="inlineStr">
         <is>
-          <t>AEA database for residential - updted 1/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database for residential - updated 3/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -13786,11 +13824,11 @@
         <v>20</v>
       </c>
       <c r="S317" s="0">
-        <v>0.85479998588562</v>
+        <v>0.966799974441528</v>
       </c>
       <c r="Y317" s="0" t="inlineStr">
         <is>
-          <t>AEA database for residential - updated 1/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database for residential - updated 3/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -13816,7 +13854,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="0">
-        <v>7.96099975705147E-02</v>
+        <v>7.53199979662895E-02</v>
       </c>
       <c r="K318" s="0">
         <v>1.10000002384186</v>
@@ -13828,17 +13866,17 @@
         <v>1300</v>
       </c>
       <c r="S318" s="0">
-        <v>0.114069998264313</v>
+        <v>0.116810001432896</v>
       </c>
       <c r="T318" s="0">
-        <v>0.102559998631477</v>
+        <v>0.105020001530647</v>
       </c>
       <c r="X318" s="0">
         <v>7.15999975800514E-02</v>
       </c>
       <c r="Y318" s="0" t="inlineStr">
         <is>
-          <t>rates from MEA updated 1/2018  for 3 phase charges ;includes Eagle River, Chugiak, Palmer, Talkeetna, Wasilla, Willow;   there are sales tax charges in Palmer(3%), Wasilla (2.5%)and Houston (2%) and area within the Municipality of Anchorage has undergrounding surcharge of 2%</t>
+          <t>rates from MEA updated 7/2018  for single phase small commercial;  ;includes Eagle River, Chugiak, Palmer, Talkeetna, Wasilla, Willow;   there are sales tax charges in Palmer(3%), Wasilla (2.5%)and Houston (2%) and area within the Municipality of Anchorage has undergrounding surcharge of 2%</t>
         </is>
       </c>
     </row>
@@ -13866,12 +13904,15 @@
       <c r="K319" s="0">
         <v>1.70000004768372</v>
       </c>
+      <c r="L319" s="0">
+        <v>20</v>
+      </c>
       <c r="S319" s="0">
-        <v>0.742999970912933</v>
+        <v>0.566799998283386</v>
       </c>
       <c r="Y319" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018 residential;CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 8/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -13906,11 +13947,11 @@
         <v>30.9400005340576</v>
       </c>
       <c r="S320" s="0">
-        <v>0.529999971389771</v>
+        <v>0.600000023841858</v>
       </c>
       <c r="Y320" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -13969,7 +14010,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="0">
-        <v>0.303000003099442</v>
+        <v>0.343100011348724</v>
       </c>
       <c r="K322" s="0">
         <v>2.40000009536743</v>
@@ -14027,7 +14068,7 @@
       </c>
       <c r="Y323" s="0" t="inlineStr">
         <is>
-          <t>Naknek Electric schedule 6/1/2016</t>
+          <t>Naknek Electric schedule 6/1/2018</t>
         </is>
       </c>
     </row>
@@ -14063,7 +14104,7 @@
       </c>
       <c r="Y324" s="0" t="inlineStr">
         <is>
-          <t>AEAdatabase updated 1/2018 for residential;CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEAdatabase updated 4/2018 for residential;CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -14099,7 +14140,7 @@
       </c>
       <c r="Y325" s="0" t="inlineStr">
         <is>
-          <t>AEAdatabase updated 1/2018 for residential;CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEAdatabase updated 4/2018 for residential;CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -14132,7 +14173,7 @@
       </c>
       <c r="Y326" s="0" t="inlineStr">
         <is>
-          <t>Chefornak; AIDEA database updated 1/2018; CO2 estimated from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Chefornak; AIDEA database updated 4/2018; CO2 estimated from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -14167,11 +14208,11 @@
         <v>7.69000005722046</v>
       </c>
       <c r="S327" s="0">
-        <v>0.180000007152557</v>
+        <v>0.189999997615814</v>
       </c>
       <c r="Y327" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -14207,7 +14248,7 @@
       </c>
       <c r="Y328" s="0" t="inlineStr">
         <is>
-          <t>AIDEA database updated 1/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AIDEA database updated 4/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -14240,7 +14281,7 @@
       </c>
       <c r="Y329" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 4/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -14327,7 +14368,7 @@
       </c>
       <c r="Y331" s="0" t="inlineStr">
         <is>
-          <t>NSB rate schedule updated 1/2018;  Nuiqsut has special rates because its electricity is generated by natural gas No charge for elder or handicapped customers, NSB assistance  $.20/kwh (1-300 kwh)</t>
+          <t>NSB rate schedule updated 7/2018;  Nuiqsut has special rates because its electricity is generated by natural gas No charge for elder or handicapped customers, NSB assistance  $.20/kwh (1-300 kwh)</t>
         </is>
       </c>
     </row>
@@ -14362,11 +14403,11 @@
         <v>30.9400005340576</v>
       </c>
       <c r="S332" s="0">
-        <v>0.560000002384186</v>
+        <v>0.660000026226044</v>
       </c>
       <c r="Y332" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -14395,11 +14436,11 @@
         <v>2.90000009536743</v>
       </c>
       <c r="S333" s="0">
-        <v>0.391000002622604</v>
+        <v>0.39640000462532</v>
       </c>
       <c r="Y333" s="0" t="inlineStr">
         <is>
-          <t>AEA report updated 1/2018 for residential rates</t>
+          <t>AEA report updated 7/2018 for residential rates</t>
         </is>
       </c>
     </row>
@@ -14425,20 +14466,20 @@
         <v>0</v>
       </c>
       <c r="H334" s="0">
-        <v>0.137899994850159</v>
+        <v>0.142299994826317</v>
       </c>
       <c r="K334" s="0">
         <v>1.5</v>
       </c>
       <c r="L334" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="S334" s="0">
         <v>0.258599996566772</v>
       </c>
       <c r="Y334" s="0" t="inlineStr">
         <is>
-          <t>Dillingham and Aleknagik; Nushagak updated 1/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Dillingham and Aleknagik; Nushagak updated 7/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -14470,11 +14511,11 @@
         <v>5</v>
       </c>
       <c r="S335" s="0">
-        <v>0.388700008392334</v>
+        <v>0.400999993085861</v>
       </c>
       <c r="Y335" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018 for residential; CO2 estimated from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 7/2018 for residential; CO2 estimated from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -14536,11 +14577,11 @@
         <v>2.59999990463257</v>
       </c>
       <c r="S337" s="0">
-        <v>0.810000002384186</v>
+        <v>0.819999992847443</v>
       </c>
       <c r="Y337" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018 for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 7/2018 for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -14657,7 +14698,7 @@
       </c>
       <c r="Y340" s="0" t="inlineStr">
         <is>
-          <t>Rates from City of Petersburg  unchanged in 1/18 since 7/2015; CO2 rates include hydro from Tyee (based on sales rather than generation)</t>
+          <t>Rates from City of Petersburg  unchanged in 7/18 since 7/2015; CO2 rates include hydro from Tyee (based on sales rather than generation)</t>
         </is>
       </c>
     </row>
@@ -14693,7 +14734,7 @@
       </c>
       <c r="Y341" s="0" t="inlineStr">
         <is>
-          <t>AEA report updated 1/2018 for residential;</t>
+          <t>AEA report updated 7/2018 for residential;</t>
         </is>
       </c>
     </row>
@@ -14722,7 +14763,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="S342" s="0">
-        <v>0.5</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="Y342" s="0" t="inlineStr">
         <is>
@@ -14762,7 +14803,7 @@
       </c>
       <c r="Y343" s="0" t="inlineStr">
         <is>
-          <t>AEA report updated 1/2018 for residential;</t>
+          <t>AEA report updated 4/2018 for residential;</t>
         </is>
       </c>
     </row>
@@ -14795,7 +14836,7 @@
       </c>
       <c r="Y344" s="0" t="inlineStr">
         <is>
-          <t>AEA report updated 1/2018 for residential; Kongiganak</t>
+          <t>AEA report updated 3/2018 for residential; Kongiganak</t>
         </is>
       </c>
     </row>
@@ -14831,7 +14872,7 @@
       </c>
       <c r="Y345" s="0" t="inlineStr">
         <is>
-          <t> AEA report updated 1/2018 for residential;</t>
+          <t> AEA report updated 4/2018 for residential;</t>
         </is>
       </c>
     </row>
@@ -14863,11 +14904,11 @@
         <v>6.67999982833862</v>
       </c>
       <c r="S346" s="0">
-        <v>0.44530001282692</v>
+        <v>0.535300016403198</v>
       </c>
       <c r="Y346" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018 for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 3/2018 for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -14906,7 +14947,7 @@
       </c>
       <c r="Y347" s="0" t="inlineStr">
         <is>
-          <t>rates  from  City of Seward; 1/2018 ; Chugach Electric purchased energy costs vary monthly,  Purchased energy adjustment is average of summer and winter rates</t>
+          <t>rates  from  City of Seward; 7/2018 ; Chugach Electric purchased energy costs vary monthly,  Purchased energy adjustment is average of summer and winter rates</t>
         </is>
       </c>
     </row>
@@ -14980,11 +15021,11 @@
         <v>7.69000005722046</v>
       </c>
       <c r="S349" s="0">
-        <v>0.209999993443489</v>
+        <v>0.200000002980232</v>
       </c>
       <c r="Y349" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018  APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018  APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -15019,11 +15060,11 @@
         <v>30.9400005340576</v>
       </c>
       <c r="S350" s="0">
-        <v>0.529999971389771</v>
+        <v>0.600000023841858</v>
       </c>
       <c r="Y350" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018  APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018  APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -15051,15 +15092,13 @@
       <c r="K351" s="0">
         <v>1.79999995231628</v>
       </c>
-      <c r="L351" s="0">
-        <v>0</v>
-      </c>
+      <c r="L351" s="0"/>
       <c r="S351" s="0">
         <v>1</v>
       </c>
       <c r="Y351" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018  from AEA database for residential</t>
+          <t>updated 4/2018  from AEA database for residential</t>
         </is>
       </c>
     </row>
@@ -15087,15 +15126,13 @@
       <c r="K352" s="0">
         <v>1.60000002384186</v>
       </c>
-      <c r="L352" s="0">
-        <v>0</v>
-      </c>
+      <c r="L352" s="0"/>
       <c r="S352" s="0">
-        <v>0.419999986886978</v>
+        <v>0.490000009536743</v>
       </c>
       <c r="Y352" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018  from AEA database for residential</t>
+          <t>updated 4/2018  from City of St. Paul</t>
         </is>
       </c>
     </row>
@@ -15128,7 +15165,7 @@
       </c>
       <c r="Y353" s="0" t="inlineStr">
         <is>
-          <t>AIDEA database updated 1/2018</t>
+          <t>AIDEA database updated 4/2018</t>
         </is>
       </c>
     </row>
@@ -15161,7 +15198,7 @@
       </c>
       <c r="Y354" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 2/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -15197,7 +15234,7 @@
       </c>
       <c r="Y355" s="0" t="inlineStr">
         <is>
-          <t>Port Alsworth; AEA database updated 1/2018  for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Port Alsworth; AEA database updated 4/2018  for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -15284,7 +15321,7 @@
       </c>
       <c r="Y357" s="0" t="inlineStr">
         <is>
-          <t>AIDEA database updated 1/2018   for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AIDEA database updated 4/2018   for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -15352,11 +15389,11 @@
         <v>7.5</v>
       </c>
       <c r="S359" s="0">
-        <v>0.610000014305115</v>
+        <v>0.649999976158142</v>
       </c>
       <c r="Y359" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018  for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 7/2018  for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -15391,11 +15428,11 @@
         <v>10.3599996566772</v>
       </c>
       <c r="S360" s="0">
-        <v>0.319999992847443</v>
+        <v>0.389999985694885</v>
       </c>
       <c r="Y360" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018   APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018   APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -15430,11 +15467,11 @@
         <v>7.96000003814697</v>
       </c>
       <c r="S361" s="0">
-        <v>0.180000007152557</v>
+        <v>0.189999997615814</v>
       </c>
       <c r="Y361" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018   APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018   APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -15469,11 +15506,11 @@
         <v>10.3599996566772</v>
       </c>
       <c r="S362" s="0">
-        <v>0.319999992847443</v>
+        <v>0.389999985694885</v>
       </c>
       <c r="Y362" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018   APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018  APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -15499,7 +15536,7 @@
         <v>0</v>
       </c>
       <c r="J363" s="0">
-        <v>0.272899985313416</v>
+        <v>0.363400012254715</v>
       </c>
       <c r="K363" s="0">
         <v>1.79999995231628</v>
@@ -15509,7 +15546,7 @@
       </c>
       <c r="Y363" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 3/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -15545,7 +15582,7 @@
       </c>
       <c r="Y364" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 3/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -15574,11 +15611,11 @@
         <v>1.79999995231628</v>
       </c>
       <c r="S365" s="0">
-        <v>0.504100024700165</v>
+        <v>0.505999982357025</v>
       </c>
       <c r="Y365" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 5/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -15614,7 +15651,7 @@
       </c>
       <c r="Y366" s="0" t="inlineStr">
         <is>
-          <t>Nikolski; AEA database updated 1/2018 ; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Nikolski; AEA database updated 4/2018 ; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -15646,11 +15683,11 @@
         <v>4</v>
       </c>
       <c r="S367" s="0">
-        <v>0.427199989557266</v>
+        <v>0.436699986457825</v>
       </c>
       <c r="Y367" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA) Unalakleet VEA is owned by Matanuska Electric Assn.</t>
+          <t>AEA database updated 7/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA) Unalakleet VEA is owned by Matanuska Electric Assn.</t>
         </is>
       </c>
     </row>
@@ -15676,7 +15713,7 @@
         <v>0</v>
       </c>
       <c r="H368" s="0">
-        <v>0.165099993348122</v>
+        <v>0.199619993567467</v>
       </c>
       <c r="K368" s="0">
         <v>1.60000002384186</v>
@@ -15689,7 +15726,7 @@
       </c>
       <c r="Y368" s="0" t="inlineStr">
         <is>
-          <t>Unalaska schedul via e-mail - updated 1/2018 ;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Unalaska schedul via e-mail - updated 7/2018 ;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -15722,7 +15759,7 @@
       </c>
       <c r="Y369" s="0" t="inlineStr">
         <is>
-          <t>Newtok; AEA database updated 1/2018  residential;   CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Newtok; AEA database updated 4/2018  residential;   CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -15755,7 +15792,7 @@
       </c>
       <c r="Y370" s="0" t="inlineStr">
         <is>
-          <t> AEA database updated 1/2018  for residential;   CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t> AEA database updated 4/2018  for residential;   CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -15790,11 +15827,11 @@
         <v>7.69000005722046</v>
       </c>
       <c r="S371" s="0">
-        <v>0.180000007152557</v>
+        <v>0.189999997615814</v>
       </c>
       <c r="Y371" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018  APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -15830,7 +15867,7 @@
       </c>
       <c r="Y372" s="0" t="inlineStr">
         <is>
-          <t>AIDEA database updated 1/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AIDEA database updated 4/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -15869,7 +15906,7 @@
       </c>
       <c r="Y373" s="0" t="inlineStr">
         <is>
-          <t>Wrangell website and e-mails from Electric Dept updated 1/2018  no change from 7/2015;</t>
+          <t>Wrangell website and e-mails from Electric Dept updated 7/2018  no change from 7/2015;</t>
         </is>
       </c>
     </row>
@@ -15895,17 +15932,23 @@
         <v>0</v>
       </c>
       <c r="I374" s="0">
-        <v>0.220200002193451</v>
+        <v>0.22409999370575</v>
       </c>
       <c r="K374" s="0">
         <v>1.60000002384186</v>
       </c>
+      <c r="N374" s="0">
+        <v>700</v>
+      </c>
       <c r="S374" s="0">
         <v>0.215000003576279</v>
       </c>
+      <c r="T374" s="0">
+        <v>0.180000007152557</v>
+      </c>
       <c r="Y374" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 taken over by AVEC 6/2017;</t>
+          <t>updated July 2018 taken over by AVEC 6/2017;</t>
         </is>
       </c>
     </row>
@@ -15938,7 +15981,7 @@
       </c>
       <c r="Y375" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 for residential rate without PCE from AEA</t>
+          <t>updated Jul 2018 for residential rate without PCE from AEA</t>
         </is>
       </c>
     </row>
@@ -15971,7 +16014,7 @@
       </c>
       <c r="Y376" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 for residential rate without PCE from AEA</t>
+          <t>updated Jul 2018 for residential rate without PCE from AEA</t>
         </is>
       </c>
     </row>
@@ -16004,7 +16047,7 @@
       </c>
       <c r="Y377" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 for residential rate without PCE from AEA</t>
+          <t>updated Jul 2018 for residential rate without PCE from AEA</t>
         </is>
       </c>
     </row>
@@ -16037,7 +16080,7 @@
       </c>
       <c r="Y378" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 for residential rate without PCE from AEA</t>
+          <t>updated Jul 2018 for residential rate without PCE from AEA</t>
         </is>
       </c>
     </row>
@@ -16085,7 +16128,7 @@
       </c>
       <c r="Y379" s="0" t="inlineStr">
         <is>
-          <t>from AEL&amp;P website rate schedule for 1/2018; block rate and demand charge are calculated as .75* Peak rate + .25  Off Peak rate.</t>
+          <t>from AEL&amp;P website rate schedule for 7/2018; block rate and demand charge are calculated as .75* Peak rate + .25  Off Peak rate.</t>
         </is>
       </c>
     </row>
@@ -16159,11 +16202,11 @@
         <v>43.1800003051758</v>
       </c>
       <c r="S381" s="0">
-        <v>0.779999971389771</v>
+        <v>0.920000016689301</v>
       </c>
       <c r="Y381" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018  APT report</t>
+          <t>updated Jul 2018  APT report</t>
         </is>
       </c>
     </row>
@@ -16196,7 +16239,7 @@
       </c>
       <c r="Y382" s="0" t="inlineStr">
         <is>
-          <t>Karluk;updated Jan 2018;  CO2 from PCEStatistics from Alaska Energy Authority</t>
+          <t>Karluk;updated Jul 2018;  CO2 from PCEStatistics from Alaska Energy Authority</t>
         </is>
       </c>
     </row>
@@ -16222,26 +16265,26 @@
         <v>1</v>
       </c>
       <c r="I383" s="0">
-        <v>2.45600007474422E-02</v>
+        <v>4.23500016331673E-02</v>
       </c>
       <c r="K383" s="0">
         <v>1.10000002384186</v>
       </c>
       <c r="L383" s="0">
-        <v>44.1500015258789</v>
+        <v>92.6100006103516</v>
       </c>
       <c r="M383" s="0">
-        <v>23.2900009155273</v>
+        <v>44.5299987792969</v>
       </c>
       <c r="S383" s="0">
-        <v>6.62999972701073E-02</v>
+        <v>4.98000020161271E-03</v>
       </c>
       <c r="X383" s="0">
         <v>6.13900013267994E-02</v>
       </c>
       <c r="Y383" s="0" t="inlineStr">
         <is>
-          <t>Schedule 22 Rates from ML&amp;P website 7/2017; there is a MOA underground surcharge of 2% added to all published  charges; CO2 from Rail Belt average - any service with a demand exceeding 20 kW for 3 consecutive months and metered at secondary voltage</t>
+          <t>Schedule 22 Rates from ML&amp;P website 7/2018; there is a MOA underground surcharge of 2% added to all published  charges; CO2 from Rail Belt average - any service with a demand exceeding 20 kW for 3 consecutive months and metered at secondary voltage</t>
         </is>
       </c>
     </row>
@@ -16274,7 +16317,7 @@
       </c>
       <c r="Y384" s="0" t="inlineStr">
         <is>
-          <t>Atka; Now City oF Atka is utility; AEA report  updated Jan 2018 for residential; CO2 is estimated because of lack of data</t>
+          <t>Atka; Now City oF Atka is utility; AEA report  updated Jul 2018 for residential; CO2 is estimated because of lack of data</t>
         </is>
       </c>
     </row>
@@ -16303,11 +16346,11 @@
         <v>1.70000004768372</v>
       </c>
       <c r="S385" s="0">
-        <v>0.605300009250641</v>
+        <v>0.621699988842011</v>
       </c>
       <c r="Y385" s="0" t="inlineStr">
         <is>
-          <t>AIDA Report updated Jan 2018 for residential ; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AIDA Report updated July 2018 for residential ; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -16340,7 +16383,7 @@
       </c>
       <c r="Y386" s="0" t="inlineStr">
         <is>
-          <t>From AEA report  updated Jan 2018 for residential; CO2 from PCEStatistics</t>
+          <t>From AEA report  updated July 2018 for residential; CO2 from PCEStatistics</t>
         </is>
       </c>
     </row>
@@ -16376,7 +16419,7 @@
       </c>
       <c r="Y387" s="0" t="inlineStr">
         <is>
-          <t>From AEA  updated Jan 2018;  for residential ; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>From AEA  updated July 2018;  for residential ; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -16402,10 +16445,10 @@
         <v>0</v>
       </c>
       <c r="H388" s="0">
-        <v>0.178800001740456</v>
+        <v>1.71000007539988E-02</v>
       </c>
       <c r="I388" s="0">
-        <v>9.30000003427267E-03</v>
+        <v>0.177799999713898</v>
       </c>
       <c r="K388" s="0">
         <v>1.79999995231628</v>
@@ -16430,7 +16473,7 @@
       </c>
       <c r="Y388" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; purchased power adjustment is wind surcharge</t>
+          <t>AVEC Rate Schedule updated July 2018; purchased power adjustment is wind surcharge</t>
         </is>
       </c>
     </row>
@@ -16455,8 +16498,9 @@
       <c r="G389" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="H389" s="0">
-        <v>0.208700001239777</v>
+      <c r="H389" s="0"/>
+      <c r="I389" s="0">
+        <v>0.225099995732307</v>
       </c>
       <c r="K389" s="0">
         <v>1.79999995231628</v>
@@ -16481,7 +16525,7 @@
       </c>
       <c r="Y389" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Scheduleu pdated Jan 2018</t>
+          <t>AVEC Rate Scheduleu pdated July 2018</t>
         </is>
       </c>
     </row>
@@ -16506,8 +16550,9 @@
       <c r="G390" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="H390" s="0">
-        <v>0.230000004172325</v>
+      <c r="H390" s="0"/>
+      <c r="I390" s="0">
+        <v>0.234699994325638</v>
       </c>
       <c r="K390" s="0">
         <v>1.79999995231628</v>
@@ -16532,7 +16577,7 @@
       </c>
       <c r="Y390" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -16557,8 +16602,9 @@
       <c r="G391" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="H391" s="0">
-        <v>0.159899994730949</v>
+      <c r="H391" s="0"/>
+      <c r="I391" s="0">
+        <v>0.186700001358986</v>
       </c>
       <c r="K391" s="0">
         <v>1.79999995231628</v>
@@ -16583,7 +16629,7 @@
       </c>
       <c r="Y391" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -16609,10 +16655,10 @@
         <v>0</v>
       </c>
       <c r="H392" s="0">
-        <v>0.188999995589256</v>
+        <v>0.174700006842613</v>
       </c>
       <c r="I392" s="0">
-        <v>4.05000001192093E-02</v>
+        <v>3.13999988138676E-02</v>
       </c>
       <c r="K392" s="0">
         <v>1.79999995231628</v>
@@ -16637,7 +16683,7 @@
       </c>
       <c r="Y392" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; Purchased power is wind surcharge</t>
+          <t>AVEC Rate Schedule updated July 2018; Purchased power is wind surcharge</t>
         </is>
       </c>
     </row>
@@ -16663,7 +16709,7 @@
         <v>0</v>
       </c>
       <c r="H393" s="0">
-        <v>0.195999994874001</v>
+        <v>0.195299997925758</v>
       </c>
       <c r="K393" s="0">
         <v>1.79999995231628</v>
@@ -16688,7 +16734,7 @@
       </c>
       <c r="Y393" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -16714,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="H394" s="0">
-        <v>0.209999993443489</v>
+        <v>0.210899993777275</v>
       </c>
       <c r="K394" s="0">
         <v>1.79999995231628</v>
@@ -16739,7 +16785,7 @@
       </c>
       <c r="Y394" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -16765,10 +16811,10 @@
         <v>0</v>
       </c>
       <c r="H395" s="0">
-        <v>0.178800001740456</v>
+        <v>0.177799999713898</v>
       </c>
       <c r="I395" s="0">
-        <v>9.30000003427267E-03</v>
+        <v>1.71000007539988E-02</v>
       </c>
       <c r="K395" s="0">
         <v>1.79999995231628</v>
@@ -16793,7 +16839,7 @@
       </c>
       <c r="Y395" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge</t>
         </is>
       </c>
     </row>
@@ -16819,10 +16865,10 @@
         <v>0</v>
       </c>
       <c r="H396" s="0">
-        <v>0.186100006103516</v>
+        <v>0.171299993991852</v>
       </c>
       <c r="I396" s="0">
-        <v>3.15999984741211E-02</v>
+        <v>3.81000004708767E-02</v>
       </c>
       <c r="K396" s="0">
         <v>1.79999995231628</v>
@@ -16847,7 +16893,7 @@
       </c>
       <c r="Y396" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as purchased energy adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as purchased energy adjustment</t>
         </is>
       </c>
     </row>
@@ -16873,7 +16919,7 @@
         <v>0</v>
       </c>
       <c r="H397" s="0">
-        <v>0.183200001716614</v>
+        <v>0.198400005698204</v>
       </c>
       <c r="K397" s="0">
         <v>1.79999995231628</v>
@@ -16898,7 +16944,7 @@
       </c>
       <c r="Y397" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -16924,7 +16970,7 @@
         <v>0</v>
       </c>
       <c r="H398" s="0">
-        <v>0.207499995827675</v>
+        <v>0.211600005626678</v>
       </c>
       <c r="K398" s="0">
         <v>1.79999995231628</v>
@@ -16949,7 +16995,7 @@
       </c>
       <c r="Y398" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -16975,7 +17021,7 @@
         <v>0</v>
       </c>
       <c r="H399" s="0">
-        <v>0.19709999859333</v>
+        <v>0.198100000619888</v>
       </c>
       <c r="K399" s="0">
         <v>1.79999995231628</v>
@@ -17000,7 +17046,7 @@
       </c>
       <c r="Y399" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -17026,10 +17072,10 @@
         <v>0</v>
       </c>
       <c r="H400" s="0">
-        <v>0.182099997997284</v>
+        <v>0.163800001144409</v>
       </c>
       <c r="I400" s="0">
-        <v>1.68999992311001E-02</v>
+        <v>0.017400000244379</v>
       </c>
       <c r="K400" s="0">
         <v>1.79999995231628</v>
@@ -17054,7 +17100,7 @@
       </c>
       <c r="Y400" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as purchased energy adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as purchased energy adjustment</t>
         </is>
       </c>
     </row>
@@ -17080,7 +17126,7 @@
         <v>0</v>
       </c>
       <c r="H401" s="0">
-        <v>0.222299993038177</v>
+        <v>0.225600004196167</v>
       </c>
       <c r="K401" s="0">
         <v>1.79999995231628</v>
@@ -17105,7 +17151,7 @@
       </c>
       <c r="Y401" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -17131,7 +17177,7 @@
         <v>0</v>
       </c>
       <c r="H402" s="0">
-        <v>0.207100003957748</v>
+        <v>0.207900002598763</v>
       </c>
       <c r="K402" s="0">
         <v>1.79999995231628</v>
@@ -17156,7 +17202,7 @@
       </c>
       <c r="Y402" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -17182,10 +17228,10 @@
         <v>0</v>
       </c>
       <c r="H403" s="0">
-        <v>0.184900000691414</v>
+        <v>0.165800005197525</v>
       </c>
       <c r="I403" s="0">
-        <v>1.36000001803041E-02</v>
+        <v>2.06000003963709E-02</v>
       </c>
       <c r="K403" s="0">
         <v>1.79999995231628</v>
@@ -17210,7 +17256,7 @@
       </c>
       <c r="Y403" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as Purchased energy adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as Purchased energy adjustment</t>
         </is>
       </c>
     </row>
@@ -17236,7 +17282,7 @@
         <v>0</v>
       </c>
       <c r="H404" s="0">
-        <v>0.224299997091293</v>
+        <v>0.232099995017052</v>
       </c>
       <c r="K404" s="0">
         <v>1.79999995231628</v>
@@ -17261,7 +17307,7 @@
       </c>
       <c r="Y404" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -17287,7 +17333,7 @@
         <v>0</v>
       </c>
       <c r="H405" s="0">
-        <v>0.233700007200241</v>
+        <v>0.236200004816055</v>
       </c>
       <c r="K405" s="0">
         <v>1.79999995231628</v>
@@ -17312,7 +17358,7 @@
       </c>
       <c r="Y405" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -17338,7 +17384,7 @@
         <v>0</v>
       </c>
       <c r="H406" s="0">
-        <v>0.193900004029274</v>
+        <v>0.198300004005432</v>
       </c>
       <c r="K406" s="0">
         <v>1.79999995231628</v>
@@ -17363,7 +17409,7 @@
       </c>
       <c r="Y406" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -17389,7 +17435,7 @@
         <v>0</v>
       </c>
       <c r="H407" s="0">
-        <v>0.184900000691414</v>
+        <v>0.191100001335144</v>
       </c>
       <c r="K407" s="0">
         <v>1.79999995231628</v>
@@ -17414,7 +17460,7 @@
       </c>
       <c r="Y407" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -17440,7 +17486,7 @@
         <v>0</v>
       </c>
       <c r="H408" s="0">
-        <v>0.178100004792213</v>
+        <v>0.178399994969368</v>
       </c>
       <c r="K408" s="0">
         <v>1.79999995231628</v>
@@ -17465,7 +17511,7 @@
       </c>
       <c r="Y408" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -17491,10 +17537,10 @@
         <v>0</v>
       </c>
       <c r="H409" s="0">
-        <v>0.205099999904633</v>
+        <v>0.186299994587898</v>
       </c>
       <c r="I409" s="0">
-        <v>0.025000000372529</v>
+        <v>1.60000007599592E-02</v>
       </c>
       <c r="K409" s="0">
         <v>1.79999995231628</v>
@@ -17519,7 +17565,7 @@
       </c>
       <c r="Y409" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as purchased energy adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as purchased energy adjustment</t>
         </is>
       </c>
     </row>
@@ -17545,7 +17591,7 @@
         <v>0</v>
       </c>
       <c r="H410" s="0">
-        <v>0.190799996256828</v>
+        <v>0.180000007152557</v>
       </c>
       <c r="K410" s="0">
         <v>1.79999995231628</v>
@@ -17570,7 +17616,7 @@
       </c>
       <c r="Y410" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -17596,7 +17642,7 @@
         <v>0</v>
       </c>
       <c r="H411" s="0">
-        <v>0.172999992966652</v>
+        <v>0.18469999730587</v>
       </c>
       <c r="K411" s="0">
         <v>1.79999995231628</v>
@@ -17621,7 +17667,7 @@
       </c>
       <c r="Y411" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -17647,7 +17693,7 @@
         <v>0</v>
       </c>
       <c r="H412" s="0">
-        <v>0.251199990510941</v>
+        <v>0.245399996638298</v>
       </c>
       <c r="K412" s="0">
         <v>1.79999995231628</v>
@@ -17672,7 +17718,7 @@
       </c>
       <c r="Y412" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -17698,7 +17744,10 @@
         <v>0</v>
       </c>
       <c r="H413" s="0">
-        <v>0.170399993658066</v>
+        <v>0.164199993014336</v>
+      </c>
+      <c r="I413" s="0">
+        <v>2.10999995470047E-02</v>
       </c>
       <c r="K413" s="0">
         <v>1.79999995231628</v>
@@ -17723,7 +17772,7 @@
       </c>
       <c r="Y413" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018, wind surcharge included as purchased energy adjustment; see Toksook Bay on AVEC schedule</t>
+          <t>AVEC Rate Schedule updated July 2018, wind surcharge included as purchased energy adjustment; see Toksook Bay on AVEC schedule</t>
         </is>
       </c>
     </row>
@@ -17749,7 +17798,7 @@
         <v>0</v>
       </c>
       <c r="H414" s="0">
-        <v>0.441500008106232</v>
+        <v>0.476900011301041</v>
       </c>
       <c r="K414" s="0">
         <v>1.79999995231628</v>
@@ -17774,7 +17823,7 @@
       </c>
       <c r="Y414" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -17800,7 +17849,7 @@
         <v>0</v>
       </c>
       <c r="H415" s="0">
-        <v>0.18529999256134</v>
+        <v>0.199499994516373</v>
       </c>
       <c r="K415" s="0">
         <v>1.79999995231628</v>
@@ -17825,7 +17874,7 @@
       </c>
       <c r="Y415" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -17851,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="H416" s="0">
-        <v>0.212999999523163</v>
+        <v>0.206400007009506</v>
       </c>
       <c r="K416" s="0">
         <v>1.79999995231628</v>
@@ -17876,7 +17925,7 @@
       </c>
       <c r="Y416" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -17902,10 +17951,10 @@
         <v>0</v>
       </c>
       <c r="H417" s="0">
-        <v>0.184900000691414</v>
+        <v>0.165800005197525</v>
       </c>
       <c r="I417" s="0">
-        <v>1.36000001803041E-02</v>
+        <v>2.06000003963709E-02</v>
       </c>
       <c r="K417" s="0">
         <v>1.79999995231628</v>
@@ -17930,7 +17979,7 @@
       </c>
       <c r="Y417" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as purchased energy adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as purchased energy adjustment</t>
         </is>
       </c>
     </row>
@@ -17956,7 +18005,7 @@
         <v>0</v>
       </c>
       <c r="H418" s="0">
-        <v>0.199200004339218</v>
+        <v>0.238499999046326</v>
       </c>
       <c r="K418" s="0">
         <v>1.79999995231628</v>
@@ -17981,7 +18030,7 @@
       </c>
       <c r="Y418" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -18007,7 +18056,7 @@
         <v>0</v>
       </c>
       <c r="H419" s="0">
-        <v>0.219799995422363</v>
+        <v>0.214000001549721</v>
       </c>
       <c r="K419" s="0">
         <v>1.79999995231628</v>
@@ -18032,7 +18081,7 @@
       </c>
       <c r="Y419" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -18058,7 +18107,10 @@
         <v>0</v>
       </c>
       <c r="H420" s="0">
-        <v>0.167899996042252</v>
+        <v>0.160099998116493</v>
+      </c>
+      <c r="I420" s="0">
+        <v>3.46000008285046E-02</v>
       </c>
       <c r="K420" s="0">
         <v>1.79999995231628</v>
@@ -18083,7 +18135,7 @@
       </c>
       <c r="Y420" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge</t>
         </is>
       </c>
     </row>
@@ -18109,7 +18161,7 @@
         <v>0</v>
       </c>
       <c r="H421" s="0">
-        <v>0.210199996829033</v>
+        <v>0.212799996137619</v>
       </c>
       <c r="K421" s="0">
         <v>1.79999995231628</v>
@@ -18134,7 +18186,7 @@
       </c>
       <c r="Y421" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -18160,10 +18212,10 @@
         <v>0</v>
       </c>
       <c r="H422" s="0">
-        <v>0.180000007152557</v>
+        <v>0.181799992918968</v>
       </c>
       <c r="I422" s="0">
-        <v>1.29000004380941E-02</v>
+        <v>8.10000021010637E-03</v>
       </c>
       <c r="K422" s="0">
         <v>1.79999995231628</v>
@@ -18188,7 +18240,7 @@
       </c>
       <c r="Y422" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surchargeas purchased power adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surchargeas purchased power adjustment</t>
         </is>
       </c>
     </row>
@@ -18214,7 +18266,7 @@
         <v>0</v>
       </c>
       <c r="H423" s="0">
-        <v>0.189999997615814</v>
+        <v>0.196799993515015</v>
       </c>
       <c r="K423" s="0">
         <v>1.79999995231628</v>
@@ -18239,7 +18291,7 @@
       </c>
       <c r="Y423" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018;</t>
+          <t>AVEC Rate Schedule updated July 2018;</t>
         </is>
       </c>
     </row>
@@ -18265,7 +18317,10 @@
         <v>0</v>
       </c>
       <c r="H424" s="0">
-        <v>0.198500007390976</v>
+        <v>0.205699995160103</v>
+      </c>
+      <c r="I424" s="0">
+        <v>2.40000011399388E-03</v>
       </c>
       <c r="K424" s="0">
         <v>1.79999995231628</v>
@@ -18290,7 +18345,7 @@
       </c>
       <c r="Y424" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as purchased power adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as purchased power adjustment</t>
         </is>
       </c>
     </row>
@@ -18341,7 +18396,7 @@
       </c>
       <c r="Y425" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -18367,10 +18422,10 @@
         <v>0</v>
       </c>
       <c r="H426" s="0">
-        <v>0.158700004220009</v>
+        <v>0.159999996423721</v>
       </c>
       <c r="I426" s="0">
-        <v>3.42999994754791E-02</v>
+        <v>4.47999984025955E-02</v>
       </c>
       <c r="K426" s="0">
         <v>1.79999995231628</v>
@@ -18395,7 +18450,7 @@
       </c>
       <c r="Y426" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as power cost adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as power cost adjustment</t>
         </is>
       </c>
     </row>
@@ -18421,7 +18476,7 @@
         <v>0</v>
       </c>
       <c r="H427" s="0">
-        <v>0.198899999260902</v>
+        <v>0.215200006961823</v>
       </c>
       <c r="K427" s="0">
         <v>1.79999995231628</v>
@@ -18446,7 +18501,7 @@
       </c>
       <c r="Y427" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -18472,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="H428" s="0">
-        <v>0.245399996638298</v>
+        <v>0.359100013971329</v>
       </c>
       <c r="K428" s="0">
         <v>1.79999995231628</v>
@@ -18497,7 +18552,7 @@
       </c>
       <c r="Y428" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -18523,7 +18578,7 @@
         <v>0</v>
       </c>
       <c r="H429" s="0">
-        <v>0.194600000977516</v>
+        <v>0.202600002288818</v>
       </c>
       <c r="K429" s="0">
         <v>1.79999995231628</v>
@@ -18548,7 +18603,7 @@
       </c>
       <c r="Y429" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -18574,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="H430" s="0">
-        <v>0.182899996638298</v>
+        <v>0.187099993228912</v>
       </c>
       <c r="K430" s="0">
         <v>1.79999995231628</v>
@@ -18599,7 +18654,7 @@
       </c>
       <c r="Y430" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -18625,7 +18680,7 @@
         <v>0</v>
       </c>
       <c r="H431" s="0">
-        <v>0.182899996638298</v>
+        <v>0.187099993228912</v>
       </c>
       <c r="K431" s="0">
         <v>1.79999995231628</v>
@@ -18650,7 +18705,7 @@
       </c>
       <c r="Y431" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -18676,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H432" s="0">
-        <v>0.186199992895126</v>
+        <v>0.233300000429153</v>
       </c>
       <c r="K432" s="0">
         <v>1.79999995231628</v>
@@ -18701,7 +18756,7 @@
       </c>
       <c r="Y432" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -18727,7 +18782,7 @@
         <v>0</v>
       </c>
       <c r="H433" s="0">
-        <v>0.203099995851517</v>
+        <v>0.200900003314018</v>
       </c>
       <c r="K433" s="0">
         <v>1.79999995231628</v>
@@ -18752,7 +18807,7 @@
       </c>
       <c r="Y433" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -18778,10 +18833,10 @@
         <v>0</v>
       </c>
       <c r="H434" s="0">
-        <v>0.170399993658066</v>
+        <v>0.164199993014336</v>
       </c>
       <c r="I434" s="0">
-        <v>2.30000000447035E-02</v>
+        <v>2.10999995470047E-02</v>
       </c>
       <c r="K434" s="0">
         <v>1.79999995231628</v>
@@ -18806,7 +18861,7 @@
       </c>
       <c r="Y434" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as purchased energy adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as purchased energy adjustment</t>
         </is>
       </c>
     </row>
@@ -18832,7 +18887,10 @@
         <v>0</v>
       </c>
       <c r="H435" s="0">
-        <v>0.170399993658066</v>
+        <v>0.164199993014336</v>
+      </c>
+      <c r="I435" s="0">
+        <v>2.10999995470047E-02</v>
       </c>
       <c r="K435" s="0">
         <v>1.79999995231628</v>
@@ -18857,7 +18915,7 @@
       </c>
       <c r="Y435" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018; includes wind surcharge as purchased energy adjustment</t>
+          <t>AVEC Rate Schedule updated July 2018; includes wind surcharge as purchased energy adjustment</t>
         </is>
       </c>
     </row>
@@ -18883,7 +18941,7 @@
         <v>0</v>
       </c>
       <c r="H436" s="0">
-        <v>0.246700003743172</v>
+        <v>0.246199995279312</v>
       </c>
       <c r="K436" s="0">
         <v>1.79999995231628</v>
@@ -18908,7 +18966,7 @@
       </c>
       <c r="Y436" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -18937,14 +18995,14 @@
         <v>1.32000005245209</v>
       </c>
       <c r="L437" s="0">
-        <v>15.1499996185303</v>
+        <v>20</v>
       </c>
       <c r="S437" s="0">
-        <v>0.119499996304512</v>
+        <v>0.122500002384186</v>
       </c>
       <c r="Y437" s="0" t="inlineStr">
         <is>
-          <t>7/2017 for Residential and Commercial Single Phase; Schedule A</t>
+          <t>7/2018 for Residential and Commercial Single Phase; Schedule A</t>
         </is>
       </c>
     </row>
@@ -18983,7 +19041,7 @@
       </c>
       <c r="Y438" s="0" t="inlineStr">
         <is>
-          <t>7/2017</t>
+          <t>7/2018</t>
         </is>
       </c>
     </row>
@@ -19019,7 +19077,7 @@
       </c>
       <c r="Y439" s="0" t="inlineStr">
         <is>
-          <t>AEA report updated Jan 2018; CO2 from FY92</t>
+          <t>AEA report updated Jul 2018; CO2 from FY92</t>
         </is>
       </c>
     </row>
@@ -19045,7 +19103,7 @@
         <v>1</v>
       </c>
       <c r="H440" s="0">
-        <v>0.241600006818771</v>
+        <v>0.247899994254112</v>
       </c>
       <c r="K440" s="0">
         <v>1.5</v>
@@ -19061,7 +19119,7 @@
       </c>
       <c r="Y440" s="0" t="inlineStr">
         <is>
-          <t>AVEC took over Bethel Utilities in May 2014;  updated Jan 2018</t>
+          <t>AVEC took over Bethel Utilities in May 2014;  updated July 2018</t>
         </is>
       </c>
     </row>
@@ -19096,11 +19154,11 @@
         <v>43.1800003051758</v>
       </c>
       <c r="S441" s="0">
-        <v>0.629999995231628</v>
+        <v>0.709999978542328</v>
       </c>
       <c r="Y441" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated Jul 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -19198,11 +19256,11 @@
         <v>0</v>
       </c>
       <c r="S444" s="0">
-        <v>0.60180002450943</v>
+        <v>0.6875</v>
       </c>
       <c r="Y444" s="0" t="inlineStr">
         <is>
-          <t>AEA for residential updated Jan 2018; Now called Gold Country Energy;  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA for residential updated July 2018; Now called Gold Country Energy;  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -19235,7 +19293,7 @@
       </c>
       <c r="Y445" s="0" t="inlineStr">
         <is>
-          <t>AEA updated Jan 2018; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA updated July 2018; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -19268,7 +19326,7 @@
       </c>
       <c r="Y446" s="0" t="inlineStr">
         <is>
-          <t>AEA updated Jan 20187for residential; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA updated July 20187for residential; CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -19304,7 +19362,7 @@
       </c>
       <c r="Y447" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 AEA</t>
+          <t>updated July 2018 AEA</t>
         </is>
       </c>
     </row>
@@ -19336,11 +19394,11 @@
         <v>0</v>
       </c>
       <c r="S448" s="0">
-        <v>0.430999994277954</v>
+        <v>0.416000008583069</v>
       </c>
       <c r="Y448" s="0" t="inlineStr">
         <is>
-          <t>AEA updated Jan 2018 for residential;</t>
+          <t>updated July 2018 AEA</t>
         </is>
       </c>
     </row>
@@ -19375,11 +19433,11 @@
         <v>43.1800003051758</v>
       </c>
       <c r="S449" s="0">
-        <v>0.560000002384186</v>
+        <v>0.629999995231628</v>
       </c>
       <c r="Y449" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 APT report</t>
+          <t>updated Jul 2018 APT report</t>
         </is>
       </c>
     </row>
@@ -19415,7 +19473,7 @@
       </c>
       <c r="Y450" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018  AEA report</t>
+          <t>updated July 2018  AEA report</t>
         </is>
       </c>
     </row>
@@ -19441,10 +19499,10 @@
         <v>1</v>
       </c>
       <c r="H451" s="0">
-        <v>6.22499994933605E-02</v>
+        <v>4.95500005781651E-02</v>
       </c>
       <c r="I451" s="0">
-        <v>6.22999994084239E-03</v>
+        <v>1.87256000936031E-02</v>
       </c>
       <c r="K451" s="0">
         <v>1.10000002384186</v>
@@ -19453,17 +19511,17 @@
         <v>55</v>
       </c>
       <c r="M451" s="0">
-        <v>19.0400009155273</v>
+        <v>19.1800003051758</v>
       </c>
       <c r="S451" s="0">
-        <v>4.14099991321564E-02</v>
+        <v>4.16899994015694E-02</v>
       </c>
       <c r="X451" s="0">
         <v>4.30000014603138E-02</v>
       </c>
       <c r="Y451" s="0" t="inlineStr">
         <is>
-          <t>Commercial Large Secondary Service; Rates updated Jan 2018 from Chugach website: rates in effect for Anchorage, Hope, Moose Pass Whittier, Girdwood;  Purchased power ncludes both purchased power and Fire island Wind Renewable Energy Adjustment; gross revenue tax of $.0005 is added to fuel surcharge as well</t>
+          <t>Commercial Large Secondary Service; Rates updated July 2018 from Chugach website: rates in effect for Anchorage, Hope, Moose Pass Whittier, Girdwood;  Purchased power includes both purchased power and Fire island Wind Renewable Energy Adjustment; gross revenue tax of $.0005 is added to fuel surcharge as well</t>
         </is>
       </c>
     </row>
@@ -19492,11 +19550,11 @@
         <v>1.79999995231628</v>
       </c>
       <c r="S452" s="0">
-        <v>0.719600021839142</v>
+        <v>0.740000009536743</v>
       </c>
       <c r="Y452" s="0" t="inlineStr">
         <is>
-          <t>AEA for residential rates updated Jan 2018</t>
+          <t>AEA for residential rates updated Jul 2018</t>
         </is>
       </c>
     </row>
@@ -19561,7 +19619,7 @@
         <v>0</v>
       </c>
       <c r="H454" s="0">
-        <v>0.171000003814697</v>
+        <v>0.206400007009506</v>
       </c>
       <c r="K454" s="0">
         <v>1.60000002384186</v>
@@ -19612,7 +19670,7 @@
         <v>0</v>
       </c>
       <c r="H455" s="0">
-        <v>0.171000003814697</v>
+        <v>0.206400007009506</v>
       </c>
       <c r="K455" s="0">
         <v>1.60000002384186</v>
@@ -19637,7 +19695,7 @@
       </c>
       <c r="Y455" s="0" t="inlineStr">
         <is>
-          <t>Valdez; 7/2017 website ;  Fuel surcharge here includes twelve month average of fuel charge plus generation and transmission minus heat revenue credit. This breakdown was instituted in June 2012.  CO2 from combination of Glennallen and Valdez and Solomon Gulch generation.</t>
+          <t>Valdez; 7/2018 website ;  Fuel surcharge here includes twelve month average of fuel charge plus generation and transmission minus heat revenue credit. This breakdown was instituted in June 2012.  CO2 from combination of Glennallen and Valdez and Solomon Gulch generation.</t>
         </is>
       </c>
     </row>
@@ -19688,7 +19746,7 @@
       </c>
       <c r="Y456" s="0" t="inlineStr">
         <is>
-          <t>Cordova Electric schedule effective 3/2015 still in effect updated Jan 2018</t>
+          <t>Cordova Electric schedule effective 3/2015 still in effect July 2018</t>
         </is>
       </c>
     </row>
@@ -19727,7 +19785,7 @@
       </c>
       <c r="Y457" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018  APT report - rate quoted in report includes COPA and RCC so RCC charge is dropped here.</t>
+          <t>updated Jul 2018  APT report - rate quoted in report includes COPA and RCC so RCC charge is dropped here.</t>
         </is>
       </c>
     </row>
@@ -19763,7 +19821,7 @@
       </c>
       <c r="Y458" s="0" t="inlineStr">
         <is>
-          <t>AEIDC for residential updated Jan 2018;  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEIDC for residential updated July 2018;  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -19798,11 +19856,11 @@
         <v>10.8299999237061</v>
       </c>
       <c r="S459" s="0">
-        <v>0.300000011920929</v>
+        <v>0.379999995231628</v>
       </c>
       <c r="Y459" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 APT report - rate quoted in report includes COPA and RCC so RCC charge is dropped here.</t>
+          <t>updated Jul 2018 APT report - rate quoted in report includes COPA and RCC so RCC charge is dropped here.</t>
         </is>
       </c>
     </row>
@@ -19837,15 +19895,16 @@
         <v>43.1800003051758</v>
       </c>
       <c r="S460" s="0">
-        <v>0.600000023841858</v>
+        <v>0.639999985694885</v>
       </c>
       <c r="Y460" s="0" t="inlineStr">
         <is>
-          <t>APT updated Jan 2018; COPA and RCC is included in base rate._x000d_
+          <t>APT updated Jul 2018; COPA and RCC is included in base rate          _x000d_
+_x000d_
 A3 Bulk Power Rates for Large Customers_x000d_
 (a)	The customer consumes more than 7,500 kwh per month for three consecutive months and/or;_x000d_
 (b)	The customer registers a recorded peak demand of 20 kw or more for three consecutive months._x000d_
-	The customer purchases a minimum of 250,000 kwh of energy within the proceeding 12 months.</t>
+©	The customer purchases a minimum of 250,000 kwh of energy within the proceeding 12 months</t>
         </is>
       </c>
     </row>
@@ -19881,7 +19940,7 @@
       </c>
       <c r="Y461" s="0" t="inlineStr">
         <is>
-          <t>AEA updated Jan 2018 for residential;  -  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA updated July 2018 for residential;  -  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -19907,7 +19966,7 @@
         <v>0</v>
       </c>
       <c r="H462" s="0">
-        <v>0.251199990510941</v>
+        <v>0.245399996638298</v>
       </c>
       <c r="K462" s="0">
         <v>2.90000009536743</v>
@@ -19932,7 +19991,7 @@
       </c>
       <c r="Y462" s="0" t="inlineStr">
         <is>
-          <t>AVECupdated Jan 2018; In 2012 was first listed as AVEC</t>
+          <t>AVECupdated July 2018; In 2012 was first listed as AVEC</t>
         </is>
       </c>
     </row>
@@ -19965,7 +20024,7 @@
       </c>
       <c r="Y463" s="0" t="inlineStr">
         <is>
-          <t>AEA updated Jan 2018 for residential;  -  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA updated July 2018 for residential;  -  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -19991,17 +20050,17 @@
         <v>1</v>
       </c>
       <c r="H464" s="0">
-        <v>0.824159979820251</v>
+        <v>0.791960000991821</v>
       </c>
       <c r="L464" s="0">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="S464" s="0">
-        <v>9.64000001549721E-02</v>
+        <v>0.093079999089241</v>
       </c>
       <c r="Y464" s="0" t="inlineStr">
         <is>
-          <t>Rates are  from Enstar Website effective updated Jan 2018; CO2 is lbs/therm (12.1) estimated from ACE3 figures;  Fuel Surcharge is actually Gas Cost Adjustment which is the figure ENSTAR changes each January; RCC of .223% .  This  rate is for customers throughout the service area - Anchorage, Big Lake, Chugiak-EagleRiver Eklutna, Girdwood, Houston, Indian, Kenai, Knik, Nikiski, Palmer, Peters Creek Portage, Sterling, Soldotna, Wasilla,Whittier</t>
+          <t>Rates are  from Enstar Website effective updated Jul 2018; CO2 is lbs/therm (12.1) estimated from ACE3 figures;  Fuel Surcharge is actually Gas Cost Adjustment which is the figure ENSTAR changes each January; RCC of .223% .  This  rate is for customers throughout the service area - Anchorage, Big Lake, Chugiak-EagleRiver Eklutna, Girdwood, Houston, Indian, Kenai, Knik, Nikiski, Palmer, Peters Creek Portage, Sterling, Soldotna, Wasilla,Whittier</t>
         </is>
       </c>
     </row>
@@ -20036,11 +20095,11 @@
         <v>43.1800003051758</v>
       </c>
       <c r="S465" s="0">
-        <v>0.629999995231628</v>
+        <v>0.709999978542328</v>
       </c>
       <c r="Y465" s="0" t="inlineStr">
         <is>
-          <t> same as Bettles  updated Jan 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t> same as Bettles  updated Jul 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -20102,11 +20161,11 @@
         <v>2.79999995231628</v>
       </c>
       <c r="S467" s="0">
-        <v>0.445600003004074</v>
+        <v>0.433299988508224</v>
       </c>
       <c r="Y467" s="0" t="inlineStr">
         <is>
-          <t>AEA updated Jan 2018;  -  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA updated Feb 2018;  -  CO2 from PCEStatistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -20141,11 +20200,11 @@
         <v>7.05000019073486</v>
       </c>
       <c r="S468" s="0">
-        <v>0.664399981498718</v>
+        <v>0.665300011634827</v>
       </c>
       <c r="Y468" s="0" t="inlineStr">
         <is>
-          <t>Cold Bay; AEA updated Jan 2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Cold Bay; AEA updated Jul 2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -20181,7 +20240,7 @@
       </c>
       <c r="Y469" s="0" t="inlineStr">
         <is>
-          <t>AEA for residential  updated Jan 2018</t>
+          <t>AEA for residential  updated July 2018</t>
         </is>
       </c>
     </row>
@@ -20207,7 +20266,7 @@
         <v>1</v>
       </c>
       <c r="H470" s="0">
-        <v>9.46699976921082E-02</v>
+        <v>0.110710002481937</v>
       </c>
       <c r="K470" s="0">
         <v>2.27999997138977</v>
@@ -20226,7 +20285,7 @@
       </c>
       <c r="Y470" s="0" t="inlineStr">
         <is>
-          <t>Rates from 11/2017; Fuel and Purchased Power Charges are combined under Fuel Surcharge            CO2 is based on addition of hydro from Bradley Lake (without hydro = 2.8)</t>
+          <t>Rates from 7/1/18; Fuel and Purchased Power Charges are combined under Fuel Surcharge            CO2 is based on addition of hydro from Bradley Lake (without hydro = 2.8)</t>
         </is>
       </c>
     </row>
@@ -20259,7 +20318,7 @@
       </c>
       <c r="Y471" s="0" t="inlineStr">
         <is>
-          <t>from AEA updated Jan 2018 for residential</t>
+          <t>from AEA updated July 2018 for residential</t>
         </is>
       </c>
     </row>
@@ -20400,7 +20459,7 @@
       </c>
       <c r="Y474" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated Jul 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -20439,7 +20498,7 @@
       </c>
       <c r="Y475" s="0" t="inlineStr">
         <is>
-          <t>from 7/2017 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here  No reported large commercial service on 1/2017</t>
+          <t>from 7/2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here  No reported large commercial service on 1/2017</t>
         </is>
       </c>
     </row>
@@ -20478,7 +20537,7 @@
       </c>
       <c r="Y476" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated Jul  2018APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -20504,7 +20563,7 @@
         <v>1</v>
       </c>
       <c r="I477" s="0">
-        <v>7.07700029015541E-02</v>
+        <v>7.27000012993813E-02</v>
       </c>
       <c r="K477" s="0">
         <v>1.10000002384186</v>
@@ -20523,7 +20582,7 @@
       </c>
       <c r="Y477" s="0" t="inlineStr">
         <is>
-          <t>rates updated Jan 2018;  new rate structure; rates same for all communities served; minimum charge required ($19.30) isn't included here</t>
+          <t>rates updated July 2018;  new rate structure; rates same for all communities served; minimum charge required ($23.21) isn't included here</t>
         </is>
       </c>
     </row>
@@ -20643,7 +20702,7 @@
       </c>
       <c r="Y480" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated Jul 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -20675,11 +20734,11 @@
         <v>5</v>
       </c>
       <c r="S481" s="0">
-        <v>0.908999979496002</v>
+        <v>0.919000029563904</v>
       </c>
       <c r="Y481" s="0" t="inlineStr">
         <is>
-          <t>AEA updated Jan 2018for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA updated July 2018for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -20759,14 +20818,14 @@
         <v>10</v>
       </c>
       <c r="M483" s="0">
-        <v>13.3800001144409</v>
+        <v>13.6499996185303</v>
       </c>
       <c r="S483" s="0">
-        <v>0.592100024223328</v>
+        <v>0.604099988937378</v>
       </c>
       <c r="Y483" s="0" t="inlineStr">
         <is>
-          <t>Angoon, Hoonah, Kake, Kasaan, Klawock; 1/2018 , CO2 from average of all THREA generating plants from Alaska Energy Authority (DCRA); changed from THREA  to Inside Passage Electric in 2001</t>
+          <t>Angoon, Hoonah, Kake, Kasaan, Klawock; 7/2018 , CO2 from average of all THREA generating plants from Alaska Energy Authority (DCRA); changed from THREA  to Inside Passage Electric in 2001</t>
         </is>
       </c>
     </row>
@@ -20802,7 +20861,7 @@
       </c>
       <c r="Y484" s="0" t="inlineStr">
         <is>
-          <t>Deering; updated Jan 2018 for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Deering; updated July 2018 for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -20841,7 +20900,7 @@
       </c>
       <c r="Y485" s="0" t="inlineStr">
         <is>
-          <t>Thorne Bay: updated Jan 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>Thorne Bay: updated Jul 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -20879,11 +20938,11 @@
         <v>3.05999994277954</v>
       </c>
       <c r="S486" s="0">
-        <v>0.094200000166893</v>
+        <v>9.88999977707863E-02</v>
       </c>
       <c r="Y486" s="0" t="inlineStr">
         <is>
-          <t>From data sheet supplied by utility   7/2017 ; CO2 rate includes hydro from Ketchikan and Swan Lake      Customer Charge is $36.30 paid only April thru October so here it is allocated over whole year.</t>
+          <t>From data sheet supplied by utility   7/2018 ; CO2 rate includes hydro from Ketchikan and Swan Lake      Customer Charge is $36.30 paid only April thru October so here it is allocated over whole year.</t>
         </is>
       </c>
     </row>
@@ -20919,7 +20978,7 @@
       </c>
       <c r="Y487" s="0" t="inlineStr">
         <is>
-          <t>7/2017 for residential; ; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>7/2018 for residential; ; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -20948,11 +21007,11 @@
         <v>1.79999995231628</v>
       </c>
       <c r="S488" s="0">
-        <v>0.329699993133545</v>
+        <v>0.4341000020504</v>
       </c>
       <c r="Y488" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>updated July 2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -20991,7 +21050,7 @@
       </c>
       <c r="Y489" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated Jul 2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -21017,7 +21076,7 @@
         <v>0</v>
       </c>
       <c r="H490" s="0">
-        <v>0.240700006484985</v>
+        <v>0.359100013971329</v>
       </c>
       <c r="K490" s="0">
         <v>2.20000004768372</v>
@@ -21039,7 +21098,7 @@
       </c>
       <c r="Y490" s="0" t="inlineStr">
         <is>
-          <t>AVEC for Shungnak 7/2017</t>
+          <t>AVEC for Shungnak 7/2018</t>
         </is>
       </c>
     </row>
@@ -21065,7 +21124,7 @@
         <v>0</v>
       </c>
       <c r="I491" s="0">
-        <v>1.96940004825592E-02</v>
+        <v>2.65200007706881E-02</v>
       </c>
       <c r="K491" s="0">
         <v>0.270000010728836</v>
@@ -21087,7 +21146,7 @@
       </c>
       <c r="Y491" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 rate schedule; CO2 includes hydro from Terror Lake and oil from Kodiak; Kodiak, Port Lions</t>
+          <t>updated July 2018 rate schedule; CO2 includes hydro from Terror Lake and oil from Kodiak; Kodiak, Port Lions</t>
         </is>
       </c>
     </row>
@@ -21123,7 +21182,7 @@
       </c>
       <c r="Y492" s="0" t="inlineStr">
         <is>
-          <t>AEA  updated Jan 2018 for residential_x000d_
+          <t>AEA  updated July 2018 for residential_x000d_
 This is an unregulated utility</t>
         </is>
       </c>
@@ -21160,7 +21219,7 @@
       </c>
       <c r="Y493" s="0" t="inlineStr">
         <is>
-          <t>AIDEA database updated Jan 2018 for residential; CO2 estimated because of lack of data from PCEStatistics from Alaska Energy Authority (DCRA).</t>
+          <t>AIDEA database updated July 2018 for residential; CO2 estimated because of lack of data from PCEStatistics from Alaska Energy Authority (DCRA).</t>
         </is>
       </c>
     </row>
@@ -21186,7 +21245,7 @@
         <v>0</v>
       </c>
       <c r="H494" s="0">
-        <v>0.194100007414818</v>
+        <v>0.207000002264977</v>
       </c>
       <c r="K494" s="0">
         <v>2.90000009536743</v>
@@ -21211,7 +21270,7 @@
       </c>
       <c r="Y494" s="0" t="inlineStr">
         <is>
-          <t>AVEC Rate Schedule updated Jan 2018</t>
+          <t>AVEC Rate Schedule updated July 2018</t>
         </is>
       </c>
     </row>
@@ -21286,7 +21345,7 @@
       </c>
       <c r="Y496" s="0" t="inlineStr">
         <is>
-          <t>AEA for residential, 1/2018; CO2 estimated because of lack of data</t>
+          <t>AEA for residential, 7/2018; CO2 estimated because of lack of data</t>
         </is>
       </c>
     </row>
@@ -21319,7 +21378,7 @@
       </c>
       <c r="Y497" s="0" t="inlineStr">
         <is>
-          <t>Kwethluk; AEIdC database updated Jan 2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Kwethluk; AEIdC database updated 5/ 2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -21352,7 +21411,7 @@
       </c>
       <c r="Y498" s="0" t="inlineStr">
         <is>
-          <t>AEA for residential - updated Jan 2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA for residential - updated 2/ 2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -21388,7 +21447,7 @@
       </c>
       <c r="Y499" s="0" t="inlineStr">
         <is>
-          <t>AEA database  for residential updated Jan 2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA) 1995</t>
+          <t>AEA database  for residential updated 4/ 2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA) 1995</t>
         </is>
       </c>
     </row>
@@ -21424,7 +21483,7 @@
       </c>
       <c r="Y500" s="0" t="inlineStr">
         <is>
-          <t>AEA database  for residential 1/2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA) 1995</t>
+          <t>AEA database  for residential updated 4/ 2018;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA) 1995</t>
         </is>
       </c>
     </row>
@@ -21456,11 +21515,11 @@
         <v>0</v>
       </c>
       <c r="S501" s="0">
-        <v>1.74479997158051</v>
+        <v>1.77479994297028</v>
       </c>
       <c r="Y501" s="0" t="inlineStr">
         <is>
-          <t>From AEA updated Jan 2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>From AEA updated 2/ 2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -21496,7 +21555,7 @@
       </c>
       <c r="Y502" s="0" t="inlineStr">
         <is>
-          <t>AEA database for residential - updted 1/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database for residential - updated 3/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -21528,11 +21587,11 @@
         <v>20</v>
       </c>
       <c r="S503" s="0">
-        <v>0.85479998588562</v>
+        <v>0.966799974441528</v>
       </c>
       <c r="Y503" s="0" t="inlineStr">
         <is>
-          <t>AEA database for residential - updated 1/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database for residential - updated 3/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -21561,7 +21620,7 @@
         <v>0</v>
       </c>
       <c r="I504" s="0">
-        <v>7.96099975705147E-02</v>
+        <v>7.53199979662895E-02</v>
       </c>
       <c r="K504" s="0">
         <v>1.10000002384186</v>
@@ -21570,17 +21629,17 @@
         <v>30</v>
       </c>
       <c r="M504" s="0">
-        <v>7.05999994277954</v>
+        <v>7.23000001907349</v>
       </c>
       <c r="S504" s="0">
-        <v>7.81899988651276E-02</v>
+        <v>8.00699964165688E-02</v>
       </c>
       <c r="X504" s="0">
         <v>7.15999975800514E-02</v>
       </c>
       <c r="Y504" s="0" t="inlineStr">
         <is>
-          <t>rates from MEA updated 1/2018  for 3 phase charges ;includes Eagle River, Chugiak, Palmer, Talkeetna, Wasilla, Willow;   there are sales tax charges in Palmer(3%), Wasilla (2.5%)and Houston (2%) and area within the Municipality of Anchorage has undergrounding surcharge of 2%</t>
+          <t>rates from MEA updated 7/2018  for 3 phase charges ;includes Eagle River, Chugiak, Palmer, Talkeetna, Wasilla, Willow;   there are sales tax charges in Palmer(3%), Wasilla (2.5%)and Houston (2%) and area within the Municipality of Anchorage has undergrounding surcharge of 2%</t>
         </is>
       </c>
     </row>
@@ -21608,12 +21667,15 @@
       <c r="K505" s="0">
         <v>1.70000004768372</v>
       </c>
+      <c r="L505" s="0">
+        <v>20</v>
+      </c>
       <c r="S505" s="0">
-        <v>0.742999970912933</v>
+        <v>0.566799998283386</v>
       </c>
       <c r="Y505" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018 residential;CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 8/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -21648,11 +21710,11 @@
         <v>43.1800003051758</v>
       </c>
       <c r="S506" s="0">
-        <v>0.560000002384186</v>
+        <v>0.629999995231628</v>
       </c>
       <c r="Y506" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -21711,7 +21773,7 @@
         <v>1</v>
       </c>
       <c r="I508" s="0">
-        <v>0.303000003099442</v>
+        <v>0.343100011348724</v>
       </c>
       <c r="K508" s="0">
         <v>2.40000009536743</v>
@@ -21778,7 +21840,7 @@
       </c>
       <c r="Y509" s="0" t="inlineStr">
         <is>
-          <t>Naknek Electric schedule 6/1/2016</t>
+          <t>Naknek Electric schedule 6/1/2018</t>
         </is>
       </c>
     </row>
@@ -21814,7 +21876,7 @@
       </c>
       <c r="Y510" s="0" t="inlineStr">
         <is>
-          <t>AEAdatabase updated 1/2018 for residential;CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEAdatabase updated 4/2018 for residential;CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -21850,7 +21912,7 @@
       </c>
       <c r="Y511" s="0" t="inlineStr">
         <is>
-          <t>AEAdatabase updated 1/2018 for residential;CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEAdatabase updated 4/2018 for residential;CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -21883,7 +21945,7 @@
       </c>
       <c r="Y512" s="0" t="inlineStr">
         <is>
-          <t>Chefornak; AIDEA database updated 1/2018; CO2 estimated from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Chefornak; AIDEA database updated 4/2018; CO2 estimated from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -21922,7 +21984,7 @@
       </c>
       <c r="Y513" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -21958,7 +22020,7 @@
       </c>
       <c r="Y514" s="0" t="inlineStr">
         <is>
-          <t>AIDEA database updated 1/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AIDEA database updated 4/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -21991,7 +22053,7 @@
       </c>
       <c r="Y515" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 4/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -22081,7 +22143,7 @@
       </c>
       <c r="Y517" s="0" t="inlineStr">
         <is>
-          <t>NSB rate schedule updated 1/2018;  Nuiqsut has special rates because its electricity is generated by natural gas No charge for elder or handicapped customers, NSB assistance  $.20/kwh (1-300 kwh)</t>
+          <t>NSB rate schedule updated 7/2018;  Nuiqsut has special rates because its electricity is generated by natural gas No charge for elder or handicapped customers, NSB assistance  $.20/kwh (1-300 kwh)</t>
         </is>
       </c>
     </row>
@@ -22116,11 +22178,11 @@
         <v>43.1800003051758</v>
       </c>
       <c r="S518" s="0">
-        <v>0.589999973773956</v>
+        <v>0.689999997615814</v>
       </c>
       <c r="Y518" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018 APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -22149,11 +22211,11 @@
         <v>2.90000009536743</v>
       </c>
       <c r="S519" s="0">
-        <v>0.391000002622604</v>
+        <v>0.39640000462532</v>
       </c>
       <c r="Y519" s="0" t="inlineStr">
         <is>
-          <t>AEA report updated 1/2018 for residential rates</t>
+          <t>AEA report updated 7/2018 for residential rates</t>
         </is>
       </c>
     </row>
@@ -22179,23 +22241,23 @@
         <v>0</v>
       </c>
       <c r="H520" s="0">
-        <v>0.16889999806881</v>
+        <v>0.142299994826317</v>
       </c>
       <c r="K520" s="0">
         <v>1.5</v>
       </c>
       <c r="L520" s="0">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M520" s="0">
-        <v>20</v>
+        <v>8.5</v>
       </c>
       <c r="S520" s="0">
         <v>0.226600006222725</v>
       </c>
       <c r="Y520" s="0" t="inlineStr">
         <is>
-          <t>Dillingham and Aleknagik; Nushagak updated 1/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Dillingham and Aleknagik; Nushagak updated 7/2018; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -22227,11 +22289,11 @@
         <v>5</v>
       </c>
       <c r="S521" s="0">
-        <v>0.388700008392334</v>
+        <v>0.400999993085861</v>
       </c>
       <c r="Y521" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018 for residential; CO2 estimated from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 7/2018 for residential; CO2 estimated from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -22293,11 +22355,11 @@
         <v>2.59999990463257</v>
       </c>
       <c r="S523" s="0">
-        <v>0.810000002384186</v>
+        <v>0.819999992847443</v>
       </c>
       <c r="Y523" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018 for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 7/2018 for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -22417,7 +22479,7 @@
       </c>
       <c r="Y526" s="0" t="inlineStr">
         <is>
-          <t>Rates from City of Petersburg  unchanged in 1/18 since 7/2015; CO2 rates include hydro from Tyee (based on sales rather than generation)</t>
+          <t>Rates from City of Petersburg  unchanged in 7/18 since 7/2015; CO2 rates include hydro from Tyee (based on sales rather than generation)</t>
         </is>
       </c>
     </row>
@@ -22453,7 +22515,7 @@
       </c>
       <c r="Y527" s="0" t="inlineStr">
         <is>
-          <t>AEA report updated 1/2018 for residential;</t>
+          <t>AEA report updated 7/2018 for residential;</t>
         </is>
       </c>
     </row>
@@ -22482,7 +22544,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="S528" s="0">
-        <v>0.5</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="Y528" s="0" t="inlineStr">
         <is>
@@ -22522,7 +22584,7 @@
       </c>
       <c r="Y529" s="0" t="inlineStr">
         <is>
-          <t>AEA report updated 1/2018 for residential;</t>
+          <t>AEA report updated 4/2018 for residential;</t>
         </is>
       </c>
     </row>
@@ -22555,7 +22617,7 @@
       </c>
       <c r="Y530" s="0" t="inlineStr">
         <is>
-          <t>AEA report updated 1/2018 for residential; Kongiganak</t>
+          <t>AEA report updated 3/2018 for residential; Kongiganak</t>
         </is>
       </c>
     </row>
@@ -22591,7 +22653,7 @@
       </c>
       <c r="Y531" s="0" t="inlineStr">
         <is>
-          <t> AEA report updated 1/2018 for residential;</t>
+          <t> AEA report updated 4/2018 for residential;</t>
         </is>
       </c>
     </row>
@@ -22623,11 +22685,11 @@
         <v>6.67999982833862</v>
       </c>
       <c r="S532" s="0">
-        <v>0.44530001282692</v>
+        <v>0.535300016403198</v>
       </c>
       <c r="Y532" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018 for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 3/2018 for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -22675,7 +22737,7 @@
       </c>
       <c r="Y533" s="0" t="inlineStr">
         <is>
-          <t>rates  from  City of Seward; 1/2018 ; Chugach Electric purchased energy costs vary monthly,  Purchased energy adjustment is average of summer and winter rates</t>
+          <t>rates  from  City of Seward; 7/2018 ; Chugach Electric purchased energy costs vary monthly,  Purchased energy adjustment is average of summer and winter rates</t>
         </is>
       </c>
     </row>
@@ -22749,11 +22811,11 @@
         <v>6.32999992370605</v>
       </c>
       <c r="S535" s="0">
-        <v>0.189999997615814</v>
+        <v>0.200000002980232</v>
       </c>
       <c r="Y535" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018  APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018  APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -22788,11 +22850,11 @@
         <v>43.1800003051758</v>
       </c>
       <c r="S536" s="0">
-        <v>0.560000002384186</v>
+        <v>0.629999995231628</v>
       </c>
       <c r="Y536" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018  APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018  APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -22820,15 +22882,13 @@
       <c r="K537" s="0">
         <v>1.79999995231628</v>
       </c>
-      <c r="L537" s="0">
-        <v>0</v>
-      </c>
+      <c r="L537" s="0"/>
       <c r="S537" s="0">
         <v>1</v>
       </c>
       <c r="Y537" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018  from AEA database for residential</t>
+          <t>updated 4/2018  from AEA database for residential</t>
         </is>
       </c>
     </row>
@@ -22860,11 +22920,11 @@
         <v>0</v>
       </c>
       <c r="S538" s="0">
-        <v>0.419999986886978</v>
+        <v>0.490000009536743</v>
       </c>
       <c r="Y538" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018  from AEA database for residential</t>
+          <t>updated 4/2018  from City of St. Paul</t>
         </is>
       </c>
     </row>
@@ -22897,7 +22957,7 @@
       </c>
       <c r="Y539" s="0" t="inlineStr">
         <is>
-          <t>AIDEA database updated 1/2018</t>
+          <t>AIDEA database updated 4/2018</t>
         </is>
       </c>
     </row>
@@ -22930,7 +22990,7 @@
       </c>
       <c r="Y540" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 2/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -22962,11 +23022,11 @@
         <v>5</v>
       </c>
       <c r="S541" s="0">
-        <v>0.505599975585938</v>
+        <v>0.559899985790253</v>
       </c>
       <c r="Y541" s="0" t="inlineStr">
         <is>
-          <t>Port Alsworth; AEA database updated 1/2018  for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Port Alsworth; AEA database updated 4/2018  for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -23053,7 +23113,7 @@
       </c>
       <c r="Y543" s="0" t="inlineStr">
         <is>
-          <t>AIDEA database updated 1/2018   for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AIDEA database updated 4/2018   for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -23121,11 +23181,11 @@
         <v>7.5</v>
       </c>
       <c r="S545" s="0">
-        <v>0.610000014305115</v>
+        <v>0.649999976158142</v>
       </c>
       <c r="Y545" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018  for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 7/2018  for residential;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -23160,11 +23220,11 @@
         <v>10.8299999237061</v>
       </c>
       <c r="S546" s="0">
-        <v>0.300000011920929</v>
+        <v>0.379999995231628</v>
       </c>
       <c r="Y546" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018   APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018   APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -23203,7 +23263,7 @@
       </c>
       <c r="Y547" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018   APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018   APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -23238,11 +23298,11 @@
         <v>10.8299999237061</v>
       </c>
       <c r="S548" s="0">
-        <v>0.300000011920929</v>
+        <v>0.360000014305115</v>
       </c>
       <c r="Y548" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018  APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018  APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -23275,7 +23335,7 @@
       </c>
       <c r="Y549" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 3/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -23311,7 +23371,7 @@
       </c>
       <c r="Y550" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 3/2018 for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -23340,11 +23400,11 @@
         <v>1.79999995231628</v>
       </c>
       <c r="S551" s="0">
-        <v>0.504100024700165</v>
+        <v>0.505999982357025</v>
       </c>
       <c r="Y551" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AEA database updated 5/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -23380,7 +23440,7 @@
       </c>
       <c r="Y552" s="0" t="inlineStr">
         <is>
-          <t>Nikolski; AEA database updated 1/2018 ; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Nikolski; AEA database updated 4/2018 ; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -23412,11 +23472,11 @@
         <v>4</v>
       </c>
       <c r="S553" s="0">
-        <v>0.427199989557266</v>
+        <v>0.436699986457825</v>
       </c>
       <c r="Y553" s="0" t="inlineStr">
         <is>
-          <t>AEA database updated 1/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA) Unalakleet VEA is owned by Matanuska Electric Assn.</t>
+          <t>AEA database updated 7/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA) Unalakleet VEA is owned by Matanuska Electric Assn.</t>
         </is>
       </c>
     </row>
@@ -23442,7 +23502,7 @@
         <v>0</v>
       </c>
       <c r="H554" s="0">
-        <v>0.165099993348122</v>
+        <v>0.199619993567467</v>
       </c>
       <c r="K554" s="0">
         <v>1.60000002384186</v>
@@ -23458,7 +23518,7 @@
       </c>
       <c r="Y554" s="0" t="inlineStr">
         <is>
-          <t>Unalaska schedul via e-mail - updated 1/2018 ;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Unalaska schedul via e-mail - updated 7/2018 ;  CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -23491,7 +23551,7 @@
       </c>
       <c r="Y555" s="0" t="inlineStr">
         <is>
-          <t>Newtok; AEA database updated 1/2018  residential;   CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>Newtok; AEA database updated 4/2018  residential;   CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -23524,7 +23584,7 @@
       </c>
       <c r="Y556" s="0" t="inlineStr">
         <is>
-          <t> AEA database updated 1/2018  for residential;   CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t> AEA database updated 4/2018  for residential;   CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -23563,7 +23623,7 @@
       </c>
       <c r="Y557" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018  APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
+          <t>updated 7/2018  APT report - reported rate per kwh includes COPA and RCC so I have deleted RCC charge here</t>
         </is>
       </c>
     </row>
@@ -23599,7 +23659,7 @@
       </c>
       <c r="Y558" s="0" t="inlineStr">
         <is>
-          <t>AIDEA database updated 1/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
+          <t>AIDEA database updated 4/2018  for residential; CO2 from PCE Statistics from Alaska Energy Authority (DCRA)</t>
         </is>
       </c>
     </row>
@@ -23644,7 +23704,7 @@
       </c>
       <c r="Y559" s="0" t="inlineStr">
         <is>
-          <t>Wrangell website and e-mails from Electric Dept updated 1/2018  no change from 7/2015;</t>
+          <t>Wrangell website and e-mails from Electric Dept updated 7/2018  no change from 7/2015;</t>
         </is>
       </c>
     </row>
@@ -23669,12 +23729,16 @@
       <c r="G560" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="I560" s="0">
-        <v>0.201299995183945</v>
-      </c>
+      <c r="H560" s="0">
+        <v>0.22409999370575</v>
+      </c>
+      <c r="I560" s="0"/>
       <c r="K560" s="0">
         <v>1.60000002384186</v>
       </c>
+      <c r="L560" s="0">
+        <v>45</v>
+      </c>
       <c r="M560" s="0">
         <v>45</v>
       </c>
@@ -23683,7 +23747,7 @@
       </c>
       <c r="Y560" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 taken over by AVEC 6/2017;</t>
+          <t>updated July 2018 taken over by AVEC 6/2017;</t>
         </is>
       </c>
     </row>
@@ -23728,7 +23792,7 @@
       </c>
       <c r="Y561" s="0" t="inlineStr">
         <is>
-          <t>from AEL&amp;P website rate schedule for 1/2018; block rate and demand charge are calculated as .75* Peak rate + .25  Off Peak rate.</t>
+          <t>from AEL&amp;P website rate schedule for 7/2018; block rate and demand charge are calculated as .75* Peak rate + .25  Off Peak rate.</t>
         </is>
       </c>
     </row>
@@ -23773,7 +23837,7 @@
       </c>
       <c r="Y562" s="0" t="inlineStr">
         <is>
-          <t>from AEL&amp;P website rate schedule for 1/2018; block rate and demand charge are calculated as .75* Peak rate + .25  Off Peak rate.</t>
+          <t>from AEL&amp;P website rate schedule for 7/2018; block rate and demand charge are calculated as .75* Peak rate + .25  Off Peak rate.</t>
         </is>
       </c>
     </row>
@@ -23818,7 +23882,7 @@
       </c>
       <c r="Y563" s="0" t="inlineStr">
         <is>
-          <t>from AEL&amp;P website rate schedule for 1/2018; block rate and demand charge are calculated as .75* Peak rate + .25  Off Peak rate.</t>
+          <t>from AEL&amp;P website rate schedule for 7/2018; block rate and demand charge are calculated as .75* Peak rate + .25  Off Peak rate.</t>
         </is>
       </c>
     </row>
@@ -23880,7 +23944,7 @@
         <v>0.19140000641346</v>
       </c>
       <c r="J565" s="0">
-        <v>0.240700006484985</v>
+        <v>0.167099997401237</v>
       </c>
       <c r="K565" s="0">
         <v>1.60000002384186</v>
@@ -23919,7 +23983,7 @@
         <v>0.19140000641346</v>
       </c>
       <c r="J566" s="0">
-        <v>0.240700006484985</v>
+        <v>0.167099997401237</v>
       </c>
       <c r="K566" s="0">
         <v>1.60000002384186</v>
@@ -23983,7 +24047,7 @@
       </c>
       <c r="Y567" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018</t>
+          <t>updated 1/2018; special rates because electricity is generated by natural gas</t>
         </is>
       </c>
     </row>
@@ -24025,7 +24089,7 @@
       </c>
       <c r="Y568" s="0" t="inlineStr">
         <is>
-          <t>updated 1/2018</t>
+          <t>updated 1/2018; special rates because electricity is generated by natural gas</t>
         </is>
       </c>
     </row>
@@ -24120,7 +24184,7 @@
         <v>1</v>
       </c>
       <c r="J571" s="0">
-        <v>0.478700011968613</v>
+        <v>0.782999992370605</v>
       </c>
       <c r="K571" s="0">
         <v>1.79999995231628</v>
@@ -24129,11 +24193,11 @@
         <v>22.9799995422363</v>
       </c>
       <c r="S571" s="0">
-        <v>1.16540002822876</v>
+        <v>1.61800003051758</v>
       </c>
       <c r="Y571" s="0" t="inlineStr">
         <is>
-          <t>From AIEDA, updated Jan 2018</t>
+          <t>From AIEDA, updated Jul 2018</t>
         </is>
       </c>
     </row>
@@ -24201,17 +24265,17 @@
         <v>1</v>
       </c>
       <c r="H573" s="0">
-        <v>0.824159979820251</v>
+        <v>0.791960000991821</v>
       </c>
       <c r="L573" s="0">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="S573" s="0">
-        <v>7.02600032091141E-02</v>
+        <v>6.48299977183342E-02</v>
       </c>
       <c r="Y573" s="0" t="inlineStr">
         <is>
-          <t>Rates are  from Enstar Website effective updated Jan 2018; CO2 is lbs/therm (12.1) estimated from ACE3 figures;  Fuel Surcharge is actually Gas Cost Adjustment which is the figure ENSTAR changes each January; RCC of .223% .  This  rate is for customers throughout the service area - Anchorage, Big Lake, Chugiak-EagleRiver Eklutna, Girdwood, Houston, Indian, Kenai, Knik, Nikiski, Palmer, Peters Creek Portage, Sterling, Soldotna, Wasilla,Whittier</t>
+          <t>Rates are  from Enstar Website effective updated July 2018; CO2 is lbs/therm (12.1) estimated from ACE3 figures;  Fuel Surcharge is actually Gas Cost Adjustment which is the figure ENSTAR changes each January; RCC of .223% .  This  rate is for customers throughout the service area - Anchorage, Big Lake, Chugiak-EagleRiver Eklutna, Girdwood, Houston, Indian, Kenai, Knik, Nikiski, Palmer, Peters Creek Portage, Sterling, Soldotna, Wasilla,Whittier</t>
         </is>
       </c>
     </row>
@@ -24237,7 +24301,7 @@
         <v>1</v>
       </c>
       <c r="H574" s="0">
-        <v>9.46699976921082E-02</v>
+        <v>0.110710002481937</v>
       </c>
       <c r="K574" s="0">
         <v>2.27999997138977</v>
@@ -24256,7 +24320,7 @@
       </c>
       <c r="Y574" s="0" t="inlineStr">
         <is>
-          <t>Rates from 11/2017; Fuel and Purchased Power Charges are combined under Fuel Surcharge            CO2 is based on addition of hydro from Bradley Lake (without hydro = 2.8)</t>
+          <t>Rates from 7/1/18; Fuel and Purchased Power Charges are combined under Fuel Surcharge            CO2 is based on addition of hydro from Bradley Lake (without hydro = 2.8)</t>
         </is>
       </c>
     </row>
@@ -24282,7 +24346,7 @@
         <v>1</v>
       </c>
       <c r="H575" s="0">
-        <v>9.46699976921082E-02</v>
+        <v>0.110710002481937</v>
       </c>
       <c r="K575" s="0">
         <v>2.27999997138977</v>
@@ -24301,7 +24365,7 @@
       </c>
       <c r="Y575" s="0" t="inlineStr">
         <is>
-          <t>Rates from 11/2017; Fuel and Purchased Power Charges are combined under Fuel Surcharge            CO2 is based on addition of hydro from Bradley Lake (without hydro = 2.8)</t>
+          <t>Rates from 7/1/18; Fuel and Purchased Power Charges are combined under Fuel Surcharge            CO2 is based on addition of hydro from Bradley Lake (without hydro = 2.8)</t>
         </is>
       </c>
     </row>
@@ -24388,7 +24452,7 @@
       </c>
       <c r="Y577" s="0" t="inlineStr">
         <is>
-          <t>Wrangell website and e-mails from Electric Dept updated 1/2018  no change from 7/2015;</t>
+          <t>Wrangell website and e-mails from Electric Dept updated 7/2018  no change from 7/2015;</t>
         </is>
       </c>
     </row>
@@ -24430,7 +24494,7 @@
       </c>
       <c r="Y578" s="0" t="inlineStr">
         <is>
-          <t>Wrangell website and e-mails from Electric Dept updated 1/2018  no change from 7/2015;</t>
+          <t>Wrangell website and e-mails from Electric Dept updated 7/2018  no change from 7/2015;</t>
         </is>
       </c>
     </row>
@@ -24478,7 +24542,7 @@
       </c>
       <c r="Y579" s="0" t="inlineStr">
         <is>
-          <t>Wrangell website and e-mails from Electric Dept updated 1/2018  no change from 7/2015;</t>
+          <t>Wrangell website and e-mails from Electric Dept updated 7/2018  no change from 7/2015;</t>
         </is>
       </c>
     </row>
@@ -24508,7 +24572,7 @@
       </c>
       <c r="Y580" s="0" t="inlineStr">
         <is>
-          <t>Customers are charged only a monthly rate of $25/month 7/2015</t>
+          <t>Customers are charged only a monthly rate of $25/month 7/2018</t>
         </is>
       </c>
     </row>
@@ -24544,7 +24608,7 @@
       </c>
       <c r="Y581" s="0" t="inlineStr">
         <is>
-          <t>from AEL&amp;P website rate schedule for 1/2018; COPA is not in effect and the rate is only for Jan-March</t>
+          <t>from AEL&amp;P website rate schedule for 7/2018; block rate and demand charge are calculated as .75* Peak rate + .25  Off Peak rate.</t>
         </is>
       </c>
     </row>
@@ -24580,7 +24644,7 @@
       </c>
       <c r="Y582" s="0" t="inlineStr">
         <is>
-          <t>from AEL&amp;P website rate schedule for 1/2018; COPA is not in effect and the rate is only for Jan-March</t>
+          <t>from AEL&amp;P website rate schedule for 7/2018; block rate and demand charge are calculated as .75* Peak rate + .25  Off Peak rate.</t>
         </is>
       </c>
     </row>
@@ -24609,11 +24673,11 @@
         <v>1.79999995231628</v>
       </c>
       <c r="S583" s="0">
-        <v>0.519299983978271</v>
+        <v>0.625</v>
       </c>
       <c r="Y583" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 AEA and RCC rates</t>
+          <t>updated July 2018 AEA and RCC rates</t>
         </is>
       </c>
     </row>
@@ -24642,11 +24706,11 @@
         <v>1.79999995231628</v>
       </c>
       <c r="S584" s="0">
-        <v>0.519299983978271</v>
+        <v>0.625</v>
       </c>
       <c r="Y584" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 AEA and RCC rates</t>
+          <t>updated July 2018 AEA and RCC rates</t>
         </is>
       </c>
     </row>
@@ -24672,17 +24736,17 @@
         <v>1</v>
       </c>
       <c r="J585" s="0">
-        <v>0.256000012159348</v>
+        <v>0.2466000020504</v>
       </c>
       <c r="K585" s="0">
         <v>1.79999995231628</v>
       </c>
       <c r="S585" s="0">
-        <v>0.519299983978271</v>
+        <v>0.625</v>
       </c>
       <c r="Y585" s="0" t="inlineStr">
         <is>
-          <t>updated Jan 2018 AEA</t>
+          <t>updated July 2018 AEA and RCC rates</t>
         </is>
       </c>
     </row>
